--- a/airflow/data/precios.xlsx
+++ b/airflow/data/precios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM30"/>
+  <dimension ref="A1:BM31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6531,6 +6531,205 @@
         <v>418.56</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>9</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2023-03-19</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1027.14</v>
+      </c>
+      <c r="D31" t="n">
+        <v>198.49</v>
+      </c>
+      <c r="E31" t="n">
+        <v>349.99</v>
+      </c>
+      <c r="F31" t="n">
+        <v>201.75</v>
+      </c>
+      <c r="G31" t="n">
+        <v>229.02</v>
+      </c>
+      <c r="H31" t="n">
+        <v>223.89</v>
+      </c>
+      <c r="I31" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1599.9</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="L31" t="n">
+        <v>429.9</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="N31" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1299.9</v>
+      </c>
+      <c r="P31" t="n">
+        <v>299.9</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="R31" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1690</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1220</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1909</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1049</v>
+      </c>
+      <c r="W31" t="n">
+        <v>4263.33</v>
+      </c>
+      <c r="X31" t="n">
+        <v>574.74</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>277.05</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>242.15</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1485.55</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>264.2</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1469</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>2699</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1592</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>236.25</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>736.12</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>1361</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>499</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>499</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>419</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>479</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>239</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>329</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>229</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>199</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>899</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>699</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>249</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>199</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>614.16</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>509.04</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>1313.15</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>304.22</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>726</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>581.26</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>640.49</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>92.52</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>224.67</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>397</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>454</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>830.58</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>770.85</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>418.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/airflow/data/precios.xlsx
+++ b/airflow/data/precios.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM31"/>
+  <dimension ref="A1:BM32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,10 +768,8 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023-02-17</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>44974</v>
       </c>
       <c r="C2" t="n">
         <v>995.14</v>
@@ -963,10 +965,8 @@
       <c r="A3" t="n">
         <v>11</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2023-02-18</t>
-        </is>
+      <c r="B3" s="2" t="n">
+        <v>44975</v>
       </c>
       <c r="C3" t="n">
         <v>995.14</v>
@@ -1162,10 +1162,8 @@
       <c r="A4" t="n">
         <v>14</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2023-02-20</t>
-        </is>
+      <c r="B4" s="2" t="n">
+        <v>44977</v>
       </c>
       <c r="C4" t="n">
         <v>995.14</v>
@@ -1361,10 +1359,8 @@
       <c r="A5" t="n">
         <v>15</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2023-02-21</t>
-        </is>
+      <c r="B5" s="2" t="n">
+        <v>44978</v>
       </c>
       <c r="C5" t="n">
         <v>995.14</v>
@@ -1560,10 +1556,8 @@
       <c r="A6" t="n">
         <v>16</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2023-02-22</t>
-        </is>
+      <c r="B6" s="2" t="n">
+        <v>44979</v>
       </c>
       <c r="C6" t="n">
         <v>995.14</v>
@@ -1759,10 +1753,8 @@
       <c r="A7" t="n">
         <v>17</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2023-02-23</t>
-        </is>
+      <c r="B7" s="2" t="n">
+        <v>44980</v>
       </c>
       <c r="C7" t="n">
         <v>995.14</v>
@@ -1958,10 +1950,8 @@
       <c r="A8" t="n">
         <v>18</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2023-02-24</t>
-        </is>
+      <c r="B8" s="2" t="n">
+        <v>44981</v>
       </c>
       <c r="C8" t="n">
         <v>995.14</v>
@@ -2157,10 +2147,8 @@
       <c r="A9" t="n">
         <v>19</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2023-02-25</t>
-        </is>
+      <c r="B9" s="2" t="n">
+        <v>44982</v>
       </c>
       <c r="C9" t="n">
         <v>995.14</v>
@@ -2356,10 +2344,8 @@
       <c r="A10" t="n">
         <v>20</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2023-02-26</t>
-        </is>
+      <c r="B10" s="2" t="n">
+        <v>44983</v>
       </c>
       <c r="C10" t="n">
         <v>995.14</v>
@@ -2555,10 +2541,8 @@
       <c r="A11" t="n">
         <v>21</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2023-02-27</t>
-        </is>
+      <c r="B11" s="2" t="n">
+        <v>44984</v>
       </c>
       <c r="C11" t="n">
         <v>995.14</v>
@@ -2754,10 +2738,8 @@
       <c r="A12" t="n">
         <v>22</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2023-02-28</t>
-        </is>
+      <c r="B12" s="2" t="n">
+        <v>44985</v>
       </c>
       <c r="C12" t="n">
         <v>995.14</v>
@@ -2953,10 +2935,8 @@
       <c r="A13" t="n">
         <v>23</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2023-03-01</t>
-        </is>
+      <c r="B13" s="2" t="n">
+        <v>44986</v>
       </c>
       <c r="C13" t="n">
         <v>1027.14</v>
@@ -3152,10 +3132,8 @@
       <c r="A14" t="n">
         <v>24</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2023-03-02</t>
-        </is>
+      <c r="B14" s="2" t="n">
+        <v>44987</v>
       </c>
       <c r="C14" t="n">
         <v>1027.14</v>
@@ -3351,10 +3329,8 @@
       <c r="A15" t="n">
         <v>25</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2023-03-03</t>
-        </is>
+      <c r="B15" s="2" t="n">
+        <v>44988</v>
       </c>
       <c r="C15" t="n">
         <v>1027.14</v>
@@ -3550,10 +3526,8 @@
       <c r="A16" t="n">
         <v>26</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2023-03-04</t>
-        </is>
+      <c r="B16" s="2" t="n">
+        <v>44989</v>
       </c>
       <c r="C16" t="n">
         <v>1027.14</v>
@@ -3749,10 +3723,8 @@
       <c r="A17" t="n">
         <v>27</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2023-03-05</t>
-        </is>
+      <c r="B17" s="2" t="n">
+        <v>44990</v>
       </c>
       <c r="C17" t="n">
         <v>1027.14</v>
@@ -3948,10 +3920,8 @@
       <c r="A18" t="n">
         <v>28</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2023-03-06</t>
-        </is>
+      <c r="B18" s="2" t="n">
+        <v>44991</v>
       </c>
       <c r="C18" t="n">
         <v>1027.14</v>
@@ -4147,10 +4117,8 @@
       <c r="A19" t="n">
         <v>30</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2023-03-07</t>
-        </is>
+      <c r="B19" s="2" t="n">
+        <v>44992</v>
       </c>
       <c r="C19" t="n">
         <v>1027.14</v>
@@ -4346,10 +4314,8 @@
       <c r="A20" t="n">
         <v>31</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2023-03-08</t>
-        </is>
+      <c r="B20" s="2" t="n">
+        <v>44993</v>
       </c>
       <c r="C20" t="n">
         <v>1027.14</v>
@@ -4545,10 +4511,8 @@
       <c r="A21" t="n">
         <v>32</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2023-03-09</t>
-        </is>
+      <c r="B21" s="2" t="n">
+        <v>44994</v>
       </c>
       <c r="C21" t="n">
         <v>1027.14</v>
@@ -4744,10 +4708,8 @@
       <c r="A22" t="n">
         <v>33</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2023-03-10</t>
-        </is>
+      <c r="B22" s="2" t="n">
+        <v>44995</v>
       </c>
       <c r="C22" t="n">
         <v>1027.14</v>
@@ -4943,10 +4905,8 @@
       <c r="A23" t="n">
         <v>34</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2023-03-11</t>
-        </is>
+      <c r="B23" s="2" t="n">
+        <v>44996</v>
       </c>
       <c r="C23" t="n">
         <v>1027.14</v>
@@ -5142,10 +5102,8 @@
       <c r="A24" t="n">
         <v>35</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2023-03-12</t>
-        </is>
+      <c r="B24" s="2" t="n">
+        <v>44997</v>
       </c>
       <c r="C24" t="n">
         <v>1027.14</v>
@@ -5341,10 +5299,8 @@
       <c r="A25" t="n">
         <v>36</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2023-03-13</t>
-        </is>
+      <c r="B25" s="2" t="n">
+        <v>44998</v>
       </c>
       <c r="C25" t="n">
         <v>1027.14</v>
@@ -5540,10 +5496,8 @@
       <c r="A26" t="n">
         <v>37</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2023-03-14</t>
-        </is>
+      <c r="B26" s="2" t="n">
+        <v>44999</v>
       </c>
       <c r="C26" t="n">
         <v>1027.14</v>
@@ -5739,10 +5693,8 @@
       <c r="A27" t="n">
         <v>38</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2023-03-15</t>
-        </is>
+      <c r="B27" s="2" t="n">
+        <v>45000</v>
       </c>
       <c r="C27" t="n">
         <v>1027.14</v>
@@ -5938,10 +5890,8 @@
       <c r="A28" t="n">
         <v>39</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2023-03-16</t>
-        </is>
+      <c r="B28" s="2" t="n">
+        <v>45001</v>
       </c>
       <c r="C28" t="n">
         <v>1027.14</v>
@@ -6137,10 +6087,8 @@
       <c r="A29" t="n">
         <v>1</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
+      <c r="B29" s="2" t="n">
+        <v>45002</v>
       </c>
       <c r="C29" t="n">
         <v>1027.14</v>
@@ -6336,10 +6284,8 @@
       <c r="A30" t="n">
         <v>1</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2023-03-18</t>
-        </is>
+      <c r="B30" s="2" t="n">
+        <v>45003</v>
       </c>
       <c r="C30" t="n">
         <v>1027.14</v>
@@ -6535,10 +6481,8 @@
       <c r="A31" t="n">
         <v>9</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2023-03-19</t>
-        </is>
+      <c r="B31" s="2" t="n">
+        <v>45004</v>
       </c>
       <c r="C31" t="n">
         <v>1027.14</v>
@@ -6727,6 +6671,203 @@
         <v>770.85</v>
       </c>
       <c r="BM31" t="n">
+        <v>418.56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>14</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1027.14</v>
+      </c>
+      <c r="D32" t="n">
+        <v>198.49</v>
+      </c>
+      <c r="E32" t="n">
+        <v>349.99</v>
+      </c>
+      <c r="F32" t="n">
+        <v>201.75</v>
+      </c>
+      <c r="G32" t="n">
+        <v>229.02</v>
+      </c>
+      <c r="H32" t="n">
+        <v>223.89</v>
+      </c>
+      <c r="I32" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1599.9</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="L32" t="n">
+        <v>529.9</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="N32" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1749.9</v>
+      </c>
+      <c r="P32" t="n">
+        <v>299.9</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="R32" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1690</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1630</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1909</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W32" t="n">
+        <v>4263.33</v>
+      </c>
+      <c r="X32" t="n">
+        <v>574.74</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>277.05</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>242.15</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1485.55</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>264.2</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1469</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1592</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>236.25</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>736.12</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>1361</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>499</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>499</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>449</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>479</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>269</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>329</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>229</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>199</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>899</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>699</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>249</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>169</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>614.16</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>509.04</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>1313.15</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>304.22</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>726</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>581.26</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>640.49</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>92.52</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>224.67</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>397</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>454</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>830.58</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>770.85</v>
+      </c>
+      <c r="BM32" t="n">
         <v>418.56</v>
       </c>
     </row>

--- a/airflow/data/precios.xlsx
+++ b/airflow/data/precios.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM32"/>
+  <dimension ref="A1:BM33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,8 +764,10 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>44974</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-02-17</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>995.14</v>
@@ -965,8 +963,10 @@
       <c r="A3" t="n">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>44975</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-02-18</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>995.14</v>
@@ -1162,8 +1162,10 @@
       <c r="A4" t="n">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>44977</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-02-20</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>995.14</v>
@@ -1359,8 +1361,10 @@
       <c r="A5" t="n">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>44978</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-02-21</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>995.14</v>
@@ -1556,8 +1560,10 @@
       <c r="A6" t="n">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>44979</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>995.14</v>
@@ -1753,8 +1759,10 @@
       <c r="A7" t="n">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>44980</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-02-23</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>995.14</v>
@@ -1950,8 +1958,10 @@
       <c r="A8" t="n">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>44981</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>995.14</v>
@@ -2147,8 +2157,10 @@
       <c r="A9" t="n">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>44982</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-02-25</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>995.14</v>
@@ -2344,8 +2356,10 @@
       <c r="A10" t="n">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>44983</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2023-02-26</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>995.14</v>
@@ -2541,8 +2555,10 @@
       <c r="A11" t="n">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>44984</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2023-02-27</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>995.14</v>
@@ -2738,8 +2754,10 @@
       <c r="A12" t="n">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>44985</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2023-02-28</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>995.14</v>
@@ -2935,8 +2953,10 @@
       <c r="A13" t="n">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>44986</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2023-03-01</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>1027.14</v>
@@ -3132,8 +3152,10 @@
       <c r="A14" t="n">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>44987</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2023-03-02</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>1027.14</v>
@@ -3329,8 +3351,10 @@
       <c r="A15" t="n">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>44988</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2023-03-03</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>1027.14</v>
@@ -3526,8 +3550,10 @@
       <c r="A16" t="n">
         <v>26</v>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>44989</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2023-03-04</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>1027.14</v>
@@ -3723,8 +3749,10 @@
       <c r="A17" t="n">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>44990</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2023-03-05</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>1027.14</v>
@@ -3920,8 +3948,10 @@
       <c r="A18" t="n">
         <v>28</v>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>44991</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2023-03-06</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>1027.14</v>
@@ -4117,8 +4147,10 @@
       <c r="A19" t="n">
         <v>30</v>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>44992</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2023-03-07</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>1027.14</v>
@@ -4314,8 +4346,10 @@
       <c r="A20" t="n">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>44993</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2023-03-08</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>1027.14</v>
@@ -4511,8 +4545,10 @@
       <c r="A21" t="n">
         <v>32</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>44994</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2023-03-09</t>
+        </is>
       </c>
       <c r="C21" t="n">
         <v>1027.14</v>
@@ -4708,8 +4744,10 @@
       <c r="A22" t="n">
         <v>33</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>44995</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2023-03-10</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v>1027.14</v>
@@ -4905,8 +4943,10 @@
       <c r="A23" t="n">
         <v>34</v>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>44996</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2023-03-11</t>
+        </is>
       </c>
       <c r="C23" t="n">
         <v>1027.14</v>
@@ -5102,8 +5142,10 @@
       <c r="A24" t="n">
         <v>35</v>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>44997</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2023-03-12</t>
+        </is>
       </c>
       <c r="C24" t="n">
         <v>1027.14</v>
@@ -5299,8 +5341,10 @@
       <c r="A25" t="n">
         <v>36</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>44998</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
       </c>
       <c r="C25" t="n">
         <v>1027.14</v>
@@ -5496,8 +5540,10 @@
       <c r="A26" t="n">
         <v>37</v>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>44999</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2023-03-14</t>
+        </is>
       </c>
       <c r="C26" t="n">
         <v>1027.14</v>
@@ -5693,8 +5739,10 @@
       <c r="A27" t="n">
         <v>38</v>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>45000</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2023-03-15</t>
+        </is>
       </c>
       <c r="C27" t="n">
         <v>1027.14</v>
@@ -5890,8 +5938,10 @@
       <c r="A28" t="n">
         <v>39</v>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>45001</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2023-03-16</t>
+        </is>
       </c>
       <c r="C28" t="n">
         <v>1027.14</v>
@@ -6087,8 +6137,10 @@
       <c r="A29" t="n">
         <v>1</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>45002</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2023-03-17</t>
+        </is>
       </c>
       <c r="C29" t="n">
         <v>1027.14</v>
@@ -6284,8 +6336,10 @@
       <c r="A30" t="n">
         <v>1</v>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>45003</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2023-03-18</t>
+        </is>
       </c>
       <c r="C30" t="n">
         <v>1027.14</v>
@@ -6481,8 +6535,10 @@
       <c r="A31" t="n">
         <v>9</v>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>45004</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2023-03-19</t>
+        </is>
       </c>
       <c r="C31" t="n">
         <v>1027.14</v>
@@ -6678,8 +6734,10 @@
       <c r="A32" t="n">
         <v>14</v>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>45005</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2023-03-20</t>
+        </is>
       </c>
       <c r="C32" t="n">
         <v>1027.14</v>
@@ -6868,6 +6926,205 @@
         <v>770.85</v>
       </c>
       <c r="BM32" t="n">
+        <v>418.56</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>15</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2023-03-21</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1071.42</v>
+      </c>
+      <c r="D33" t="n">
+        <v>198.49</v>
+      </c>
+      <c r="E33" t="n">
+        <v>349.99</v>
+      </c>
+      <c r="F33" t="n">
+        <v>201.75</v>
+      </c>
+      <c r="G33" t="n">
+        <v>229.02</v>
+      </c>
+      <c r="H33" t="n">
+        <v>223.89</v>
+      </c>
+      <c r="I33" t="n">
+        <v>355.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1599.9</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="L33" t="n">
+        <v>529.9</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="N33" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1749.9</v>
+      </c>
+      <c r="P33" t="n">
+        <v>299.9</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1049.9</v>
+      </c>
+      <c r="R33" t="n">
+        <v>479.9</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1690</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1630</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1909</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1049</v>
+      </c>
+      <c r="W33" t="n">
+        <v>4263.33</v>
+      </c>
+      <c r="X33" t="n">
+        <v>574.74</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>277.05</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>242.15</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1485.55</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>264.2</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1469</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1592</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>236.25</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>736.12</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>1361</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>499</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>499</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>449</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>479</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>269</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>319</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>229</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>199</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>999</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>699</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>249</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>169</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>614.16</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>509.04</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>1313.15</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>304.22</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>726</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>581.26</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>316.3</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>640.49</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>92.52</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>224.67</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>397</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>454</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>830.58</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>770.85</v>
+      </c>
+      <c r="BM33" t="n">
         <v>418.56</v>
       </c>
     </row>

--- a/airflow/data/precios.xlsx
+++ b/airflow/data/precios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM101"/>
+  <dimension ref="A1:BM102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20464,6 +20464,203 @@
         <v>434.47</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>84</v>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1284.71</v>
+      </c>
+      <c r="D102" t="n">
+        <v>221.91</v>
+      </c>
+      <c r="E102" t="n">
+        <v>379.25</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>264.55</v>
+      </c>
+      <c r="H102" t="n">
+        <v>334.92</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1699.9</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1199.9</v>
+      </c>
+      <c r="L102" t="n">
+        <v>599.9</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1589.9</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1889.9</v>
+      </c>
+      <c r="P102" t="n">
+        <v>379.9</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1189.9</v>
+      </c>
+      <c r="R102" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S102" t="n">
+        <v>2299</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1489</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2445</v>
+      </c>
+      <c r="V102" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W102" t="n">
+        <v>4533.33</v>
+      </c>
+      <c r="X102" t="n">
+        <v>623.13</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>317.96</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>278.22</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>1610.64</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>3999</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>469</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>279</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>199</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>339</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>499</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>699</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>665.91</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>586.5700000000001</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>1894.95</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>689.64</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>753.58</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>748.83</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>736.08</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>201.42</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>95.48</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>281.45</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>127.39</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>430.42</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>492.72</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>862.14</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>896.16</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>434.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/airflow/data/precios.xlsx
+++ b/airflow/data/precios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM102"/>
+  <dimension ref="A1:BM103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20661,6 +20661,203 @@
         <v>434.47</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>85</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>45076</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1284.71</v>
+      </c>
+      <c r="D103" t="n">
+        <v>221.91</v>
+      </c>
+      <c r="E103" t="n">
+        <v>379.25</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>264.55</v>
+      </c>
+      <c r="H103" t="n">
+        <v>334.92</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1699.9</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1199.9</v>
+      </c>
+      <c r="L103" t="n">
+        <v>599.9</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1589.9</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1889.9</v>
+      </c>
+      <c r="P103" t="n">
+        <v>379.9</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1189.9</v>
+      </c>
+      <c r="R103" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S103" t="n">
+        <v>2299</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1489</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2445</v>
+      </c>
+      <c r="V103" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W103" t="n">
+        <v>4533.33</v>
+      </c>
+      <c r="X103" t="n">
+        <v>623.13</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>317.96</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>278.22</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>1610.64</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>3999</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>469</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>279</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>199</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>499</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>699</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>665.91</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>642.85</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>1894.95</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>689.64</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>753.58</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>748.83</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>736.08</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>201.42</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>95.48</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>281.45</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>127.39</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>430.42</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>492.72</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>862.14</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>896.16</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>434.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/airflow/data/precios.xlsx
+++ b/airflow/data/precios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM103"/>
+  <dimension ref="A1:BM104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20858,6 +20858,203 @@
         <v>434.47</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>86</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1284.71</v>
+      </c>
+      <c r="D104" t="n">
+        <v>221.91</v>
+      </c>
+      <c r="E104" t="n">
+        <v>379.25</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>264.55</v>
+      </c>
+      <c r="H104" t="n">
+        <v>334.92</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1699.9</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1199.9</v>
+      </c>
+      <c r="L104" t="n">
+        <v>599.9</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1589.9</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1889.9</v>
+      </c>
+      <c r="P104" t="n">
+        <v>379.9</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>1189.9</v>
+      </c>
+      <c r="R104" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S104" t="n">
+        <v>2299</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1489</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2445</v>
+      </c>
+      <c r="V104" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W104" t="n">
+        <v>4533.33</v>
+      </c>
+      <c r="X104" t="n">
+        <v>623.13</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>317.96</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>278.22</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>1610.64</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>3999</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>469</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>279</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>199</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>499</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>699</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>642.85</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>1894.95</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>689.64</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>753.58</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>748.83</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>736.08</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>201.42</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>95.48</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>281.45</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>127.39</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>430.42</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>492.72</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>862.14</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>896.16</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>434.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/airflow/data/precios.xlsx
+++ b/airflow/data/precios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM104"/>
+  <dimension ref="A1:BM111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21055,6 +21055,1385 @@
         <v>434.47</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>87</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1284.71</v>
+      </c>
+      <c r="D105" t="n">
+        <v>221.91</v>
+      </c>
+      <c r="E105" t="n">
+        <v>379.25</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>264.55</v>
+      </c>
+      <c r="H105" t="n">
+        <v>334.92</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L105" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1599.9</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P105" t="n">
+        <v>379.9</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1189.9</v>
+      </c>
+      <c r="R105" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S105" t="n">
+        <v>2299</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1489</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2445</v>
+      </c>
+      <c r="V105" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W105" t="n">
+        <v>4533.33</v>
+      </c>
+      <c r="X105" t="n">
+        <v>623.13</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>317.96</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>278.22</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>1610.64</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>3999</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>399</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>279</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>199</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>499</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>699</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>249</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>642.85</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>1894.95</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>689.64</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>753.58</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>748.83</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>736.08</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>201.42</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>295.9</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>281.45</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>127.39</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>430.42</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>492.72</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>862.14</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>896.16</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>434.47</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>120</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>45079</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1284.71</v>
+      </c>
+      <c r="D106" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E106" t="n">
+        <v>379.25</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>277.78</v>
+      </c>
+      <c r="H106" t="n">
+        <v>351.67</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L106" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P106" t="n">
+        <v>379.9</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1189.9</v>
+      </c>
+      <c r="R106" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S106" t="n">
+        <v>1699</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1489</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2445</v>
+      </c>
+      <c r="V106" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W106" t="n">
+        <v>4533.33</v>
+      </c>
+      <c r="X106" t="n">
+        <v>654.28</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>317.96</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>278.22</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>1610.64</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>3999</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>399</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>279</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>199</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>599</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>699</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>249</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>1894.95</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>689.64</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>753.58</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>736.08</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>201.42</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>295.9</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>281.45</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>133.76</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>430.42</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>492.72</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>862.14</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>896.16</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>434.47</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>121</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>45080</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1284.71</v>
+      </c>
+      <c r="D107" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E107" t="n">
+        <v>379.25</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>277.78</v>
+      </c>
+      <c r="H107" t="n">
+        <v>351.67</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L107" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P107" t="n">
+        <v>379.9</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>1189.9</v>
+      </c>
+      <c r="R107" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S107" t="n">
+        <v>1699</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1489</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2445</v>
+      </c>
+      <c r="V107" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W107" t="n">
+        <v>4533.33</v>
+      </c>
+      <c r="X107" t="n">
+        <v>654.28</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>317.96</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>278.22</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>1610.64</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>3999</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>399</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>279</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>199</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>599</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>699</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>249</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>1894.95</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>689.64</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>753.58</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>736.08</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>201.42</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>295.9</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>281.45</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>133.76</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>430.42</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>492.72</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>862.14</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>896.16</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>434.47</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>122</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>45081</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1284.71</v>
+      </c>
+      <c r="D108" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E108" t="n">
+        <v>379.25</v>
+      </c>
+      <c r="F108" t="n">
+        <v>216.11</v>
+      </c>
+      <c r="G108" t="n">
+        <v>277.78</v>
+      </c>
+      <c r="H108" t="n">
+        <v>351.67</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L108" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N108" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="O108" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P108" t="n">
+        <v>379.9</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>1189.9</v>
+      </c>
+      <c r="R108" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S108" t="n">
+        <v>1699</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1489</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2445</v>
+      </c>
+      <c r="V108" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W108" t="n">
+        <v>4533.33</v>
+      </c>
+      <c r="X108" t="n">
+        <v>654.28</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>317.96</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>278.22</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>1610.64</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>3999</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>399</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>279</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>179</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>599</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>699</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>249</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>1894.95</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>689.64</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>753.58</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>736.08</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>201.42</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>295.9</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>281.45</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>133.76</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>430.42</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>492.72</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>862.14</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>896.16</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>434.47</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>123</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1284.71</v>
+      </c>
+      <c r="D109" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E109" t="n">
+        <v>379.25</v>
+      </c>
+      <c r="F109" t="n">
+        <v>216.11</v>
+      </c>
+      <c r="G109" t="n">
+        <v>277.78</v>
+      </c>
+      <c r="H109" t="n">
+        <v>351.67</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L109" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P109" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="R109" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S109" t="n">
+        <v>2299</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1855</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2445</v>
+      </c>
+      <c r="V109" t="n">
+        <v>1559</v>
+      </c>
+      <c r="W109" t="n">
+        <v>4533.33</v>
+      </c>
+      <c r="X109" t="n">
+        <v>654.28</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>317.96</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>278.22</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>1610.64</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>3999</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>469</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>279</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>189</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>599</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>699</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1219</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>1894.95</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>689.64</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>753.58</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>736.08</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>201.42</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>295.9</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>281.45</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>133.76</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>430.42</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>492.72</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>862.14</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>896.16</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>434.47</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>124</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>45083</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1284.71</v>
+      </c>
+      <c r="D110" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E110" t="n">
+        <v>379.25</v>
+      </c>
+      <c r="F110" t="n">
+        <v>216.11</v>
+      </c>
+      <c r="G110" t="n">
+        <v>264.55</v>
+      </c>
+      <c r="H110" t="n">
+        <v>351.67</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L110" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P110" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="R110" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S110" t="n">
+        <v>2299</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1855</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2445</v>
+      </c>
+      <c r="V110" t="n">
+        <v>1559</v>
+      </c>
+      <c r="W110" t="n">
+        <v>4533.33</v>
+      </c>
+      <c r="X110" t="n">
+        <v>654.28</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>317.96</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>278.22</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>1610.64</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>3999</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>2050</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>469</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>279</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>699</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>699</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>349.63</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>753.58</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>736.08</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>201.42</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>281.45</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>133.76</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>430.42</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>492.72</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>862.14</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>896.16</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>434.47</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>125</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>45084</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D111" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E111" t="n">
+        <v>379.25</v>
+      </c>
+      <c r="F111" t="n">
+        <v>216.11</v>
+      </c>
+      <c r="G111" t="n">
+        <v>264.55</v>
+      </c>
+      <c r="H111" t="n">
+        <v>351.67</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L111" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P111" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="R111" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S111" t="n">
+        <v>2299</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1855</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2445</v>
+      </c>
+      <c r="V111" t="n">
+        <v>1559</v>
+      </c>
+      <c r="W111" t="n">
+        <v>4533.33</v>
+      </c>
+      <c r="X111" t="n">
+        <v>654.28</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>317.96</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>278.22</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>1610.64</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>4229</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>2050</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>469</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>279</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>699</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>699</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>349.63</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>753.58</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>736.08</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>201.42</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>281.45</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>133.76</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>430.42</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>492.72</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>862.14</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>896.16</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>434.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/airflow/data/precios.xlsx
+++ b/airflow/data/precios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM111"/>
+  <dimension ref="A1:BM139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22434,6 +22434,5522 @@
         <v>434.47</v>
       </c>
     </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>126</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D112" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E112" t="n">
+        <v>379.25</v>
+      </c>
+      <c r="F112" t="n">
+        <v>216.11</v>
+      </c>
+      <c r="G112" t="n">
+        <v>264.55</v>
+      </c>
+      <c r="H112" t="n">
+        <v>351.67</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L112" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P112" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="R112" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S112" t="n">
+        <v>2299</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1950</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2445</v>
+      </c>
+      <c r="V112" t="n">
+        <v>1559</v>
+      </c>
+      <c r="W112" t="n">
+        <v>4533.33</v>
+      </c>
+      <c r="X112" t="n">
+        <v>654.28</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>317.96</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>278.22</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>1610.64</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>4229</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>2050</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>399</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>239</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>169</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>749</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>699</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>349.63</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>753.58</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>736.08</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>201.42</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>281.45</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>133.76</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>430.42</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>862.14</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>896.16</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>434.47</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>127</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D113" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E113" t="n">
+        <v>379.25</v>
+      </c>
+      <c r="F113" t="n">
+        <v>216.11</v>
+      </c>
+      <c r="G113" t="n">
+        <v>264.55</v>
+      </c>
+      <c r="H113" t="n">
+        <v>351.67</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L113" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P113" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="R113" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S113" t="n">
+        <v>2299</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1950</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2445</v>
+      </c>
+      <c r="V113" t="n">
+        <v>1559</v>
+      </c>
+      <c r="W113" t="n">
+        <v>4533.33</v>
+      </c>
+      <c r="X113" t="n">
+        <v>654.28</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>317.96</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>278.22</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>1610.64</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>4229</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>2050</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>399</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>239</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>169</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>649</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>649</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>349.63</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>753.58</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>736.08</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>201.42</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>281.45</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>133.76</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>430.42</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>862.14</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>896.16</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>434.47</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>128</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>45087</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D114" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E114" t="n">
+        <v>379.25</v>
+      </c>
+      <c r="F114" t="n">
+        <v>216.11</v>
+      </c>
+      <c r="G114" t="n">
+        <v>264.55</v>
+      </c>
+      <c r="H114" t="n">
+        <v>351.67</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L114" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P114" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="R114" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S114" t="n">
+        <v>2299</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1950</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2445</v>
+      </c>
+      <c r="V114" t="n">
+        <v>1559</v>
+      </c>
+      <c r="W114" t="n">
+        <v>4533.33</v>
+      </c>
+      <c r="X114" t="n">
+        <v>654.28</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>317.96</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>278.22</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>1610.64</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>4229</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>2050</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>399</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>239</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>169</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>649</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>649</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>349.63</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>753.58</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>736.08</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>201.42</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>281.45</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>133.76</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>430.42</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>862.14</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>896.16</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>434.47</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>129</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>45088</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D115" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E115" t="n">
+        <v>379.25</v>
+      </c>
+      <c r="F115" t="n">
+        <v>216.11</v>
+      </c>
+      <c r="G115" t="n">
+        <v>264.55</v>
+      </c>
+      <c r="H115" t="n">
+        <v>351.67</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L115" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N115" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O115" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P115" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="R115" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S115" t="n">
+        <v>2299</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1950</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2445</v>
+      </c>
+      <c r="V115" t="n">
+        <v>1559</v>
+      </c>
+      <c r="W115" t="n">
+        <v>4533.33</v>
+      </c>
+      <c r="X115" t="n">
+        <v>654.28</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>317.96</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>278.22</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>1610.64</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>4229</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>2050</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>399</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>239</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>169</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>649</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>649</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>349.63</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>753.58</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>736.08</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>201.42</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>281.45</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>133.76</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>430.42</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>862.14</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>896.16</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>434.47</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>130</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D116" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E116" t="n">
+        <v>379.25</v>
+      </c>
+      <c r="F116" t="n">
+        <v>216.11</v>
+      </c>
+      <c r="G116" t="n">
+        <v>264.55</v>
+      </c>
+      <c r="H116" t="n">
+        <v>351.67</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L116" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N116" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O116" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P116" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>1129.9</v>
+      </c>
+      <c r="R116" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S116" t="n">
+        <v>2299</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1579</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2445</v>
+      </c>
+      <c r="V116" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W116" t="n">
+        <v>4533.33</v>
+      </c>
+      <c r="X116" t="n">
+        <v>654.28</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>317.96</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>278.22</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>1610.64</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>3099</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>2050</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>449</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>399</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>239</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>169</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>649</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>649</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>349.63</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>753.58</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>736.08</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>201.42</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>281.45</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>133.76</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>430.42</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>862.14</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>896.16</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>434.47</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>131</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D117" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E117" t="n">
+        <v>379.25</v>
+      </c>
+      <c r="F117" t="n">
+        <v>216.11</v>
+      </c>
+      <c r="G117" t="n">
+        <v>264.55</v>
+      </c>
+      <c r="H117" t="n">
+        <v>351.67</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L117" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P117" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>1129.9</v>
+      </c>
+      <c r="R117" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S117" t="n">
+        <v>2299</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1579</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2445</v>
+      </c>
+      <c r="V117" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W117" t="n">
+        <v>4533.33</v>
+      </c>
+      <c r="X117" t="n">
+        <v>654.28</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>278.22</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>1610.64</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>2099</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>3099</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>2050</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>469</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>399</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>319</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>339</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>749</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>649</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>665.91</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>349.63</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>753.58</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>736.08</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>201.42</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>281.45</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>133.76</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>430.42</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>862.14</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>896.16</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>434.47</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>132</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>45091</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D118" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E118" t="n">
+        <v>379.25</v>
+      </c>
+      <c r="F118" t="n">
+        <v>216.11</v>
+      </c>
+      <c r="G118" t="n">
+        <v>264.55</v>
+      </c>
+      <c r="H118" t="n">
+        <v>351.67</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L118" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O118" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P118" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>1129.9</v>
+      </c>
+      <c r="R118" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S118" t="n">
+        <v>2299</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1579</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2665</v>
+      </c>
+      <c r="V118" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W118" t="n">
+        <v>4940</v>
+      </c>
+      <c r="X118" t="n">
+        <v>654.28</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>278.22</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>1610.64</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>2099</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>3099</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>2050</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>997.5</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>399</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>299</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>299</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>749</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>649</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>665.91</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>505.2</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>753.58</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>363.5</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>736.08</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>201.42</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>281.45</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>133.76</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>430.42</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>862.14</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>896.16</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>434.47</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>133</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D119" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E119" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F119" t="n">
+        <v>224.32</v>
+      </c>
+      <c r="G119" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H119" t="n">
+        <v>351.67</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L119" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O119" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P119" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>1129.9</v>
+      </c>
+      <c r="R119" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S119" t="n">
+        <v>2299</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1579</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2665</v>
+      </c>
+      <c r="V119" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W119" t="n">
+        <v>4940</v>
+      </c>
+      <c r="X119" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>1610.64</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>2099</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>3099</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>2050</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>399</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>329</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>219</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>749</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>649</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>834.96</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>100.58</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>145.13</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>930.21</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>450.98</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>134</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>45093</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D120" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E120" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F120" t="n">
+        <v>224.33</v>
+      </c>
+      <c r="G120" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H120" t="n">
+        <v>351.67</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L120" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M120" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N120" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O120" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P120" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>1029.9</v>
+      </c>
+      <c r="R120" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S120" t="n">
+        <v>1799</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1579</v>
+      </c>
+      <c r="U120" t="n">
+        <v>2665</v>
+      </c>
+      <c r="V120" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W120" t="n">
+        <v>4940</v>
+      </c>
+      <c r="X120" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>1691.17</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>2099</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>3099</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>2050</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>399</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>329</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>219</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>749</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>649</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>834.96</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>100.58</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>145.13</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>894.9</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>992.9400000000001</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>450.97</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>135</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>45094</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D121" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E121" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F121" t="n">
+        <v>224.33</v>
+      </c>
+      <c r="G121" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H121" t="n">
+        <v>351.67</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L121" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O121" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P121" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>1029.9</v>
+      </c>
+      <c r="R121" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S121" t="n">
+        <v>1799</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1579</v>
+      </c>
+      <c r="U121" t="n">
+        <v>2665</v>
+      </c>
+      <c r="V121" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W121" t="n">
+        <v>4940</v>
+      </c>
+      <c r="X121" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>1691.17</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>2099</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>3099</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>2050</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>399</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>349</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>219</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>749</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>649</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>834.96</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>100.58</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>145.13</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>894.9</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>992.9400000000001</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>450.97</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>136</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>45095</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D122" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E122" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F122" t="n">
+        <v>224.33</v>
+      </c>
+      <c r="G122" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H122" t="n">
+        <v>351.67</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L122" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O122" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P122" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>1029.9</v>
+      </c>
+      <c r="R122" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S122" t="n">
+        <v>1799</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1579</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2665</v>
+      </c>
+      <c r="V122" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W122" t="n">
+        <v>4940</v>
+      </c>
+      <c r="X122" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>1691.17</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>2099</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>3099</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>2050</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>399</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>349</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>219</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>749</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>649</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>834.96</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>100.58</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>145.13</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>894.9</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>992.9400000000001</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>450.97</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>137</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D123" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E123" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F123" t="n">
+        <v>224.33</v>
+      </c>
+      <c r="G123" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L123" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M123" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1599.9</v>
+      </c>
+      <c r="O123" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P123" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>1129.9</v>
+      </c>
+      <c r="R123" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S123" t="n">
+        <v>1799</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1950</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2665</v>
+      </c>
+      <c r="V123" t="n">
+        <v>1559</v>
+      </c>
+      <c r="W123" t="n">
+        <v>4533.33</v>
+      </c>
+      <c r="X123" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>1691.17</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1769</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>4229</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>2050</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>499</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>399</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>349</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>749</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>649</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>834.96</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>100.58</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>145.13</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>894.9</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>992.9400000000001</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>450.97</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>138</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>45097</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D124" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E124" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F124" t="n">
+        <v>224.33</v>
+      </c>
+      <c r="G124" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L124" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M124" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N124" t="n">
+        <v>1599.9</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P124" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>1129.9</v>
+      </c>
+      <c r="R124" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S124" t="n">
+        <v>1799</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1950</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2665</v>
+      </c>
+      <c r="V124" t="n">
+        <v>1559</v>
+      </c>
+      <c r="W124" t="n">
+        <v>4533.33</v>
+      </c>
+      <c r="X124" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>1691.17</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1769</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>4229</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>2050</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>499</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>399</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>349</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>749</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>649</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>834.96</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>100.58</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>145.13</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>894.9</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>992.9400000000001</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>450.97</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>139</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>45098</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D125" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E125" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F125" t="n">
+        <v>224.33</v>
+      </c>
+      <c r="G125" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L125" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M125" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N125" t="n">
+        <v>1599.9</v>
+      </c>
+      <c r="O125" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P125" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>1129.9</v>
+      </c>
+      <c r="R125" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S125" t="n">
+        <v>2299</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1950</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2665</v>
+      </c>
+      <c r="V125" t="n">
+        <v>1559</v>
+      </c>
+      <c r="W125" t="n">
+        <v>4533.33</v>
+      </c>
+      <c r="X125" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>1691.17</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1769</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>4229</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>2050</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>499</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>399</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>349</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>749</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>649</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1099</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>834.96</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>100.58</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>145.13</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>894.9</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>992.9400000000001</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>450.97</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>140</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>45099</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D126" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E126" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F126" t="n">
+        <v>224.33</v>
+      </c>
+      <c r="G126" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L126" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N126" t="n">
+        <v>1599.9</v>
+      </c>
+      <c r="O126" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P126" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>1129.9</v>
+      </c>
+      <c r="R126" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S126" t="n">
+        <v>2299</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1950</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2665</v>
+      </c>
+      <c r="V126" t="n">
+        <v>1559</v>
+      </c>
+      <c r="W126" t="n">
+        <v>5200</v>
+      </c>
+      <c r="X126" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>1691.17</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1769</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>4229</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>2234.5</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>499</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>379</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>349</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>899</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>699</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>999</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>834.96</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>100.58</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>145.13</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>894.9</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>992.9400000000001</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>450.97</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>141</v>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D127" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E127" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F127" t="n">
+        <v>224.33</v>
+      </c>
+      <c r="G127" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L127" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M127" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N127" t="n">
+        <v>1599.9</v>
+      </c>
+      <c r="O127" t="n">
+        <v>1449.9</v>
+      </c>
+      <c r="P127" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>1129.9</v>
+      </c>
+      <c r="R127" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S127" t="n">
+        <v>2299</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1950</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2665</v>
+      </c>
+      <c r="V127" t="n">
+        <v>1559</v>
+      </c>
+      <c r="W127" t="n">
+        <v>5200</v>
+      </c>
+      <c r="X127" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>1691.17</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1769</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>4229</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>2234.5</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>499</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>379</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>349</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>899</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>729</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>999</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>834.98</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>100.58</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>145.13</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>894.9</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>992.9400000000001</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>450.97</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>142</v>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>45101</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D128" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E128" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F128" t="n">
+        <v>224.33</v>
+      </c>
+      <c r="G128" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L128" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N128" t="n">
+        <v>1599.9</v>
+      </c>
+      <c r="O128" t="n">
+        <v>1449.9</v>
+      </c>
+      <c r="P128" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>1129.9</v>
+      </c>
+      <c r="R128" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S128" t="n">
+        <v>2299</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1950</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2665</v>
+      </c>
+      <c r="V128" t="n">
+        <v>1559</v>
+      </c>
+      <c r="W128" t="n">
+        <v>5200</v>
+      </c>
+      <c r="X128" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>1691.17</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1769</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>4229</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>2234.5</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>379</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>349</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>899</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>729</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>999</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>834.98</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>100.58</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>145.13</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>894.9</v>
+      </c>
+      <c r="BL128" t="n">
+        <v>992.9400000000001</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>450.97</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>143</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>45102</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D129" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E129" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F129" t="n">
+        <v>224.33</v>
+      </c>
+      <c r="G129" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L129" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N129" t="n">
+        <v>1599.9</v>
+      </c>
+      <c r="O129" t="n">
+        <v>1449.9</v>
+      </c>
+      <c r="P129" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>1129.9</v>
+      </c>
+      <c r="R129" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S129" t="n">
+        <v>2299</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1950</v>
+      </c>
+      <c r="U129" t="n">
+        <v>2665</v>
+      </c>
+      <c r="V129" t="n">
+        <v>1559</v>
+      </c>
+      <c r="W129" t="n">
+        <v>5200</v>
+      </c>
+      <c r="X129" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>1691.17</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1769</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>4229</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>2234.5</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>379</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>349</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>899</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>729</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>999</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>834.98</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>100.58</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>145.13</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>894.9</v>
+      </c>
+      <c r="BL129" t="n">
+        <v>992.9400000000001</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>450.97</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>144</v>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D130" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E130" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F130" t="n">
+        <v>224.33</v>
+      </c>
+      <c r="G130" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L130" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O130" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P130" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="R130" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S130" t="n">
+        <v>2299</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1560</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2665</v>
+      </c>
+      <c r="V130" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W130" t="n">
+        <v>5200</v>
+      </c>
+      <c r="X130" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>1691.17</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1769</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>4229</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>2234.5</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>379</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>399</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>349</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>299</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>899</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>729</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>999</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>834.98</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>100.58</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>145.13</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>894.9</v>
+      </c>
+      <c r="BL130" t="n">
+        <v>992.9400000000001</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>450.97</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>145</v>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>45104</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D131" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E131" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F131" t="n">
+        <v>224.33</v>
+      </c>
+      <c r="G131" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1799.9</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="L131" t="n">
+        <v>699.9</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="N131" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O131" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="P131" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="R131" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S131" t="n">
+        <v>2399</v>
+      </c>
+      <c r="T131" t="n">
+        <v>1560</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2665</v>
+      </c>
+      <c r="V131" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W131" t="n">
+        <v>5200</v>
+      </c>
+      <c r="X131" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>1691.17</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1769</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>4229</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>2234.5</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>379</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>449</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>329</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>249</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>999</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>729</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>999</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>834.98</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>310.7</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>145.13</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>517.36</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>894.9</v>
+      </c>
+      <c r="BL131" t="n">
+        <v>992.9400000000001</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>450.97</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>146</v>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>45105</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D132" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E132" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F132" t="n">
+        <v>224.33</v>
+      </c>
+      <c r="G132" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1899.9</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="L132" t="n">
+        <v>749.9</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1769.9</v>
+      </c>
+      <c r="N132" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O132" t="n">
+        <v>2099.9</v>
+      </c>
+      <c r="P132" t="n">
+        <v>469.9</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="R132" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S132" t="n">
+        <v>2399</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1560</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2665</v>
+      </c>
+      <c r="V132" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W132" t="n">
+        <v>5200</v>
+      </c>
+      <c r="X132" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>1691.17</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1769</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>4229</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>2346.25</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>379</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>449</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>329</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>249</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>999</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>729</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>899</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>834.98</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>310.7</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>145.13</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>517.36</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>894.9</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>992.9400000000001</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>450.97</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>147</v>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>45106</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D133" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E133" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F133" t="n">
+        <v>224.33</v>
+      </c>
+      <c r="G133" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1899.9</v>
+      </c>
+      <c r="K133" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="L133" t="n">
+        <v>749.9</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1769.9</v>
+      </c>
+      <c r="N133" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O133" t="n">
+        <v>2099.9</v>
+      </c>
+      <c r="P133" t="n">
+        <v>469.9</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="R133" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S133" t="n">
+        <v>2399</v>
+      </c>
+      <c r="T133" t="n">
+        <v>1560</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2665</v>
+      </c>
+      <c r="V133" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W133" t="n">
+        <v>5200</v>
+      </c>
+      <c r="X133" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>1691.17</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>1769</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>4229</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>2346.25</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>379</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>449</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>329</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1049</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>749</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>899</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>834.98</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>786.28</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>310.7</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>145.13</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>517.36</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>894.9</v>
+      </c>
+      <c r="BL133" t="n">
+        <v>992.9400000000001</v>
+      </c>
+      <c r="BM133" t="n">
+        <v>450.97</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>148</v>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D134" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E134" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F134" t="n">
+        <v>224.33</v>
+      </c>
+      <c r="G134" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1899.9</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="L134" t="n">
+        <v>749.9</v>
+      </c>
+      <c r="M134" t="n">
+        <v>1769.9</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O134" t="n">
+        <v>2099.9</v>
+      </c>
+      <c r="P134" t="n">
+        <v>469.9</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="R134" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S134" t="n">
+        <v>1990</v>
+      </c>
+      <c r="T134" t="n">
+        <v>1560</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2665</v>
+      </c>
+      <c r="V134" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W134" t="n">
+        <v>5200</v>
+      </c>
+      <c r="X134" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>1691.17</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>1769</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>4229</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>2346.25</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>379</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>399</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>199</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>299</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1049</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>749</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>899</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>834.98</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>880.71</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>310.7</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>145.13</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>517.36</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>894.9</v>
+      </c>
+      <c r="BL134" t="n">
+        <v>992.9400000000001</v>
+      </c>
+      <c r="BM134" t="n">
+        <v>450.97</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>149</v>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D135" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E135" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F135" t="n">
+        <v>224.33</v>
+      </c>
+      <c r="G135" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1899.9</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="L135" t="n">
+        <v>749.9</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1769.9</v>
+      </c>
+      <c r="N135" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O135" t="n">
+        <v>2099.9</v>
+      </c>
+      <c r="P135" t="n">
+        <v>469.9</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="R135" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S135" t="n">
+        <v>1990</v>
+      </c>
+      <c r="T135" t="n">
+        <v>1560</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2665</v>
+      </c>
+      <c r="V135" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W135" t="n">
+        <v>5200</v>
+      </c>
+      <c r="X135" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>1691.17</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>1769</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>4229</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>2346.25</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>379</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>399</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>299</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>1049</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>749</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>899</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>834.98</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>880.71</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>310.7</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>145.13</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>517.36</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>894.9</v>
+      </c>
+      <c r="BL135" t="n">
+        <v>992.9400000000001</v>
+      </c>
+      <c r="BM135" t="n">
+        <v>450.97</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>150</v>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>45109</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D136" t="n">
+        <v>233.01</v>
+      </c>
+      <c r="E136" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F136" t="n">
+        <v>224.33</v>
+      </c>
+      <c r="G136" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1899.9</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="L136" t="n">
+        <v>749.9</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1769.9</v>
+      </c>
+      <c r="N136" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="O136" t="n">
+        <v>2099.9</v>
+      </c>
+      <c r="P136" t="n">
+        <v>469.9</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="R136" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S136" t="n">
+        <v>1990</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1560</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2665</v>
+      </c>
+      <c r="V136" t="n">
+        <v>1325</v>
+      </c>
+      <c r="W136" t="n">
+        <v>5200</v>
+      </c>
+      <c r="X136" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>1691.17</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1769</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>4229</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>2346.25</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>379</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>399</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>299</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>199</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>1049</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>749</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>899</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>299</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>834.98</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>880.71</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>100.58</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>145.13</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>517.36</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>894.9</v>
+      </c>
+      <c r="BL136" t="n">
+        <v>992.9400000000001</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>450.97</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>151</v>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>45110</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D137" t="n">
+        <v>244.66</v>
+      </c>
+      <c r="E137" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F137" t="n">
+        <v>224.33</v>
+      </c>
+      <c r="G137" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1899.9</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="L137" t="n">
+        <v>749.9</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1769.9</v>
+      </c>
+      <c r="N137" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="O137" t="n">
+        <v>2099.9</v>
+      </c>
+      <c r="P137" t="n">
+        <v>469.9</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>1199.9</v>
+      </c>
+      <c r="R137" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S137" t="n">
+        <v>1990</v>
+      </c>
+      <c r="T137" t="n">
+        <v>1950</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2665</v>
+      </c>
+      <c r="V137" t="n">
+        <v>1559</v>
+      </c>
+      <c r="W137" t="n">
+        <v>5200</v>
+      </c>
+      <c r="X137" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>1691.17</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>2099</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>3099</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>2346.25</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>379</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>449</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>299</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>299</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1049</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>749</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>899</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>249</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>1989.7</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>834.98</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>880.71</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>310.7</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH137" t="n">
+        <v>145.13</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>517.36</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>894.9</v>
+      </c>
+      <c r="BL137" t="n">
+        <v>992.9400000000001</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>450.97</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>152</v>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>45111</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D138" t="n">
+        <v>244.66</v>
+      </c>
+      <c r="E138" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F138" t="n">
+        <v>232.85</v>
+      </c>
+      <c r="G138" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1899.9</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="L138" t="n">
+        <v>749.9</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1769.9</v>
+      </c>
+      <c r="N138" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="O138" t="n">
+        <v>2099.9</v>
+      </c>
+      <c r="P138" t="n">
+        <v>469.9</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>1199.9</v>
+      </c>
+      <c r="R138" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S138" t="n">
+        <v>2399</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1950</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2665</v>
+      </c>
+      <c r="V138" t="n">
+        <v>1559</v>
+      </c>
+      <c r="W138" t="n">
+        <v>5200</v>
+      </c>
+      <c r="X138" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>333.85</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>1691.17</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>2099</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3099</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>2346.25</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>379</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>449</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>349</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>299</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1149</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>749</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>899</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>249</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>2089.17</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>834.98</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>924.76</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>310.7</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>152.39</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>517.36</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>928.9</v>
+      </c>
+      <c r="BL138" t="n">
+        <v>1030.67</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>468.11</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>153</v>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>45112</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D139" t="n">
+        <v>244.66</v>
+      </c>
+      <c r="E139" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F139" t="n">
+        <v>232.85</v>
+      </c>
+      <c r="G139" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1899.9</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="L139" t="n">
+        <v>749.9</v>
+      </c>
+      <c r="M139" t="n">
+        <v>1769.9</v>
+      </c>
+      <c r="N139" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="O139" t="n">
+        <v>2099.9</v>
+      </c>
+      <c r="P139" t="n">
+        <v>469.9</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>1199.9</v>
+      </c>
+      <c r="R139" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S139" t="n">
+        <v>2399</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1950</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2905</v>
+      </c>
+      <c r="V139" t="n">
+        <v>1559</v>
+      </c>
+      <c r="W139" t="n">
+        <v>5666.66</v>
+      </c>
+      <c r="X139" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>350.55</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>1691.17</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>2099</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>3099</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>2346.25</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>379</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>449</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>399</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>299</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>999</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>799</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>899</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>249</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>2089.17</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>834.98</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>924.76</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>310.7</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>152.39</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>517.36</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>928.9</v>
+      </c>
+      <c r="BL139" t="n">
+        <v>1030.67</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>468.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/airflow/data/precios.xlsx
+++ b/airflow/data/precios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM139"/>
+  <dimension ref="A1:BM140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27950,6 +27950,203 @@
         <v>468.11</v>
       </c>
     </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>154</v>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>45113</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1400.28</v>
+      </c>
+      <c r="D140" t="n">
+        <v>244.66</v>
+      </c>
+      <c r="E140" t="n">
+        <v>398.21</v>
+      </c>
+      <c r="F140" t="n">
+        <v>224.33</v>
+      </c>
+      <c r="G140" t="n">
+        <v>287.04</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1899.9</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="L140" t="n">
+        <v>749.9</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1769.9</v>
+      </c>
+      <c r="N140" t="n">
+        <v>1679.9</v>
+      </c>
+      <c r="O140" t="n">
+        <v>2099.9</v>
+      </c>
+      <c r="P140" t="n">
+        <v>469.9</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>1199.9</v>
+      </c>
+      <c r="R140" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="S140" t="n">
+        <v>2399</v>
+      </c>
+      <c r="T140" t="n">
+        <v>1950</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2905</v>
+      </c>
+      <c r="V140" t="n">
+        <v>1559</v>
+      </c>
+      <c r="W140" t="n">
+        <v>5666.66</v>
+      </c>
+      <c r="X140" t="n">
+        <v>687</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>350.55</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>292.13</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>1691.17</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>2099</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3099</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>2346.25</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>1047.37</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>2080</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>419</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>379</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>399</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>329</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>189</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>249</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1149</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>799</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>849</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>249</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>149</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>675</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>2089.17</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>530.46</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>834.98</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>924.76</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>381.68</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>772.88</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>218.54</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>310.7</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>295.5</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>152.39</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>451.94</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>517.36</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>928.9</v>
+      </c>
+      <c r="BL140" t="n">
+        <v>1030.67</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>468.11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/airflow/data/precios.xlsx
+++ b/airflow/data/precios.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM219"/>
+  <dimension ref="A1:BM220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,10 +768,8 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2023-02-17</t>
-        </is>
+      <c r="B2" s="2" t="n">
+        <v>44974</v>
       </c>
       <c r="C2" t="n">
         <v>995.14</v>
@@ -963,10 +965,8 @@
       <c r="A3" t="n">
         <v>11</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2023-02-18</t>
-        </is>
+      <c r="B3" s="2" t="n">
+        <v>44975</v>
       </c>
       <c r="C3" t="n">
         <v>995.14</v>
@@ -1162,10 +1162,8 @@
       <c r="A4" t="n">
         <v>14</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2023-02-20</t>
-        </is>
+      <c r="B4" s="2" t="n">
+        <v>44977</v>
       </c>
       <c r="C4" t="n">
         <v>995.14</v>
@@ -1361,10 +1359,8 @@
       <c r="A5" t="n">
         <v>15</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2023-02-21</t>
-        </is>
+      <c r="B5" s="2" t="n">
+        <v>44978</v>
       </c>
       <c r="C5" t="n">
         <v>995.14</v>
@@ -1560,10 +1556,8 @@
       <c r="A6" t="n">
         <v>16</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2023-02-22</t>
-        </is>
+      <c r="B6" s="2" t="n">
+        <v>44979</v>
       </c>
       <c r="C6" t="n">
         <v>995.14</v>
@@ -1759,10 +1753,8 @@
       <c r="A7" t="n">
         <v>17</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2023-02-23</t>
-        </is>
+      <c r="B7" s="2" t="n">
+        <v>44980</v>
       </c>
       <c r="C7" t="n">
         <v>995.14</v>
@@ -1958,10 +1950,8 @@
       <c r="A8" t="n">
         <v>18</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2023-02-24</t>
-        </is>
+      <c r="B8" s="2" t="n">
+        <v>44981</v>
       </c>
       <c r="C8" t="n">
         <v>995.14</v>
@@ -2157,10 +2147,8 @@
       <c r="A9" t="n">
         <v>19</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2023-02-25</t>
-        </is>
+      <c r="B9" s="2" t="n">
+        <v>44982</v>
       </c>
       <c r="C9" t="n">
         <v>995.14</v>
@@ -2356,10 +2344,8 @@
       <c r="A10" t="n">
         <v>20</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2023-02-26</t>
-        </is>
+      <c r="B10" s="2" t="n">
+        <v>44983</v>
       </c>
       <c r="C10" t="n">
         <v>995.14</v>
@@ -2555,10 +2541,8 @@
       <c r="A11" t="n">
         <v>21</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2023-02-27</t>
-        </is>
+      <c r="B11" s="2" t="n">
+        <v>44984</v>
       </c>
       <c r="C11" t="n">
         <v>995.14</v>
@@ -2754,10 +2738,8 @@
       <c r="A12" t="n">
         <v>22</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2023-02-28</t>
-        </is>
+      <c r="B12" s="2" t="n">
+        <v>44985</v>
       </c>
       <c r="C12" t="n">
         <v>995.14</v>
@@ -2953,10 +2935,8 @@
       <c r="A13" t="n">
         <v>23</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2023-03-01</t>
-        </is>
+      <c r="B13" s="2" t="n">
+        <v>44986</v>
       </c>
       <c r="C13" t="n">
         <v>1027.14</v>
@@ -3152,10 +3132,8 @@
       <c r="A14" t="n">
         <v>24</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2023-03-02</t>
-        </is>
+      <c r="B14" s="2" t="n">
+        <v>44987</v>
       </c>
       <c r="C14" t="n">
         <v>1027.14</v>
@@ -3351,10 +3329,8 @@
       <c r="A15" t="n">
         <v>25</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2023-03-03</t>
-        </is>
+      <c r="B15" s="2" t="n">
+        <v>44988</v>
       </c>
       <c r="C15" t="n">
         <v>1027.14</v>
@@ -3550,10 +3526,8 @@
       <c r="A16" t="n">
         <v>26</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2023-03-04</t>
-        </is>
+      <c r="B16" s="2" t="n">
+        <v>44989</v>
       </c>
       <c r="C16" t="n">
         <v>1027.14</v>
@@ -3749,10 +3723,8 @@
       <c r="A17" t="n">
         <v>27</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2023-03-05</t>
-        </is>
+      <c r="B17" s="2" t="n">
+        <v>44990</v>
       </c>
       <c r="C17" t="n">
         <v>1027.14</v>
@@ -3948,10 +3920,8 @@
       <c r="A18" t="n">
         <v>28</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2023-03-06</t>
-        </is>
+      <c r="B18" s="2" t="n">
+        <v>44991</v>
       </c>
       <c r="C18" t="n">
         <v>1027.14</v>
@@ -4147,10 +4117,8 @@
       <c r="A19" t="n">
         <v>30</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2023-03-07</t>
-        </is>
+      <c r="B19" s="2" t="n">
+        <v>44992</v>
       </c>
       <c r="C19" t="n">
         <v>1027.14</v>
@@ -4346,10 +4314,8 @@
       <c r="A20" t="n">
         <v>31</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2023-03-08</t>
-        </is>
+      <c r="B20" s="2" t="n">
+        <v>44993</v>
       </c>
       <c r="C20" t="n">
         <v>1027.14</v>
@@ -4545,10 +4511,8 @@
       <c r="A21" t="n">
         <v>32</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2023-03-09</t>
-        </is>
+      <c r="B21" s="2" t="n">
+        <v>44994</v>
       </c>
       <c r="C21" t="n">
         <v>1027.14</v>
@@ -4744,10 +4708,8 @@
       <c r="A22" t="n">
         <v>33</v>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2023-03-10</t>
-        </is>
+      <c r="B22" s="2" t="n">
+        <v>44995</v>
       </c>
       <c r="C22" t="n">
         <v>1027.14</v>
@@ -4943,10 +4905,8 @@
       <c r="A23" t="n">
         <v>34</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2023-03-11</t>
-        </is>
+      <c r="B23" s="2" t="n">
+        <v>44996</v>
       </c>
       <c r="C23" t="n">
         <v>1027.14</v>
@@ -5142,10 +5102,8 @@
       <c r="A24" t="n">
         <v>35</v>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2023-03-12</t>
-        </is>
+      <c r="B24" s="2" t="n">
+        <v>44997</v>
       </c>
       <c r="C24" t="n">
         <v>1027.14</v>
@@ -5341,10 +5299,8 @@
       <c r="A25" t="n">
         <v>36</v>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2023-03-13</t>
-        </is>
+      <c r="B25" s="2" t="n">
+        <v>44998</v>
       </c>
       <c r="C25" t="n">
         <v>1027.14</v>
@@ -5540,10 +5496,8 @@
       <c r="A26" t="n">
         <v>37</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2023-03-14</t>
-        </is>
+      <c r="B26" s="2" t="n">
+        <v>44999</v>
       </c>
       <c r="C26" t="n">
         <v>1027.14</v>
@@ -5739,10 +5693,8 @@
       <c r="A27" t="n">
         <v>38</v>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2023-03-15</t>
-        </is>
+      <c r="B27" s="2" t="n">
+        <v>45000</v>
       </c>
       <c r="C27" t="n">
         <v>1027.14</v>
@@ -5938,10 +5890,8 @@
       <c r="A28" t="n">
         <v>39</v>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2023-03-16</t>
-        </is>
+      <c r="B28" s="2" t="n">
+        <v>45001</v>
       </c>
       <c r="C28" t="n">
         <v>1027.14</v>
@@ -6137,10 +6087,8 @@
       <c r="A29" t="n">
         <v>1</v>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2023-03-17</t>
-        </is>
+      <c r="B29" s="2" t="n">
+        <v>45002</v>
       </c>
       <c r="C29" t="n">
         <v>1027.14</v>
@@ -6336,10 +6284,8 @@
       <c r="A30" t="n">
         <v>1</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2023-03-18</t>
-        </is>
+      <c r="B30" s="2" t="n">
+        <v>45003</v>
       </c>
       <c r="C30" t="n">
         <v>1027.14</v>
@@ -6535,10 +6481,8 @@
       <c r="A31" t="n">
         <v>9</v>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2023-03-19</t>
-        </is>
+      <c r="B31" s="2" t="n">
+        <v>45004</v>
       </c>
       <c r="C31" t="n">
         <v>1027.14</v>
@@ -6734,10 +6678,8 @@
       <c r="A32" t="n">
         <v>14</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2023-03-20</t>
-        </is>
+      <c r="B32" s="2" t="n">
+        <v>45005</v>
       </c>
       <c r="C32" t="n">
         <v>1027.14</v>
@@ -6933,10 +6875,8 @@
       <c r="A33" t="n">
         <v>15</v>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2023-03-21</t>
-        </is>
+      <c r="B33" s="2" t="n">
+        <v>45006</v>
       </c>
       <c r="C33" t="n">
         <v>1071.42</v>
@@ -7132,10 +7072,8 @@
       <c r="A34" t="n">
         <v>16</v>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2023-03-22</t>
-        </is>
+      <c r="B34" s="2" t="n">
+        <v>45007</v>
       </c>
       <c r="C34" t="n">
         <v>1071.42</v>
@@ -7331,10 +7269,8 @@
       <c r="A35" t="n">
         <v>17</v>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2023-03-23</t>
-        </is>
+      <c r="B35" s="2" t="n">
+        <v>45008</v>
       </c>
       <c r="C35" t="n">
         <v>1071.42</v>
@@ -7530,10 +7466,8 @@
       <c r="A36" t="n">
         <v>18</v>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2023-03-24</t>
-        </is>
+      <c r="B36" s="2" t="n">
+        <v>45009</v>
       </c>
       <c r="C36" t="n">
         <v>1071.42</v>
@@ -7729,10 +7663,8 @@
       <c r="A37" t="n">
         <v>19</v>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2023-03-25</t>
-        </is>
+      <c r="B37" s="2" t="n">
+        <v>45010</v>
       </c>
       <c r="C37" t="n">
         <v>1071.42</v>
@@ -7928,10 +7860,8 @@
       <c r="A38" t="n">
         <v>20</v>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2023-03-26</t>
-        </is>
+      <c r="B38" s="2" t="n">
+        <v>45011</v>
       </c>
       <c r="C38" t="n">
         <v>1071.42</v>
@@ -8127,10 +8057,8 @@
       <c r="A39" t="n">
         <v>21</v>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2023-03-27</t>
-        </is>
+      <c r="B39" s="2" t="n">
+        <v>45012</v>
       </c>
       <c r="C39" t="n">
         <v>1071.42</v>
@@ -8326,10 +8254,8 @@
       <c r="A40" t="n">
         <v>22</v>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2023-03-28</t>
-        </is>
+      <c r="B40" s="2" t="n">
+        <v>45013</v>
       </c>
       <c r="C40" t="n">
         <v>1071.42</v>
@@ -8525,10 +8451,8 @@
       <c r="A41" t="n">
         <v>23</v>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2023-03-29</t>
-        </is>
+      <c r="B41" s="2" t="n">
+        <v>45014</v>
       </c>
       <c r="C41" t="n">
         <v>1071.42</v>
@@ -8724,10 +8648,8 @@
       <c r="A42" t="n">
         <v>24</v>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2023-03-30</t>
-        </is>
+      <c r="B42" s="2" t="n">
+        <v>45015</v>
       </c>
       <c r="C42" t="n">
         <v>1071.42</v>
@@ -8923,10 +8845,8 @@
       <c r="A43" t="n">
         <v>25</v>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2023-03-31</t>
-        </is>
+      <c r="B43" s="2" t="n">
+        <v>45016</v>
       </c>
       <c r="C43" t="n">
         <v>1071.42</v>
@@ -9122,10 +9042,8 @@
       <c r="A44" t="n">
         <v>26</v>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2023-04-01</t>
-        </is>
+      <c r="B44" s="2" t="n">
+        <v>45017</v>
       </c>
       <c r="C44" t="n">
         <v>1071.42</v>
@@ -9321,10 +9239,8 @@
       <c r="A45" t="n">
         <v>27</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2023-04-02</t>
-        </is>
+      <c r="B45" s="2" t="n">
+        <v>45018</v>
       </c>
       <c r="C45" t="n">
         <v>1071.42</v>
@@ -9520,10 +9436,8 @@
       <c r="A46" t="n">
         <v>28</v>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2023-04-03</t>
-        </is>
+      <c r="B46" s="2" t="n">
+        <v>45019</v>
       </c>
       <c r="C46" t="n">
         <v>1071.42</v>
@@ -9719,10 +9633,8 @@
       <c r="A47" t="n">
         <v>29</v>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2023-04-04</t>
-        </is>
+      <c r="B47" s="2" t="n">
+        <v>45020</v>
       </c>
       <c r="C47" t="n">
         <v>1071.42</v>
@@ -9918,10 +9830,8 @@
       <c r="A48" t="n">
         <v>30</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2023-04-05</t>
-        </is>
+      <c r="B48" s="2" t="n">
+        <v>45021</v>
       </c>
       <c r="C48" t="n">
         <v>1105.71</v>
@@ -10117,10 +10027,8 @@
       <c r="A49" t="n">
         <v>31</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2023-04-06</t>
-        </is>
+      <c r="B49" s="2" t="n">
+        <v>45022</v>
       </c>
       <c r="C49" t="n">
         <v>1105.71</v>
@@ -10316,10 +10224,8 @@
       <c r="A50" t="n">
         <v>32</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2023-04-07</t>
-        </is>
+      <c r="B50" s="2" t="n">
+        <v>45023</v>
       </c>
       <c r="C50" t="n">
         <v>1105.71</v>
@@ -10515,10 +10421,8 @@
       <c r="A51" t="n">
         <v>33</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2023-04-08</t>
-        </is>
+      <c r="B51" s="2" t="n">
+        <v>45024</v>
       </c>
       <c r="C51" t="n">
         <v>1105.71</v>
@@ -10714,10 +10618,8 @@
       <c r="A52" t="n">
         <v>34</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2023-04-09</t>
-        </is>
+      <c r="B52" s="2" t="n">
+        <v>45025</v>
       </c>
       <c r="C52" t="n">
         <v>1105.71</v>
@@ -10913,10 +10815,8 @@
       <c r="A53" t="n">
         <v>35</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2023-04-10</t>
-        </is>
+      <c r="B53" s="2" t="n">
+        <v>45026</v>
       </c>
       <c r="C53" t="n">
         <v>1105.71</v>
@@ -11112,10 +11012,8 @@
       <c r="A54" t="n">
         <v>36</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2023-04-11</t>
-        </is>
+      <c r="B54" s="2" t="n">
+        <v>45027</v>
       </c>
       <c r="C54" t="n">
         <v>1105.71</v>
@@ -11311,10 +11209,8 @@
       <c r="A55" t="n">
         <v>37</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2023-04-12</t>
-        </is>
+      <c r="B55" s="2" t="n">
+        <v>45028</v>
       </c>
       <c r="C55" t="n">
         <v>1167.85</v>
@@ -11510,10 +11406,8 @@
       <c r="A56" t="n">
         <v>38</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2023-04-13</t>
-        </is>
+      <c r="B56" s="2" t="n">
+        <v>45029</v>
       </c>
       <c r="C56" t="n">
         <v>1167.85</v>
@@ -11709,10 +11603,8 @@
       <c r="A57" t="n">
         <v>39</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2023-04-14</t>
-        </is>
+      <c r="B57" s="2" t="n">
+        <v>45030</v>
       </c>
       <c r="C57" t="n">
         <v>1167.85</v>
@@ -11908,10 +11800,8 @@
       <c r="A58" t="n">
         <v>40</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2023-04-15</t>
-        </is>
+      <c r="B58" s="2" t="n">
+        <v>45031</v>
       </c>
       <c r="C58" t="n">
         <v>1167.85</v>
@@ -12107,10 +11997,8 @@
       <c r="A59" t="n">
         <v>41</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2023-04-16</t>
-        </is>
+      <c r="B59" s="2" t="n">
+        <v>45032</v>
       </c>
       <c r="C59" t="n">
         <v>1167.85</v>
@@ -12306,10 +12194,8 @@
       <c r="A60" t="n">
         <v>42</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2023-04-17</t>
-        </is>
+      <c r="B60" s="2" t="n">
+        <v>45033</v>
       </c>
       <c r="C60" t="n">
         <v>1167.85</v>
@@ -12505,10 +12391,8 @@
       <c r="A61" t="n">
         <v>43</v>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2023-04-18</t>
-        </is>
+      <c r="B61" s="2" t="n">
+        <v>45034</v>
       </c>
       <c r="C61" t="n">
         <v>1167.85</v>
@@ -12704,10 +12588,8 @@
       <c r="A62" t="n">
         <v>44</v>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2023-04-19</t>
-        </is>
+      <c r="B62" s="2" t="n">
+        <v>45035</v>
       </c>
       <c r="C62" t="n">
         <v>1167.85</v>
@@ -12903,10 +12785,8 @@
       <c r="A63" t="n">
         <v>45</v>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2023-04-20</t>
-        </is>
+      <c r="B63" s="2" t="n">
+        <v>45036</v>
       </c>
       <c r="C63" t="n">
         <v>1167.85</v>
@@ -13102,10 +12982,8 @@
       <c r="A64" t="n">
         <v>46</v>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2023-04-21</t>
-        </is>
+      <c r="B64" s="2" t="n">
+        <v>45037</v>
       </c>
       <c r="C64" t="n">
         <v>1167.85</v>
@@ -13301,10 +13179,8 @@
       <c r="A65" t="n">
         <v>47</v>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2023-04-22</t>
-        </is>
+      <c r="B65" s="2" t="n">
+        <v>45038</v>
       </c>
       <c r="C65" t="n">
         <v>1167.85</v>
@@ -13500,10 +13376,8 @@
       <c r="A66" t="n">
         <v>48</v>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2023-04-23</t>
-        </is>
+      <c r="B66" s="2" t="n">
+        <v>45039</v>
       </c>
       <c r="C66" t="n">
         <v>1167.85</v>
@@ -13699,10 +13573,8 @@
       <c r="A67" t="n">
         <v>49</v>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2023-04-24</t>
-        </is>
+      <c r="B67" s="2" t="n">
+        <v>45040</v>
       </c>
       <c r="C67" t="n">
         <v>1167.85</v>
@@ -13898,10 +13770,8 @@
       <c r="A68" t="n">
         <v>50</v>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2023-04-25</t>
-        </is>
+      <c r="B68" s="2" t="n">
+        <v>45041</v>
       </c>
       <c r="C68" t="n">
         <v>1167.85</v>
@@ -14097,10 +13967,8 @@
       <c r="A69" t="n">
         <v>51</v>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2023-04-26</t>
-        </is>
+      <c r="B69" s="2" t="n">
+        <v>45042</v>
       </c>
       <c r="C69" t="n">
         <v>1167.85</v>
@@ -14296,10 +14164,8 @@
       <c r="A70" t="n">
         <v>52</v>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2023-04-27</t>
-        </is>
+      <c r="B70" s="2" t="n">
+        <v>45043</v>
       </c>
       <c r="C70" t="n">
         <v>1167.85</v>
@@ -14495,10 +14361,8 @@
       <c r="A71" t="n">
         <v>53</v>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2023-04-28</t>
-        </is>
+      <c r="B71" s="2" t="n">
+        <v>45044</v>
       </c>
       <c r="C71" t="n">
         <v>1167.85</v>
@@ -14694,10 +14558,8 @@
       <c r="A72" t="n">
         <v>54</v>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2023-04-29</t>
-        </is>
+      <c r="B72" s="2" t="n">
+        <v>45045</v>
       </c>
       <c r="C72" t="n">
         <v>1167.85</v>
@@ -14893,10 +14755,8 @@
       <c r="A73" t="n">
         <v>55</v>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2023-04-30</t>
-        </is>
+      <c r="B73" s="2" t="n">
+        <v>45046</v>
       </c>
       <c r="C73" t="n">
         <v>1167.85</v>
@@ -15092,10 +14952,8 @@
       <c r="A74" t="n">
         <v>56</v>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2023-05-01</t>
-        </is>
+      <c r="B74" s="2" t="n">
+        <v>45047</v>
       </c>
       <c r="C74" t="n">
         <v>1167.85</v>
@@ -15291,10 +15149,8 @@
       <c r="A75" t="n">
         <v>57</v>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2023-05-02</t>
-        </is>
+      <c r="B75" s="2" t="n">
+        <v>45048</v>
       </c>
       <c r="C75" t="n">
         <v>1273</v>
@@ -15490,10 +15346,8 @@
       <c r="A76" t="n">
         <v>58</v>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2023-05-03</t>
-        </is>
+      <c r="B76" s="2" t="n">
+        <v>45049</v>
       </c>
       <c r="C76" t="n">
         <v>1273</v>
@@ -15689,10 +15543,8 @@
       <c r="A77" t="n">
         <v>59</v>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2023-05-04</t>
-        </is>
+      <c r="B77" s="2" t="n">
+        <v>45050</v>
       </c>
       <c r="C77" t="n">
         <v>1273</v>
@@ -15888,10 +15740,8 @@
       <c r="A78" t="n">
         <v>60</v>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2023-05-05</t>
-        </is>
+      <c r="B78" s="2" t="n">
+        <v>45051</v>
       </c>
       <c r="C78" t="n">
         <v>1387.57</v>
@@ -16087,10 +15937,8 @@
       <c r="A79" t="n">
         <v>61</v>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2023-05-06</t>
-        </is>
+      <c r="B79" s="2" t="n">
+        <v>45052</v>
       </c>
       <c r="C79" t="n">
         <v>1387.57</v>
@@ -16286,10 +16134,8 @@
       <c r="A80" t="n">
         <v>62</v>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2023-05-07</t>
-        </is>
+      <c r="B80" s="2" t="n">
+        <v>45053</v>
       </c>
       <c r="C80" t="n">
         <v>1387.57</v>
@@ -16485,10 +16331,8 @@
       <c r="A81" t="n">
         <v>63</v>
       </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2023-05-08</t>
-        </is>
+      <c r="B81" s="2" t="n">
+        <v>45054</v>
       </c>
       <c r="C81" t="n">
         <v>1387.57</v>
@@ -16684,10 +16528,8 @@
       <c r="A82" t="n">
         <v>64</v>
       </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2023-05-09</t>
-        </is>
+      <c r="B82" s="2" t="n">
+        <v>45055</v>
       </c>
       <c r="C82" t="n">
         <v>1284.71</v>
@@ -16883,10 +16725,8 @@
       <c r="A83" t="n">
         <v>65</v>
       </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2023-05-10</t>
-        </is>
+      <c r="B83" s="2" t="n">
+        <v>45056</v>
       </c>
       <c r="C83" t="n">
         <v>1284.71</v>
@@ -17082,10 +16922,8 @@
       <c r="A84" t="n">
         <v>66</v>
       </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2023-05-11</t>
-        </is>
+      <c r="B84" s="2" t="n">
+        <v>45057</v>
       </c>
       <c r="C84" t="n">
         <v>1284.71</v>
@@ -17281,10 +17119,8 @@
       <c r="A85" t="n">
         <v>67</v>
       </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2023-05-12</t>
-        </is>
+      <c r="B85" s="2" t="n">
+        <v>45058</v>
       </c>
       <c r="C85" t="n">
         <v>1284.71</v>
@@ -17480,10 +17316,8 @@
       <c r="A86" t="n">
         <v>68</v>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2023-05-13</t>
-        </is>
+      <c r="B86" s="2" t="n">
+        <v>45059</v>
       </c>
       <c r="C86" t="n">
         <v>1284.71</v>
@@ -17679,10 +17513,8 @@
       <c r="A87" t="n">
         <v>69</v>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2023-05-14</t>
-        </is>
+      <c r="B87" s="2" t="n">
+        <v>45060</v>
       </c>
       <c r="C87" t="n">
         <v>1284.71</v>
@@ -17878,10 +17710,8 @@
       <c r="A88" t="n">
         <v>70</v>
       </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2023-05-15</t>
-        </is>
+      <c r="B88" s="2" t="n">
+        <v>45061</v>
       </c>
       <c r="C88" t="n">
         <v>1284.71</v>
@@ -18077,10 +17907,8 @@
       <c r="A89" t="n">
         <v>71</v>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2023-05-16</t>
-        </is>
+      <c r="B89" s="2" t="n">
+        <v>45062</v>
       </c>
       <c r="C89" t="n">
         <v>1284.71</v>
@@ -18276,10 +18104,8 @@
       <c r="A90" t="n">
         <v>72</v>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2023-05-17</t>
-        </is>
+      <c r="B90" s="2" t="n">
+        <v>45063</v>
       </c>
       <c r="C90" t="n">
         <v>1284.71</v>
@@ -18475,10 +18301,8 @@
       <c r="A91" t="n">
         <v>73</v>
       </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2023-05-18</t>
-        </is>
+      <c r="B91" s="2" t="n">
+        <v>45064</v>
       </c>
       <c r="C91" t="n">
         <v>1284.71</v>
@@ -18674,10 +18498,8 @@
       <c r="A92" t="n">
         <v>74</v>
       </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2023-05-19</t>
-        </is>
+      <c r="B92" s="2" t="n">
+        <v>45065</v>
       </c>
       <c r="C92" t="n">
         <v>1284.71</v>
@@ -18873,10 +18695,8 @@
       <c r="A93" t="n">
         <v>75</v>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2023-05-20</t>
-        </is>
+      <c r="B93" s="2" t="n">
+        <v>45066</v>
       </c>
       <c r="C93" t="n">
         <v>1284.71</v>
@@ -19072,10 +18892,8 @@
       <c r="A94" t="n">
         <v>76</v>
       </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2023-05-21</t>
-        </is>
+      <c r="B94" s="2" t="n">
+        <v>45067</v>
       </c>
       <c r="C94" t="n">
         <v>1284.71</v>
@@ -19271,10 +19089,8 @@
       <c r="A95" t="n">
         <v>77</v>
       </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2023-05-22</t>
-        </is>
+      <c r="B95" s="2" t="n">
+        <v>45068</v>
       </c>
       <c r="C95" t="n">
         <v>1284.71</v>
@@ -19470,10 +19286,8 @@
       <c r="A96" t="n">
         <v>78</v>
       </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2023-05-23</t>
-        </is>
+      <c r="B96" s="2" t="n">
+        <v>45069</v>
       </c>
       <c r="C96" t="n">
         <v>1284.71</v>
@@ -19669,10 +19483,8 @@
       <c r="A97" t="n">
         <v>79</v>
       </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2023-05-24</t>
-        </is>
+      <c r="B97" s="2" t="n">
+        <v>45070</v>
       </c>
       <c r="C97" t="n">
         <v>1284.71</v>
@@ -19868,10 +19680,8 @@
       <c r="A98" t="n">
         <v>80</v>
       </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2023-05-25</t>
-        </is>
+      <c r="B98" s="2" t="n">
+        <v>45071</v>
       </c>
       <c r="C98" t="n">
         <v>1284.71</v>
@@ -20067,10 +19877,8 @@
       <c r="A99" t="n">
         <v>81</v>
       </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2023-05-26</t>
-        </is>
+      <c r="B99" s="2" t="n">
+        <v>45072</v>
       </c>
       <c r="C99" t="n">
         <v>1284.71</v>
@@ -20266,10 +20074,8 @@
       <c r="A100" t="n">
         <v>82</v>
       </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2023-05-27</t>
-        </is>
+      <c r="B100" s="2" t="n">
+        <v>45073</v>
       </c>
       <c r="C100" t="n">
         <v>1284.71</v>
@@ -20465,10 +20271,8 @@
       <c r="A101" t="n">
         <v>83</v>
       </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2023-05-28</t>
-        </is>
+      <c r="B101" s="2" t="n">
+        <v>45074</v>
       </c>
       <c r="C101" t="n">
         <v>1284.71</v>
@@ -20664,10 +20468,8 @@
       <c r="A102" t="n">
         <v>84</v>
       </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2023-05-29</t>
-        </is>
+      <c r="B102" s="2" t="n">
+        <v>45075</v>
       </c>
       <c r="C102" t="n">
         <v>1284.71</v>
@@ -20863,10 +20665,8 @@
       <c r="A103" t="n">
         <v>85</v>
       </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2023-05-30</t>
-        </is>
+      <c r="B103" s="2" t="n">
+        <v>45076</v>
       </c>
       <c r="C103" t="n">
         <v>1284.71</v>
@@ -21062,10 +20862,8 @@
       <c r="A104" t="n">
         <v>86</v>
       </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2023-05-31</t>
-        </is>
+      <c r="B104" s="2" t="n">
+        <v>45077</v>
       </c>
       <c r="C104" t="n">
         <v>1284.71</v>
@@ -21261,10 +21059,8 @@
       <c r="A105" t="n">
         <v>87</v>
       </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2023-06-01</t>
-        </is>
+      <c r="B105" s="2" t="n">
+        <v>45078</v>
       </c>
       <c r="C105" t="n">
         <v>1284.71</v>
@@ -21460,10 +21256,8 @@
       <c r="A106" t="n">
         <v>120</v>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2023-06-02</t>
-        </is>
+      <c r="B106" s="2" t="n">
+        <v>45079</v>
       </c>
       <c r="C106" t="n">
         <v>1284.71</v>
@@ -21659,10 +21453,8 @@
       <c r="A107" t="n">
         <v>121</v>
       </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2023-06-03</t>
-        </is>
+      <c r="B107" s="2" t="n">
+        <v>45080</v>
       </c>
       <c r="C107" t="n">
         <v>1284.71</v>
@@ -21858,10 +21650,8 @@
       <c r="A108" t="n">
         <v>122</v>
       </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2023-06-04</t>
-        </is>
+      <c r="B108" s="2" t="n">
+        <v>45081</v>
       </c>
       <c r="C108" t="n">
         <v>1284.71</v>
@@ -22057,10 +21847,8 @@
       <c r="A109" t="n">
         <v>123</v>
       </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2023-06-05</t>
-        </is>
+      <c r="B109" s="2" t="n">
+        <v>45082</v>
       </c>
       <c r="C109" t="n">
         <v>1284.71</v>
@@ -22256,10 +22044,8 @@
       <c r="A110" t="n">
         <v>124</v>
       </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2023-06-06</t>
-        </is>
+      <c r="B110" s="2" t="n">
+        <v>45083</v>
       </c>
       <c r="C110" t="n">
         <v>1284.71</v>
@@ -22455,10 +22241,8 @@
       <c r="A111" t="n">
         <v>125</v>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2023-06-07</t>
-        </is>
+      <c r="B111" s="2" t="n">
+        <v>45084</v>
       </c>
       <c r="C111" t="n">
         <v>1400.28</v>
@@ -22654,10 +22438,8 @@
       <c r="A112" t="n">
         <v>126</v>
       </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2023-06-08</t>
-        </is>
+      <c r="B112" s="2" t="n">
+        <v>45085</v>
       </c>
       <c r="C112" t="n">
         <v>1400.28</v>
@@ -22853,10 +22635,8 @@
       <c r="A113" t="n">
         <v>127</v>
       </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2023-06-09</t>
-        </is>
+      <c r="B113" s="2" t="n">
+        <v>45086</v>
       </c>
       <c r="C113" t="n">
         <v>1400.28</v>
@@ -23052,10 +22832,8 @@
       <c r="A114" t="n">
         <v>128</v>
       </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2023-06-10</t>
-        </is>
+      <c r="B114" s="2" t="n">
+        <v>45087</v>
       </c>
       <c r="C114" t="n">
         <v>1400.28</v>
@@ -23251,10 +23029,8 @@
       <c r="A115" t="n">
         <v>129</v>
       </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2023-06-11</t>
-        </is>
+      <c r="B115" s="2" t="n">
+        <v>45088</v>
       </c>
       <c r="C115" t="n">
         <v>1400.28</v>
@@ -23450,10 +23226,8 @@
       <c r="A116" t="n">
         <v>130</v>
       </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2023-06-12</t>
-        </is>
+      <c r="B116" s="2" t="n">
+        <v>45089</v>
       </c>
       <c r="C116" t="n">
         <v>1400.28</v>
@@ -23649,10 +23423,8 @@
       <c r="A117" t="n">
         <v>131</v>
       </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2023-06-13</t>
-        </is>
+      <c r="B117" s="2" t="n">
+        <v>45090</v>
       </c>
       <c r="C117" t="n">
         <v>1400.28</v>
@@ -23848,10 +23620,8 @@
       <c r="A118" t="n">
         <v>132</v>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2023-06-14</t>
-        </is>
+      <c r="B118" s="2" t="n">
+        <v>45091</v>
       </c>
       <c r="C118" t="n">
         <v>1400.28</v>
@@ -24047,10 +23817,8 @@
       <c r="A119" t="n">
         <v>133</v>
       </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2023-06-15</t>
-        </is>
+      <c r="B119" s="2" t="n">
+        <v>45092</v>
       </c>
       <c r="C119" t="n">
         <v>1400.28</v>
@@ -24246,10 +24014,8 @@
       <c r="A120" t="n">
         <v>134</v>
       </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2023-06-16</t>
-        </is>
+      <c r="B120" s="2" t="n">
+        <v>45093</v>
       </c>
       <c r="C120" t="n">
         <v>1400.28</v>
@@ -24445,10 +24211,8 @@
       <c r="A121" t="n">
         <v>135</v>
       </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2023-06-17</t>
-        </is>
+      <c r="B121" s="2" t="n">
+        <v>45094</v>
       </c>
       <c r="C121" t="n">
         <v>1400.28</v>
@@ -24644,10 +24408,8 @@
       <c r="A122" t="n">
         <v>136</v>
       </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2023-06-18</t>
-        </is>
+      <c r="B122" s="2" t="n">
+        <v>45095</v>
       </c>
       <c r="C122" t="n">
         <v>1400.28</v>
@@ -24843,10 +24605,8 @@
       <c r="A123" t="n">
         <v>137</v>
       </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2023-06-19</t>
-        </is>
+      <c r="B123" s="2" t="n">
+        <v>45096</v>
       </c>
       <c r="C123" t="n">
         <v>1400.28</v>
@@ -25042,10 +24802,8 @@
       <c r="A124" t="n">
         <v>138</v>
       </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2023-06-20</t>
-        </is>
+      <c r="B124" s="2" t="n">
+        <v>45097</v>
       </c>
       <c r="C124" t="n">
         <v>1400.28</v>
@@ -25241,10 +24999,8 @@
       <c r="A125" t="n">
         <v>139</v>
       </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2023-06-21</t>
-        </is>
+      <c r="B125" s="2" t="n">
+        <v>45098</v>
       </c>
       <c r="C125" t="n">
         <v>1400.28</v>
@@ -25440,10 +25196,8 @@
       <c r="A126" t="n">
         <v>140</v>
       </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2023-06-22</t>
-        </is>
+      <c r="B126" s="2" t="n">
+        <v>45099</v>
       </c>
       <c r="C126" t="n">
         <v>1400.28</v>
@@ -25639,10 +25393,8 @@
       <c r="A127" t="n">
         <v>141</v>
       </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2023-06-23</t>
-        </is>
+      <c r="B127" s="2" t="n">
+        <v>45100</v>
       </c>
       <c r="C127" t="n">
         <v>1400.28</v>
@@ -25838,10 +25590,8 @@
       <c r="A128" t="n">
         <v>142</v>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2023-06-24</t>
-        </is>
+      <c r="B128" s="2" t="n">
+        <v>45101</v>
       </c>
       <c r="C128" t="n">
         <v>1400.28</v>
@@ -26037,10 +25787,8 @@
       <c r="A129" t="n">
         <v>143</v>
       </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2023-06-25</t>
-        </is>
+      <c r="B129" s="2" t="n">
+        <v>45102</v>
       </c>
       <c r="C129" t="n">
         <v>1400.28</v>
@@ -26236,10 +25984,8 @@
       <c r="A130" t="n">
         <v>144</v>
       </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2023-06-26</t>
-        </is>
+      <c r="B130" s="2" t="n">
+        <v>45103</v>
       </c>
       <c r="C130" t="n">
         <v>1400.28</v>
@@ -26435,10 +26181,8 @@
       <c r="A131" t="n">
         <v>145</v>
       </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2023-06-27</t>
-        </is>
+      <c r="B131" s="2" t="n">
+        <v>45104</v>
       </c>
       <c r="C131" t="n">
         <v>1400.28</v>
@@ -26634,10 +26378,8 @@
       <c r="A132" t="n">
         <v>146</v>
       </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2023-06-28</t>
-        </is>
+      <c r="B132" s="2" t="n">
+        <v>45105</v>
       </c>
       <c r="C132" t="n">
         <v>1400.28</v>
@@ -26833,10 +26575,8 @@
       <c r="A133" t="n">
         <v>147</v>
       </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2023-06-29</t>
-        </is>
+      <c r="B133" s="2" t="n">
+        <v>45106</v>
       </c>
       <c r="C133" t="n">
         <v>1400.28</v>
@@ -27032,10 +26772,8 @@
       <c r="A134" t="n">
         <v>148</v>
       </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2023-06-30</t>
-        </is>
+      <c r="B134" s="2" t="n">
+        <v>45107</v>
       </c>
       <c r="C134" t="n">
         <v>1400.28</v>
@@ -27231,10 +26969,8 @@
       <c r="A135" t="n">
         <v>149</v>
       </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2023-07-01</t>
-        </is>
+      <c r="B135" s="2" t="n">
+        <v>45108</v>
       </c>
       <c r="C135" t="n">
         <v>1400.28</v>
@@ -27430,10 +27166,8 @@
       <c r="A136" t="n">
         <v>150</v>
       </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2023-07-02</t>
-        </is>
+      <c r="B136" s="2" t="n">
+        <v>45109</v>
       </c>
       <c r="C136" t="n">
         <v>1400.28</v>
@@ -27629,10 +27363,8 @@
       <c r="A137" t="n">
         <v>151</v>
       </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2023-07-03</t>
-        </is>
+      <c r="B137" s="2" t="n">
+        <v>45110</v>
       </c>
       <c r="C137" t="n">
         <v>1400.28</v>
@@ -27828,10 +27560,8 @@
       <c r="A138" t="n">
         <v>152</v>
       </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2023-07-04</t>
-        </is>
+      <c r="B138" s="2" t="n">
+        <v>45111</v>
       </c>
       <c r="C138" t="n">
         <v>1400.28</v>
@@ -28027,10 +27757,8 @@
       <c r="A139" t="n">
         <v>153</v>
       </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2023-07-05</t>
-        </is>
+      <c r="B139" s="2" t="n">
+        <v>45112</v>
       </c>
       <c r="C139" t="n">
         <v>1400.28</v>
@@ -28226,10 +27954,8 @@
       <c r="A140" t="n">
         <v>154</v>
       </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2023-07-06</t>
-        </is>
+      <c r="B140" s="2" t="n">
+        <v>45113</v>
       </c>
       <c r="C140" t="n">
         <v>1400.28</v>
@@ -28425,10 +28151,8 @@
       <c r="A141" t="n">
         <v>155</v>
       </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2023-07-07</t>
-        </is>
+      <c r="B141" s="2" t="n">
+        <v>45114</v>
       </c>
       <c r="C141" t="n">
         <v>1540.28</v>
@@ -28624,10 +28348,8 @@
       <c r="A142" t="n">
         <v>156</v>
       </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2023-07-08</t>
-        </is>
+      <c r="B142" s="2" t="n">
+        <v>45115</v>
       </c>
       <c r="C142" t="n">
         <v>1540.28</v>
@@ -28823,10 +28545,8 @@
       <c r="A143" t="n">
         <v>157</v>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2023-07-09</t>
-        </is>
+      <c r="B143" s="2" t="n">
+        <v>45116</v>
       </c>
       <c r="C143" t="n">
         <v>1540.28</v>
@@ -29022,10 +28742,8 @@
       <c r="A144" t="n">
         <v>158</v>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2023-07-10</t>
-        </is>
+      <c r="B144" s="2" t="n">
+        <v>45117</v>
       </c>
       <c r="C144" t="n">
         <v>1540.28</v>
@@ -29221,10 +28939,8 @@
       <c r="A145" t="n">
         <v>159</v>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2023-07-11</t>
-        </is>
+      <c r="B145" s="2" t="n">
+        <v>45118</v>
       </c>
       <c r="C145" t="n">
         <v>1540.28</v>
@@ -29420,10 +29136,8 @@
       <c r="A146" t="n">
         <v>160</v>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2023-07-12</t>
-        </is>
+      <c r="B146" s="2" t="n">
+        <v>45119</v>
       </c>
       <c r="C146" t="n">
         <v>1540.28</v>
@@ -29619,10 +29333,8 @@
       <c r="A147" t="n">
         <v>161</v>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2023-07-13</t>
-        </is>
+      <c r="B147" s="2" t="n">
+        <v>45120</v>
       </c>
       <c r="C147" t="n">
         <v>1540.28</v>
@@ -29818,10 +29530,8 @@
       <c r="A148" t="n">
         <v>162</v>
       </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2023-07-14</t>
-        </is>
+      <c r="B148" s="2" t="n">
+        <v>45121</v>
       </c>
       <c r="C148" t="n">
         <v>1540.28</v>
@@ -30017,10 +29727,8 @@
       <c r="A149" t="n">
         <v>163</v>
       </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2023-07-15</t>
-        </is>
+      <c r="B149" s="2" t="n">
+        <v>45122</v>
       </c>
       <c r="C149" t="n">
         <v>1540.28</v>
@@ -30216,10 +29924,8 @@
       <c r="A150" t="n">
         <v>164</v>
       </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2023-07-16</t>
-        </is>
+      <c r="B150" s="2" t="n">
+        <v>45123</v>
       </c>
       <c r="C150" t="n">
         <v>1540.28</v>
@@ -30415,10 +30121,8 @@
       <c r="A151" t="n">
         <v>165</v>
       </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2023-07-17</t>
-        </is>
+      <c r="B151" s="2" t="n">
+        <v>45124</v>
       </c>
       <c r="C151" t="n">
         <v>1540.28</v>
@@ -30614,10 +30318,8 @@
       <c r="A152" t="n">
         <v>166</v>
       </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2023-07-18</t>
-        </is>
+      <c r="B152" s="2" t="n">
+        <v>45125</v>
       </c>
       <c r="C152" t="n">
         <v>1540.28</v>
@@ -30813,10 +30515,8 @@
       <c r="A153" t="n">
         <v>167</v>
       </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2023-07-19</t>
-        </is>
+      <c r="B153" s="2" t="n">
+        <v>45126</v>
       </c>
       <c r="C153" t="n">
         <v>1540.28</v>
@@ -31012,10 +30712,8 @@
       <c r="A154" t="n">
         <v>168</v>
       </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2023-07-20</t>
-        </is>
+      <c r="B154" s="2" t="n">
+        <v>45127</v>
       </c>
       <c r="C154" t="n">
         <v>1540.28</v>
@@ -31211,10 +30909,8 @@
       <c r="A155" t="n">
         <v>169</v>
       </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2023-07-21</t>
-        </is>
+      <c r="B155" s="2" t="n">
+        <v>45128</v>
       </c>
       <c r="C155" t="n">
         <v>1540.28</v>
@@ -31410,10 +31106,8 @@
       <c r="A156" t="n">
         <v>170</v>
       </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2023-07-22</t>
-        </is>
+      <c r="B156" s="2" t="n">
+        <v>45129</v>
       </c>
       <c r="C156" t="n">
         <v>1540.28</v>
@@ -31609,10 +31303,8 @@
       <c r="A157" t="n">
         <v>171</v>
       </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2023-07-23</t>
-        </is>
+      <c r="B157" s="2" t="n">
+        <v>45130</v>
       </c>
       <c r="C157" t="n">
         <v>1540.28</v>
@@ -31808,10 +31500,8 @@
       <c r="A158" t="n">
         <v>172</v>
       </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2023-07-24</t>
-        </is>
+      <c r="B158" s="2" t="n">
+        <v>45131</v>
       </c>
       <c r="C158" t="n">
         <v>1540.28</v>
@@ -32007,10 +31697,8 @@
       <c r="A159" t="n">
         <v>173</v>
       </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2023-07-25</t>
-        </is>
+      <c r="B159" s="2" t="n">
+        <v>45132</v>
       </c>
       <c r="C159" t="n">
         <v>1540.28</v>
@@ -32206,10 +31894,8 @@
       <c r="A160" t="n">
         <v>174</v>
       </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2023-07-26</t>
-        </is>
+      <c r="B160" s="2" t="n">
+        <v>45133</v>
       </c>
       <c r="C160" t="n">
         <v>1540.28</v>
@@ -32405,10 +32091,8 @@
       <c r="A161" t="n">
         <v>175</v>
       </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2023-07-27</t>
-        </is>
+      <c r="B161" s="2" t="n">
+        <v>45134</v>
       </c>
       <c r="C161" t="n">
         <v>1540.28</v>
@@ -32604,10 +32288,8 @@
       <c r="A162" t="n">
         <v>176</v>
       </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2023-07-28</t>
-        </is>
+      <c r="B162" s="2" t="n">
+        <v>45135</v>
       </c>
       <c r="C162" t="n">
         <v>1540.28</v>
@@ -32803,10 +32485,8 @@
       <c r="A163" t="n">
         <v>177</v>
       </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2023-07-29</t>
-        </is>
+      <c r="B163" s="2" t="n">
+        <v>45136</v>
       </c>
       <c r="C163" t="n">
         <v>1540.28</v>
@@ -33002,10 +32682,8 @@
       <c r="A164" t="n">
         <v>178</v>
       </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2023-07-30</t>
-        </is>
+      <c r="B164" s="2" t="n">
+        <v>45137</v>
       </c>
       <c r="C164" t="n">
         <v>1540.28</v>
@@ -33201,10 +32879,8 @@
       <c r="A165" t="n">
         <v>179</v>
       </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2023-07-31</t>
-        </is>
+      <c r="B165" s="2" t="n">
+        <v>45138</v>
       </c>
       <c r="C165" t="n">
         <v>1540.28</v>
@@ -33400,10 +33076,8 @@
       <c r="A166" t="n">
         <v>180</v>
       </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2023-08-01</t>
-        </is>
+      <c r="B166" s="2" t="n">
+        <v>45139</v>
       </c>
       <c r="C166" t="n">
         <v>1540.28</v>
@@ -33599,10 +33273,8 @@
       <c r="A167" t="n">
         <v>181</v>
       </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2023-08-02</t>
-        </is>
+      <c r="B167" s="2" t="n">
+        <v>45140</v>
       </c>
       <c r="C167" t="n">
         <v>1540.28</v>
@@ -33798,10 +33470,8 @@
       <c r="A168" t="n">
         <v>182</v>
       </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2023-08-03</t>
-        </is>
+      <c r="B168" s="2" t="n">
+        <v>45141</v>
       </c>
       <c r="C168" t="n">
         <v>1540.28</v>
@@ -33997,10 +33667,8 @@
       <c r="A169" t="n">
         <v>183</v>
       </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2023-08-04</t>
-        </is>
+      <c r="B169" s="2" t="n">
+        <v>45142</v>
       </c>
       <c r="C169" t="n">
         <v>1540.28</v>
@@ -34196,10 +33864,8 @@
       <c r="A170" t="n">
         <v>184</v>
       </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2023-08-05</t>
-        </is>
+      <c r="B170" s="2" t="n">
+        <v>45143</v>
       </c>
       <c r="C170" t="n">
         <v>1540.28</v>
@@ -34395,10 +34061,8 @@
       <c r="A171" t="n">
         <v>185</v>
       </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2023-08-06</t>
-        </is>
+      <c r="B171" s="2" t="n">
+        <v>45144</v>
       </c>
       <c r="C171" t="n">
         <v>1540.28</v>
@@ -34594,10 +34258,8 @@
       <c r="A172" t="n">
         <v>186</v>
       </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2023-08-07</t>
-        </is>
+      <c r="B172" s="2" t="n">
+        <v>45145</v>
       </c>
       <c r="C172" t="n">
         <v>1540.28</v>
@@ -34793,10 +34455,8 @@
       <c r="A173" t="n">
         <v>187</v>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2023-08-08</t>
-        </is>
+      <c r="B173" s="2" t="n">
+        <v>45146</v>
       </c>
       <c r="C173" t="n">
         <v>1540.28</v>
@@ -34992,10 +34652,8 @@
       <c r="A174" t="n">
         <v>188</v>
       </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2023-08-09</t>
-        </is>
+      <c r="B174" s="2" t="n">
+        <v>45147</v>
       </c>
       <c r="C174" t="n">
         <v>1742.85</v>
@@ -35191,10 +34849,8 @@
       <c r="A175" t="n">
         <v>189</v>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2023-08-10</t>
-        </is>
+      <c r="B175" s="2" t="n">
+        <v>45148</v>
       </c>
       <c r="C175" t="n">
         <v>1742.85</v>
@@ -35390,10 +35046,8 @@
       <c r="A176" t="n">
         <v>190</v>
       </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2023-08-11</t>
-        </is>
+      <c r="B176" s="2" t="n">
+        <v>45149</v>
       </c>
       <c r="C176" t="n">
         <v>1742.85</v>
@@ -35589,10 +35243,8 @@
       <c r="A177" t="n">
         <v>191</v>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2023-08-12</t>
-        </is>
+      <c r="B177" s="2" t="n">
+        <v>45150</v>
       </c>
       <c r="C177" t="n">
         <v>1742.85</v>
@@ -35788,10 +35440,8 @@
       <c r="A178" t="n">
         <v>192</v>
       </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2023-08-13</t>
-        </is>
+      <c r="B178" s="2" t="n">
+        <v>45151</v>
       </c>
       <c r="C178" t="n">
         <v>1742.85</v>
@@ -35987,10 +35637,8 @@
       <c r="A179" t="n">
         <v>193</v>
       </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2023-08-14</t>
-        </is>
+      <c r="B179" s="2" t="n">
+        <v>45152</v>
       </c>
       <c r="C179" t="n">
         <v>1742.85</v>
@@ -36186,10 +35834,8 @@
       <c r="A180" t="n">
         <v>194</v>
       </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2023-08-15</t>
-        </is>
+      <c r="B180" s="2" t="n">
+        <v>45153</v>
       </c>
       <c r="C180" t="n">
         <v>1742.85</v>
@@ -36385,10 +36031,8 @@
       <c r="A181" t="n">
         <v>195</v>
       </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2023-08-16</t>
-        </is>
+      <c r="B181" s="2" t="n">
+        <v>45154</v>
       </c>
       <c r="C181" t="n">
         <v>1742.85</v>
@@ -36584,10 +36228,8 @@
       <c r="A182" t="n">
         <v>196</v>
       </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2023-08-17</t>
-        </is>
+      <c r="B182" s="2" t="n">
+        <v>45155</v>
       </c>
       <c r="C182" t="n">
         <v>1742.85</v>
@@ -36783,10 +36425,8 @@
       <c r="A183" t="n">
         <v>197</v>
       </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2023-08-18</t>
-        </is>
+      <c r="B183" s="2" t="n">
+        <v>45156</v>
       </c>
       <c r="C183" t="n">
         <v>1742.85</v>
@@ -36982,10 +36622,8 @@
       <c r="A184" t="n">
         <v>198</v>
       </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2023-08-19</t>
-        </is>
+      <c r="B184" s="2" t="n">
+        <v>45157</v>
       </c>
       <c r="C184" t="n">
         <v>1742.85</v>
@@ -37181,10 +36819,8 @@
       <c r="A185" t="n">
         <v>199</v>
       </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2023-08-20</t>
-        </is>
+      <c r="B185" s="2" t="n">
+        <v>45158</v>
       </c>
       <c r="C185" t="n">
         <v>1742.85</v>
@@ -37380,10 +37016,8 @@
       <c r="A186" t="n">
         <v>200</v>
       </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2023-08-21</t>
-        </is>
+      <c r="B186" s="2" t="n">
+        <v>45159</v>
       </c>
       <c r="C186" t="n">
         <v>1742.85</v>
@@ -37579,10 +37213,8 @@
       <c r="A187" t="n">
         <v>201</v>
       </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2023-08-22</t>
-        </is>
+      <c r="B187" s="2" t="n">
+        <v>45160</v>
       </c>
       <c r="C187" t="n">
         <v>1742.85</v>
@@ -37778,10 +37410,8 @@
       <c r="A188" t="n">
         <v>202</v>
       </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2023-08-23</t>
-        </is>
+      <c r="B188" s="2" t="n">
+        <v>45161</v>
       </c>
       <c r="C188" t="n">
         <v>1742.85</v>
@@ -37977,10 +37607,8 @@
       <c r="A189" t="n">
         <v>203</v>
       </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2023-08-24</t>
-        </is>
+      <c r="B189" s="2" t="n">
+        <v>45162</v>
       </c>
       <c r="C189" t="n">
         <v>1742.85</v>
@@ -38176,10 +37804,8 @@
       <c r="A190" t="n">
         <v>204</v>
       </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2023-08-25</t>
-        </is>
+      <c r="B190" s="2" t="n">
+        <v>45163</v>
       </c>
       <c r="C190" t="n">
         <v>1742.85</v>
@@ -38375,10 +38001,8 @@
       <c r="A191" t="n">
         <v>205</v>
       </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2023-08-26</t>
-        </is>
+      <c r="B191" s="2" t="n">
+        <v>45164</v>
       </c>
       <c r="C191" t="n">
         <v>1742.85</v>
@@ -38574,10 +38198,8 @@
       <c r="A192" t="n">
         <v>206</v>
       </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2023-08-27</t>
-        </is>
+      <c r="B192" s="2" t="n">
+        <v>45165</v>
       </c>
       <c r="C192" t="n">
         <v>1742.85</v>
@@ -38773,10 +38395,8 @@
       <c r="A193" t="n">
         <v>207</v>
       </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2023-08-28</t>
-        </is>
+      <c r="B193" s="2" t="n">
+        <v>45166</v>
       </c>
       <c r="C193" t="n">
         <v>1742.85</v>
@@ -38972,10 +38592,8 @@
       <c r="A194" t="n">
         <v>208</v>
       </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2023-08-29</t>
-        </is>
+      <c r="B194" s="2" t="n">
+        <v>45167</v>
       </c>
       <c r="C194" t="n">
         <v>1742.85</v>
@@ -39171,10 +38789,8 @@
       <c r="A195" t="n">
         <v>209</v>
       </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2023-08-30</t>
-        </is>
+      <c r="B195" s="2" t="n">
+        <v>45168</v>
       </c>
       <c r="C195" t="n">
         <v>1742.85</v>
@@ -39370,10 +38986,8 @@
       <c r="A196" t="n">
         <v>210</v>
       </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2023-08-31</t>
-        </is>
+      <c r="B196" s="2" t="n">
+        <v>45169</v>
       </c>
       <c r="C196" t="n">
         <v>1742.85</v>
@@ -39569,10 +39183,8 @@
       <c r="A197" t="n">
         <v>211</v>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2023-09-01</t>
-        </is>
+      <c r="B197" s="2" t="n">
+        <v>45170</v>
       </c>
       <c r="C197" t="n">
         <v>1742.85</v>
@@ -39768,10 +39380,8 @@
       <c r="A198" t="n">
         <v>212</v>
       </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2023-09-02</t>
-        </is>
+      <c r="B198" s="2" t="n">
+        <v>45171</v>
       </c>
       <c r="C198" t="n">
         <v>1742.85</v>
@@ -39967,10 +39577,8 @@
       <c r="A199" t="n">
         <v>213</v>
       </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2023-09-03</t>
-        </is>
+      <c r="B199" s="2" t="n">
+        <v>45172</v>
       </c>
       <c r="C199" t="n">
         <v>1742.85</v>
@@ -40166,10 +39774,8 @@
       <c r="A200" t="n">
         <v>214</v>
       </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2023-09-04</t>
-        </is>
+      <c r="B200" s="2" t="n">
+        <v>45173</v>
       </c>
       <c r="C200" t="n">
         <v>1742.85</v>
@@ -40365,10 +39971,8 @@
       <c r="A201" t="n">
         <v>215</v>
       </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2023-09-05</t>
-        </is>
+      <c r="B201" s="2" t="n">
+        <v>45174</v>
       </c>
       <c r="C201" t="n">
         <v>1742.85</v>
@@ -40564,10 +40168,8 @@
       <c r="A202" t="n">
         <v>216</v>
       </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>2023-09-06</t>
-        </is>
+      <c r="B202" s="2" t="n">
+        <v>45175</v>
       </c>
       <c r="C202" t="n">
         <v>1742.85</v>
@@ -40763,10 +40365,8 @@
       <c r="A203" t="n">
         <v>217</v>
       </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>2023-09-07</t>
-        </is>
+      <c r="B203" s="2" t="n">
+        <v>45176</v>
       </c>
       <c r="C203" t="n">
         <v>1742.85</v>
@@ -40962,10 +40562,8 @@
       <c r="A204" t="n">
         <v>218</v>
       </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>2023-09-08</t>
-        </is>
+      <c r="B204" s="2" t="n">
+        <v>45177</v>
       </c>
       <c r="C204" t="n">
         <v>1742.85</v>
@@ -41161,10 +40759,8 @@
       <c r="A205" t="n">
         <v>219</v>
       </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>2023-09-09</t>
-        </is>
+      <c r="B205" s="2" t="n">
+        <v>45178</v>
       </c>
       <c r="C205" t="n">
         <v>1742.85</v>
@@ -41360,10 +40956,8 @@
       <c r="A206" t="n">
         <v>220</v>
       </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>2023-09-10</t>
-        </is>
+      <c r="B206" s="2" t="n">
+        <v>45179</v>
       </c>
       <c r="C206" t="n">
         <v>1742.85</v>
@@ -41559,10 +41153,8 @@
       <c r="A207" t="n">
         <v>221</v>
       </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>2023-09-11</t>
-        </is>
+      <c r="B207" s="2" t="n">
+        <v>45180</v>
       </c>
       <c r="C207" t="n">
         <v>1742.85</v>
@@ -41758,10 +41350,8 @@
       <c r="A208" t="n">
         <v>222</v>
       </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>2023-09-12</t>
-        </is>
+      <c r="B208" s="2" t="n">
+        <v>45181</v>
       </c>
       <c r="C208" t="n">
         <v>1830</v>
@@ -41957,10 +41547,8 @@
       <c r="A209" t="n">
         <v>223</v>
       </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>2023-09-13</t>
-        </is>
+      <c r="B209" s="2" t="n">
+        <v>45182</v>
       </c>
       <c r="C209" t="n">
         <v>1830</v>
@@ -42156,10 +41744,8 @@
       <c r="A210" t="n">
         <v>224</v>
       </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>2023-09-14</t>
-        </is>
+      <c r="B210" s="2" t="n">
+        <v>45183</v>
       </c>
       <c r="C210" t="n">
         <v>1830</v>
@@ -42355,10 +41941,8 @@
       <c r="A211" t="n">
         <v>225</v>
       </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>2023-09-15</t>
-        </is>
+      <c r="B211" s="2" t="n">
+        <v>45184</v>
       </c>
       <c r="C211" t="n">
         <v>1830</v>
@@ -42554,10 +42138,8 @@
       <c r="A212" t="n">
         <v>226</v>
       </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>2023-09-16</t>
-        </is>
+      <c r="B212" s="2" t="n">
+        <v>45185</v>
       </c>
       <c r="C212" t="n">
         <v>1830</v>
@@ -42753,10 +42335,8 @@
       <c r="A213" t="n">
         <v>227</v>
       </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>2023-09-17</t>
-        </is>
+      <c r="B213" s="2" t="n">
+        <v>45186</v>
       </c>
       <c r="C213" t="n">
         <v>1830</v>
@@ -42952,10 +42532,8 @@
       <c r="A214" t="n">
         <v>228</v>
       </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>2023-09-18</t>
-        </is>
+      <c r="B214" s="2" t="n">
+        <v>45187</v>
       </c>
       <c r="C214" t="n">
         <v>1830</v>
@@ -43151,10 +42729,8 @@
       <c r="A215" t="n">
         <v>229</v>
       </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>2023-09-19</t>
-        </is>
+      <c r="B215" s="2" t="n">
+        <v>45188</v>
       </c>
       <c r="C215" t="n">
         <v>1830</v>
@@ -43350,10 +42926,8 @@
       <c r="A216" t="n">
         <v>230</v>
       </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>2023-09-20</t>
-        </is>
+      <c r="B216" s="2" t="n">
+        <v>45189</v>
       </c>
       <c r="C216" t="n">
         <v>1830</v>
@@ -43549,10 +43123,8 @@
       <c r="A217" t="n">
         <v>231</v>
       </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>2023-09-21</t>
-        </is>
+      <c r="B217" s="2" t="n">
+        <v>45190</v>
       </c>
       <c r="C217" t="n">
         <v>1830</v>
@@ -43748,10 +43320,8 @@
       <c r="A218" t="n">
         <v>233</v>
       </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>2023-09-22</t>
-        </is>
+      <c r="B218" s="2" t="n">
+        <v>45191</v>
       </c>
       <c r="C218" t="n">
         <v>1830</v>
@@ -43947,10 +43517,8 @@
       <c r="A219" t="n">
         <v>234</v>
       </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>2023-09-23</t>
-        </is>
+      <c r="B219" s="2" t="n">
+        <v>45192</v>
       </c>
       <c r="C219" t="n">
         <v>1830</v>
@@ -44139,6 +43707,203 @@
         <v>1248.82</v>
       </c>
       <c r="BM219" t="n">
+        <v>567.2</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>235</v>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>45193</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1830</v>
+      </c>
+      <c r="D220" t="n">
+        <v>269.73</v>
+      </c>
+      <c r="E220" t="n">
+        <v>460.98</v>
+      </c>
+      <c r="F220" t="n">
+        <v>277.92</v>
+      </c>
+      <c r="G220" t="n">
+        <v>338.6</v>
+      </c>
+      <c r="H220" t="n">
+        <v>674.24</v>
+      </c>
+      <c r="I220" t="n">
+        <v>750</v>
+      </c>
+      <c r="J220" t="n">
+        <v>2719.9</v>
+      </c>
+      <c r="K220" t="n">
+        <v>1929.9</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1069.9</v>
+      </c>
+      <c r="M220" t="n">
+        <v>2539.9</v>
+      </c>
+      <c r="N220" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="O220" t="n">
+        <v>2399.9</v>
+      </c>
+      <c r="P220" t="n">
+        <v>599.9</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>1779.9</v>
+      </c>
+      <c r="R220" t="n">
+        <v>959.9</v>
+      </c>
+      <c r="S220" t="n">
+        <v>2990</v>
+      </c>
+      <c r="T220" t="n">
+        <v>2092</v>
+      </c>
+      <c r="U220" t="n">
+        <v>3759</v>
+      </c>
+      <c r="V220" t="n">
+        <v>1725</v>
+      </c>
+      <c r="W220" t="n">
+        <v>7093.33</v>
+      </c>
+      <c r="X220" t="n">
+        <v>795.28</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>413.55</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>355.95</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>2499</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>5139</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>3245</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>607.76</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>1467.37</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>2840</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>499</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>499</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>739</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1090</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>199</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>329</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>649</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>319</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>179</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>869.52</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>952.38</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>2298.12</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>762.88</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>1330.95</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>545.84</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>894.71</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>270.7</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>2206.22</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>359.67</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>342.06</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>245</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>523.1799999999999</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>657.66</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>975.34</v>
+      </c>
+      <c r="BL220" t="n">
+        <v>1248.82</v>
+      </c>
+      <c r="BM220" t="n">
         <v>567.2</v>
       </c>
     </row>

--- a/airflow/data/precios.xlsx
+++ b/airflow/data/precios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN260"/>
+  <dimension ref="A1:BN291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52569,6 +52569,6206 @@
         <v>0</v>
       </c>
     </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>304</v>
+      </c>
+      <c r="B261" s="2" t="n">
+        <v>45262</v>
+      </c>
+      <c r="C261" t="n">
+        <v>2533.42</v>
+      </c>
+      <c r="D261" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E261" t="n">
+        <v>614.76</v>
+      </c>
+      <c r="F261" t="n">
+        <v>225.41</v>
+      </c>
+      <c r="G261" t="n">
+        <v>562.38</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J261" t="n">
+        <v>3679.9</v>
+      </c>
+      <c r="K261" t="n">
+        <v>2609.9</v>
+      </c>
+      <c r="L261" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M261" t="n">
+        <v>3429.9</v>
+      </c>
+      <c r="N261" t="n">
+        <v>2699.9</v>
+      </c>
+      <c r="O261" t="n">
+        <v>4109.9</v>
+      </c>
+      <c r="P261" t="n">
+        <v>799.9</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>2529.9</v>
+      </c>
+      <c r="R261" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="S261" t="n">
+        <v>2799</v>
+      </c>
+      <c r="T261" t="n">
+        <v>3630</v>
+      </c>
+      <c r="U261" t="n">
+        <v>5667</v>
+      </c>
+      <c r="V261" t="n">
+        <v>2495</v>
+      </c>
+      <c r="W261" t="n">
+        <v>10880.33</v>
+      </c>
+      <c r="X261" t="n">
+        <v>1060.6</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>392.44</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>3099</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>5799</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>3795</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>1947.5</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>699</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>599</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>1850</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>329</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>749</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>449</v>
+      </c>
+      <c r="AU261" t="n">
+        <v>249</v>
+      </c>
+      <c r="AV261" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX261" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="AZ261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA261" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BB261" t="n">
+        <v>631.86</v>
+      </c>
+      <c r="BC261" t="n">
+        <v>1193.16</v>
+      </c>
+      <c r="BD261" t="n">
+        <v>489.58</v>
+      </c>
+      <c r="BE261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF261" t="n">
+        <v>292.23</v>
+      </c>
+      <c r="BG261" t="n">
+        <v>456.17</v>
+      </c>
+      <c r="BH261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI261" t="n">
+        <v>862.88</v>
+      </c>
+      <c r="BJ261" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL261" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM261" t="n">
+        <v>828.46</v>
+      </c>
+      <c r="BN261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>305</v>
+      </c>
+      <c r="B262" s="2" t="n">
+        <v>45263</v>
+      </c>
+      <c r="C262" t="n">
+        <v>2533.42</v>
+      </c>
+      <c r="D262" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E262" t="n">
+        <v>614.76</v>
+      </c>
+      <c r="F262" t="n">
+        <v>225.41</v>
+      </c>
+      <c r="G262" t="n">
+        <v>562.38</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J262" t="n">
+        <v>3679.9</v>
+      </c>
+      <c r="K262" t="n">
+        <v>2609.9</v>
+      </c>
+      <c r="L262" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M262" t="n">
+        <v>3429.9</v>
+      </c>
+      <c r="N262" t="n">
+        <v>2699.9</v>
+      </c>
+      <c r="O262" t="n">
+        <v>4109.9</v>
+      </c>
+      <c r="P262" t="n">
+        <v>799.9</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>2529.9</v>
+      </c>
+      <c r="R262" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="S262" t="n">
+        <v>2799</v>
+      </c>
+      <c r="T262" t="n">
+        <v>3630</v>
+      </c>
+      <c r="U262" t="n">
+        <v>5667</v>
+      </c>
+      <c r="V262" t="n">
+        <v>2495</v>
+      </c>
+      <c r="W262" t="n">
+        <v>10880.33</v>
+      </c>
+      <c r="X262" t="n">
+        <v>1060.6</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>392.44</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>3099</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>5799</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>3795</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>1947.5</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>699</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>599</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>1850</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>329</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>749</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>449</v>
+      </c>
+      <c r="AU262" t="n">
+        <v>249</v>
+      </c>
+      <c r="AV262" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW262" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX262" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="AZ262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA262" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BB262" t="n">
+        <v>631.86</v>
+      </c>
+      <c r="BC262" t="n">
+        <v>1193.16</v>
+      </c>
+      <c r="BD262" t="n">
+        <v>489.58</v>
+      </c>
+      <c r="BE262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF262" t="n">
+        <v>292.23</v>
+      </c>
+      <c r="BG262" t="n">
+        <v>456.17</v>
+      </c>
+      <c r="BH262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI262" t="n">
+        <v>862.88</v>
+      </c>
+      <c r="BJ262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL262" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM262" t="n">
+        <v>828.46</v>
+      </c>
+      <c r="BN262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>306</v>
+      </c>
+      <c r="B263" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="C263" t="n">
+        <v>2533.42</v>
+      </c>
+      <c r="D263" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E263" t="n">
+        <v>614.76</v>
+      </c>
+      <c r="F263" t="n">
+        <v>225.41</v>
+      </c>
+      <c r="G263" t="n">
+        <v>562.38</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J263" t="n">
+        <v>3679.9</v>
+      </c>
+      <c r="K263" t="n">
+        <v>2609.9</v>
+      </c>
+      <c r="L263" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M263" t="n">
+        <v>3429.9</v>
+      </c>
+      <c r="N263" t="n">
+        <v>2699.9</v>
+      </c>
+      <c r="O263" t="n">
+        <v>4109.9</v>
+      </c>
+      <c r="P263" t="n">
+        <v>799.9</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>2529.9</v>
+      </c>
+      <c r="R263" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="S263" t="n">
+        <v>3299</v>
+      </c>
+      <c r="T263" t="n">
+        <v>4127</v>
+      </c>
+      <c r="U263" t="n">
+        <v>5667</v>
+      </c>
+      <c r="V263" t="n">
+        <v>2934</v>
+      </c>
+      <c r="W263" t="n">
+        <v>10880.33</v>
+      </c>
+      <c r="X263" t="n">
+        <v>1060.6</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>392.44</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>5799</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>3795</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>1947.5</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>899</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>599</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>1850</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>329</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>749</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>2499</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>449</v>
+      </c>
+      <c r="AU263" t="n">
+        <v>249</v>
+      </c>
+      <c r="AV263" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW263" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX263" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="AZ263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA263" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BB263" t="n">
+        <v>631.86</v>
+      </c>
+      <c r="BC263" t="n">
+        <v>1193.16</v>
+      </c>
+      <c r="BD263" t="n">
+        <v>489.58</v>
+      </c>
+      <c r="BE263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF263" t="n">
+        <v>292.23</v>
+      </c>
+      <c r="BG263" t="n">
+        <v>456.17</v>
+      </c>
+      <c r="BH263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI263" t="n">
+        <v>862.88</v>
+      </c>
+      <c r="BJ263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL263" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM263" t="n">
+        <v>828.46</v>
+      </c>
+      <c r="BN263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>307</v>
+      </c>
+      <c r="B264" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="C264" t="n">
+        <v>2533.42</v>
+      </c>
+      <c r="D264" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E264" t="n">
+        <v>614.76</v>
+      </c>
+      <c r="F264" t="n">
+        <v>225.41</v>
+      </c>
+      <c r="G264" t="n">
+        <v>562.38</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J264" t="n">
+        <v>3679.9</v>
+      </c>
+      <c r="K264" t="n">
+        <v>2609.9</v>
+      </c>
+      <c r="L264" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M264" t="n">
+        <v>3429.9</v>
+      </c>
+      <c r="N264" t="n">
+        <v>2699.9</v>
+      </c>
+      <c r="O264" t="n">
+        <v>4109.9</v>
+      </c>
+      <c r="P264" t="n">
+        <v>799.9</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>2529.9</v>
+      </c>
+      <c r="R264" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="S264" t="n">
+        <v>3299</v>
+      </c>
+      <c r="T264" t="n">
+        <v>4127</v>
+      </c>
+      <c r="U264" t="n">
+        <v>5667</v>
+      </c>
+      <c r="V264" t="n">
+        <v>2934</v>
+      </c>
+      <c r="W264" t="n">
+        <v>10880.33</v>
+      </c>
+      <c r="X264" t="n">
+        <v>1060.6</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>412</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>5799</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>4245</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>1997.5</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>899</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>599</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>1850</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>329</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ264" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AR264" t="n">
+        <v>749</v>
+      </c>
+      <c r="AS264" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AT264" t="n">
+        <v>499</v>
+      </c>
+      <c r="AU264" t="n">
+        <v>279</v>
+      </c>
+      <c r="AV264" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW264" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX264" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="AZ264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA264" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BB264" t="n">
+        <v>631.86</v>
+      </c>
+      <c r="BC264" t="n">
+        <v>1193.16</v>
+      </c>
+      <c r="BD264" t="n">
+        <v>489.58</v>
+      </c>
+      <c r="BE264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF264" t="n">
+        <v>292.23</v>
+      </c>
+      <c r="BG264" t="n">
+        <v>456.17</v>
+      </c>
+      <c r="BH264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI264" t="n">
+        <v>862.88</v>
+      </c>
+      <c r="BJ264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL264" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM264" t="n">
+        <v>828.46</v>
+      </c>
+      <c r="BN264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>308</v>
+      </c>
+      <c r="B265" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="C265" t="n">
+        <v>2533.42</v>
+      </c>
+      <c r="D265" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E265" t="n">
+        <v>614.76</v>
+      </c>
+      <c r="F265" t="n">
+        <v>225.41</v>
+      </c>
+      <c r="G265" t="n">
+        <v>562.38</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J265" t="n">
+        <v>3679.9</v>
+      </c>
+      <c r="K265" t="n">
+        <v>2609.9</v>
+      </c>
+      <c r="L265" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M265" t="n">
+        <v>3429.9</v>
+      </c>
+      <c r="N265" t="n">
+        <v>2699.9</v>
+      </c>
+      <c r="O265" t="n">
+        <v>4109.9</v>
+      </c>
+      <c r="P265" t="n">
+        <v>799.9</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>2529.9</v>
+      </c>
+      <c r="R265" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="S265" t="n">
+        <v>3299</v>
+      </c>
+      <c r="T265" t="n">
+        <v>4127</v>
+      </c>
+      <c r="U265" t="n">
+        <v>5667</v>
+      </c>
+      <c r="V265" t="n">
+        <v>2934</v>
+      </c>
+      <c r="W265" t="n">
+        <v>10880.33</v>
+      </c>
+      <c r="X265" t="n">
+        <v>1060.6</v>
+      </c>
+      <c r="Y265" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z265" t="n">
+        <v>412</v>
+      </c>
+      <c r="AA265" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB265" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC265" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AD265" t="n">
+        <v>5799</v>
+      </c>
+      <c r="AE265" t="n">
+        <v>4245</v>
+      </c>
+      <c r="AF265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG265" t="n">
+        <v>1997.5</v>
+      </c>
+      <c r="AH265" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>899</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>599</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AL265" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM265" t="n">
+        <v>1850</v>
+      </c>
+      <c r="AN265" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO265" t="n">
+        <v>329</v>
+      </c>
+      <c r="AP265" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ265" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AR265" t="n">
+        <v>749</v>
+      </c>
+      <c r="AS265" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AT265" t="n">
+        <v>499</v>
+      </c>
+      <c r="AU265" t="n">
+        <v>279</v>
+      </c>
+      <c r="AV265" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW265" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX265" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>1320.25</v>
+      </c>
+      <c r="AZ265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA265" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BB265" t="n">
+        <v>631.86</v>
+      </c>
+      <c r="BC265" t="n">
+        <v>1193.16</v>
+      </c>
+      <c r="BD265" t="n">
+        <v>489.58</v>
+      </c>
+      <c r="BE265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF265" t="n">
+        <v>292.23</v>
+      </c>
+      <c r="BG265" t="n">
+        <v>456.17</v>
+      </c>
+      <c r="BH265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI265" t="n">
+        <v>862.88</v>
+      </c>
+      <c r="BJ265" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL265" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM265" t="n">
+        <v>828.46</v>
+      </c>
+      <c r="BN265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>309</v>
+      </c>
+      <c r="B266" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="C266" t="n">
+        <v>2533.42</v>
+      </c>
+      <c r="D266" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E266" t="n">
+        <v>614.76</v>
+      </c>
+      <c r="F266" t="n">
+        <v>299</v>
+      </c>
+      <c r="G266" t="n">
+        <v>562.38</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J266" t="n">
+        <v>3679.9</v>
+      </c>
+      <c r="K266" t="n">
+        <v>2609.9</v>
+      </c>
+      <c r="L266" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M266" t="n">
+        <v>3429.9</v>
+      </c>
+      <c r="N266" t="n">
+        <v>2699.9</v>
+      </c>
+      <c r="O266" t="n">
+        <v>4109.9</v>
+      </c>
+      <c r="P266" t="n">
+        <v>799.9</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>2529.9</v>
+      </c>
+      <c r="R266" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="S266" t="n">
+        <v>3299</v>
+      </c>
+      <c r="T266" t="n">
+        <v>4455</v>
+      </c>
+      <c r="U266" t="n">
+        <v>5667</v>
+      </c>
+      <c r="V266" t="n">
+        <v>2934</v>
+      </c>
+      <c r="W266" t="n">
+        <v>10880.33</v>
+      </c>
+      <c r="X266" t="n">
+        <v>1060.6</v>
+      </c>
+      <c r="Y266" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z266" t="n">
+        <v>412</v>
+      </c>
+      <c r="AA266" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB266" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC266" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AD266" t="n">
+        <v>5799</v>
+      </c>
+      <c r="AE266" t="n">
+        <v>4245</v>
+      </c>
+      <c r="AF266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG266" t="n">
+        <v>1997.5</v>
+      </c>
+      <c r="AH266" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>899</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>599</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AL266" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM266" t="n">
+        <v>1950</v>
+      </c>
+      <c r="AN266" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO266" t="n">
+        <v>369</v>
+      </c>
+      <c r="AP266" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ266" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AR266" t="n">
+        <v>799</v>
+      </c>
+      <c r="AS266" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AT266" t="n">
+        <v>549</v>
+      </c>
+      <c r="AU266" t="n">
+        <v>299</v>
+      </c>
+      <c r="AV266" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW266" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX266" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA266" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BB266" t="n">
+        <v>728.16</v>
+      </c>
+      <c r="BC266" t="n">
+        <v>1193.16</v>
+      </c>
+      <c r="BD266" t="n">
+        <v>489.58</v>
+      </c>
+      <c r="BE266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF266" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG266" t="n">
+        <v>456.17</v>
+      </c>
+      <c r="BH266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI266" t="n">
+        <v>862.88</v>
+      </c>
+      <c r="BJ266" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL266" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM266" t="n">
+        <v>828.46</v>
+      </c>
+      <c r="BN266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>310</v>
+      </c>
+      <c r="B267" s="2" t="n">
+        <v>45268</v>
+      </c>
+      <c r="C267" t="n">
+        <v>2533.42</v>
+      </c>
+      <c r="D267" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E267" t="n">
+        <v>614.76</v>
+      </c>
+      <c r="F267" t="n">
+        <v>299</v>
+      </c>
+      <c r="G267" t="n">
+        <v>562.38</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J267" t="n">
+        <v>3679.9</v>
+      </c>
+      <c r="K267" t="n">
+        <v>2609.9</v>
+      </c>
+      <c r="L267" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M267" t="n">
+        <v>3429.9</v>
+      </c>
+      <c r="N267" t="n">
+        <v>2699.9</v>
+      </c>
+      <c r="O267" t="n">
+        <v>4109.9</v>
+      </c>
+      <c r="P267" t="n">
+        <v>799.9</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>2529.9</v>
+      </c>
+      <c r="R267" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="S267" t="n">
+        <v>2799</v>
+      </c>
+      <c r="T267" t="n">
+        <v>4455</v>
+      </c>
+      <c r="U267" t="n">
+        <v>5667</v>
+      </c>
+      <c r="V267" t="n">
+        <v>2934</v>
+      </c>
+      <c r="W267" t="n">
+        <v>10880.33</v>
+      </c>
+      <c r="X267" t="n">
+        <v>1060.6</v>
+      </c>
+      <c r="Y267" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z267" t="n">
+        <v>412</v>
+      </c>
+      <c r="AA267" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB267" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC267" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AD267" t="n">
+        <v>5799</v>
+      </c>
+      <c r="AE267" t="n">
+        <v>4245</v>
+      </c>
+      <c r="AF267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG267" t="n">
+        <v>1997.5</v>
+      </c>
+      <c r="AH267" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>899</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>599</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AL267" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM267" t="n">
+        <v>1950</v>
+      </c>
+      <c r="AN267" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO267" t="n">
+        <v>369</v>
+      </c>
+      <c r="AP267" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ267" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AR267" t="n">
+        <v>799</v>
+      </c>
+      <c r="AS267" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AT267" t="n">
+        <v>549</v>
+      </c>
+      <c r="AU267" t="n">
+        <v>299</v>
+      </c>
+      <c r="AV267" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW267" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX267" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA267" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BB267" t="n">
+        <v>728.16</v>
+      </c>
+      <c r="BC267" t="n">
+        <v>1193.16</v>
+      </c>
+      <c r="BD267" t="n">
+        <v>489.58</v>
+      </c>
+      <c r="BE267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF267" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG267" t="n">
+        <v>456.17</v>
+      </c>
+      <c r="BH267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI267" t="n">
+        <v>862.88</v>
+      </c>
+      <c r="BJ267" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL267" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM267" t="n">
+        <v>828.46</v>
+      </c>
+      <c r="BN267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>311</v>
+      </c>
+      <c r="B268" s="2" t="n">
+        <v>45269</v>
+      </c>
+      <c r="C268" t="n">
+        <v>2533.42</v>
+      </c>
+      <c r="D268" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E268" t="n">
+        <v>614.76</v>
+      </c>
+      <c r="F268" t="n">
+        <v>374</v>
+      </c>
+      <c r="G268" t="n">
+        <v>562.38</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J268" t="n">
+        <v>3999.9</v>
+      </c>
+      <c r="K268" t="n">
+        <v>2999.9</v>
+      </c>
+      <c r="L268" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M268" t="n">
+        <v>3949.9</v>
+      </c>
+      <c r="N268" t="n">
+        <v>2699.9</v>
+      </c>
+      <c r="O268" t="n">
+        <v>4729.9</v>
+      </c>
+      <c r="P268" t="n">
+        <v>799.9</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>2529.9</v>
+      </c>
+      <c r="R268" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="S268" t="n">
+        <v>2799</v>
+      </c>
+      <c r="T268" t="n">
+        <v>4455</v>
+      </c>
+      <c r="U268" t="n">
+        <v>5667</v>
+      </c>
+      <c r="V268" t="n">
+        <v>2934</v>
+      </c>
+      <c r="W268" t="n">
+        <v>10880.33</v>
+      </c>
+      <c r="X268" t="n">
+        <v>1060.6</v>
+      </c>
+      <c r="Y268" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z268" t="n">
+        <v>412</v>
+      </c>
+      <c r="AA268" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB268" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC268" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AD268" t="n">
+        <v>5799</v>
+      </c>
+      <c r="AE268" t="n">
+        <v>4245</v>
+      </c>
+      <c r="AF268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG268" t="n">
+        <v>1997.5</v>
+      </c>
+      <c r="AH268" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>899</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>599</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AL268" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM268" t="n">
+        <v>1950</v>
+      </c>
+      <c r="AN268" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO268" t="n">
+        <v>369</v>
+      </c>
+      <c r="AP268" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ268" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AR268" t="n">
+        <v>799</v>
+      </c>
+      <c r="AS268" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AT268" t="n">
+        <v>549</v>
+      </c>
+      <c r="AU268" t="n">
+        <v>299</v>
+      </c>
+      <c r="AV268" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW268" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX268" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ268" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA268" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BB268" t="n">
+        <v>728.16</v>
+      </c>
+      <c r="BC268" t="n">
+        <v>1193.16</v>
+      </c>
+      <c r="BD268" t="n">
+        <v>489.58</v>
+      </c>
+      <c r="BE268" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF268" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG268" t="n">
+        <v>456.17</v>
+      </c>
+      <c r="BH268" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI268" t="n">
+        <v>862.88</v>
+      </c>
+      <c r="BJ268" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK268" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL268" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM268" t="n">
+        <v>828.46</v>
+      </c>
+      <c r="BN268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>312</v>
+      </c>
+      <c r="B269" s="2" t="n">
+        <v>45270</v>
+      </c>
+      <c r="C269" t="n">
+        <v>2533.42</v>
+      </c>
+      <c r="D269" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E269" t="n">
+        <v>614.76</v>
+      </c>
+      <c r="F269" t="n">
+        <v>374</v>
+      </c>
+      <c r="G269" t="n">
+        <v>562.38</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J269" t="n">
+        <v>3999.9</v>
+      </c>
+      <c r="K269" t="n">
+        <v>2999.9</v>
+      </c>
+      <c r="L269" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M269" t="n">
+        <v>3949.9</v>
+      </c>
+      <c r="N269" t="n">
+        <v>2699.9</v>
+      </c>
+      <c r="O269" t="n">
+        <v>4729.9</v>
+      </c>
+      <c r="P269" t="n">
+        <v>799.9</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>2529.9</v>
+      </c>
+      <c r="R269" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="S269" t="n">
+        <v>2799</v>
+      </c>
+      <c r="T269" t="n">
+        <v>4455</v>
+      </c>
+      <c r="U269" t="n">
+        <v>5667</v>
+      </c>
+      <c r="V269" t="n">
+        <v>2934</v>
+      </c>
+      <c r="W269" t="n">
+        <v>10880.33</v>
+      </c>
+      <c r="X269" t="n">
+        <v>1060.6</v>
+      </c>
+      <c r="Y269" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z269" t="n">
+        <v>412</v>
+      </c>
+      <c r="AA269" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB269" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC269" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AD269" t="n">
+        <v>5799</v>
+      </c>
+      <c r="AE269" t="n">
+        <v>4245</v>
+      </c>
+      <c r="AF269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG269" t="n">
+        <v>1997.5</v>
+      </c>
+      <c r="AH269" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>899</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>599</v>
+      </c>
+      <c r="AK269" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AL269" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM269" t="n">
+        <v>1950</v>
+      </c>
+      <c r="AN269" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO269" t="n">
+        <v>369</v>
+      </c>
+      <c r="AP269" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ269" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AR269" t="n">
+        <v>799</v>
+      </c>
+      <c r="AS269" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AT269" t="n">
+        <v>549</v>
+      </c>
+      <c r="AU269" t="n">
+        <v>299</v>
+      </c>
+      <c r="AV269" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW269" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX269" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY269" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ269" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA269" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BB269" t="n">
+        <v>728.16</v>
+      </c>
+      <c r="BC269" t="n">
+        <v>1193.16</v>
+      </c>
+      <c r="BD269" t="n">
+        <v>489.58</v>
+      </c>
+      <c r="BE269" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF269" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG269" t="n">
+        <v>456.17</v>
+      </c>
+      <c r="BH269" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI269" t="n">
+        <v>862.88</v>
+      </c>
+      <c r="BJ269" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK269" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL269" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM269" t="n">
+        <v>828.46</v>
+      </c>
+      <c r="BN269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>313</v>
+      </c>
+      <c r="B270" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="C270" t="n">
+        <v>2533.42</v>
+      </c>
+      <c r="D270" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E270" t="n">
+        <v>614.76</v>
+      </c>
+      <c r="F270" t="n">
+        <v>374</v>
+      </c>
+      <c r="G270" t="n">
+        <v>562.38</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J270" t="n">
+        <v>3999.9</v>
+      </c>
+      <c r="K270" t="n">
+        <v>2999.9</v>
+      </c>
+      <c r="L270" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M270" t="n">
+        <v>3949.9</v>
+      </c>
+      <c r="N270" t="n">
+        <v>3749.9</v>
+      </c>
+      <c r="O270" t="n">
+        <v>4729.9</v>
+      </c>
+      <c r="P270" t="n">
+        <v>959.9</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>2919.9</v>
+      </c>
+      <c r="R270" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="S270" t="n">
+        <v>3299</v>
+      </c>
+      <c r="T270" t="n">
+        <v>3789</v>
+      </c>
+      <c r="U270" t="n">
+        <v>6559</v>
+      </c>
+      <c r="V270" t="n">
+        <v>2490</v>
+      </c>
+      <c r="W270" t="n">
+        <v>10880.33</v>
+      </c>
+      <c r="X270" t="n">
+        <v>1060.6</v>
+      </c>
+      <c r="Y270" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z270" t="n">
+        <v>412</v>
+      </c>
+      <c r="AA270" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB270" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC270" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD270" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE270" t="n">
+        <v>4245</v>
+      </c>
+      <c r="AF270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG270" t="n">
+        <v>1997.5</v>
+      </c>
+      <c r="AH270" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>899</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>599</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AL270" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM270" t="n">
+        <v>1950</v>
+      </c>
+      <c r="AN270" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO270" t="n">
+        <v>369</v>
+      </c>
+      <c r="AP270" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ270" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AR270" t="n">
+        <v>799</v>
+      </c>
+      <c r="AS270" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AT270" t="n">
+        <v>549</v>
+      </c>
+      <c r="AU270" t="n">
+        <v>299</v>
+      </c>
+      <c r="AV270" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW270" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX270" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ270" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA270" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BB270" t="n">
+        <v>728.16</v>
+      </c>
+      <c r="BC270" t="n">
+        <v>1193.16</v>
+      </c>
+      <c r="BD270" t="n">
+        <v>489.58</v>
+      </c>
+      <c r="BE270" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF270" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG270" t="n">
+        <v>456.17</v>
+      </c>
+      <c r="BH270" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI270" t="n">
+        <v>862.88</v>
+      </c>
+      <c r="BJ270" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK270" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL270" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM270" t="n">
+        <v>828.46</v>
+      </c>
+      <c r="BN270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>314</v>
+      </c>
+      <c r="B271" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="C271" t="n">
+        <v>2533.42</v>
+      </c>
+      <c r="D271" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E271" t="n">
+        <v>614.76</v>
+      </c>
+      <c r="F271" t="n">
+        <v>374</v>
+      </c>
+      <c r="G271" t="n">
+        <v>562.38</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J271" t="n">
+        <v>3999.9</v>
+      </c>
+      <c r="K271" t="n">
+        <v>2999.9</v>
+      </c>
+      <c r="L271" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M271" t="n">
+        <v>3949.9</v>
+      </c>
+      <c r="N271" t="n">
+        <v>3749.9</v>
+      </c>
+      <c r="O271" t="n">
+        <v>4729.9</v>
+      </c>
+      <c r="P271" t="n">
+        <v>959.9</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>2919.9</v>
+      </c>
+      <c r="R271" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="S271" t="n">
+        <v>3299</v>
+      </c>
+      <c r="T271" t="n">
+        <v>3789</v>
+      </c>
+      <c r="U271" t="n">
+        <v>6559</v>
+      </c>
+      <c r="V271" t="n">
+        <v>2490</v>
+      </c>
+      <c r="W271" t="n">
+        <v>12593.33</v>
+      </c>
+      <c r="X271" t="n">
+        <v>1060.6</v>
+      </c>
+      <c r="Y271" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z271" t="n">
+        <v>412</v>
+      </c>
+      <c r="AA271" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB271" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC271" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD271" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE271" t="n">
+        <v>4245</v>
+      </c>
+      <c r="AF271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG271" t="n">
+        <v>1997.5</v>
+      </c>
+      <c r="AH271" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>899</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>599</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AL271" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM271" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN271" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO271" t="n">
+        <v>369</v>
+      </c>
+      <c r="AP271" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ271" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AR271" t="n">
+        <v>799</v>
+      </c>
+      <c r="AS271" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AT271" t="n">
+        <v>690</v>
+      </c>
+      <c r="AU271" t="n">
+        <v>349</v>
+      </c>
+      <c r="AV271" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW271" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX271" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ271" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA271" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BB271" t="n">
+        <v>728.16</v>
+      </c>
+      <c r="BC271" t="n">
+        <v>1193.16</v>
+      </c>
+      <c r="BD271" t="n">
+        <v>489.58</v>
+      </c>
+      <c r="BE271" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF271" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG271" t="n">
+        <v>456.17</v>
+      </c>
+      <c r="BH271" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI271" t="n">
+        <v>1083</v>
+      </c>
+      <c r="BJ271" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK271" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL271" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM271" t="n">
+        <v>828.46</v>
+      </c>
+      <c r="BN271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>319</v>
+      </c>
+      <c r="B272" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="C272" t="n">
+        <v>2533.42</v>
+      </c>
+      <c r="D272" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E272" t="n">
+        <v>614.76</v>
+      </c>
+      <c r="F272" t="n">
+        <v>374</v>
+      </c>
+      <c r="G272" t="n">
+        <v>562.38</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J272" t="n">
+        <v>3999.9</v>
+      </c>
+      <c r="K272" t="n">
+        <v>2999.9</v>
+      </c>
+      <c r="L272" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M272" t="n">
+        <v>3949.9</v>
+      </c>
+      <c r="N272" t="n">
+        <v>3749.9</v>
+      </c>
+      <c r="O272" t="n">
+        <v>4729.9</v>
+      </c>
+      <c r="P272" t="n">
+        <v>959.9</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>2919.9</v>
+      </c>
+      <c r="R272" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="S272" t="n">
+        <v>3399</v>
+      </c>
+      <c r="T272" t="n">
+        <v>3789</v>
+      </c>
+      <c r="U272" t="n">
+        <v>6559</v>
+      </c>
+      <c r="V272" t="n">
+        <v>2490</v>
+      </c>
+      <c r="W272" t="n">
+        <v>12593.33</v>
+      </c>
+      <c r="X272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y272" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z272" t="n">
+        <v>412</v>
+      </c>
+      <c r="AA272" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC272" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD272" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE272" t="n">
+        <v>4245</v>
+      </c>
+      <c r="AF272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG272" t="n">
+        <v>1997.5</v>
+      </c>
+      <c r="AH272" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>899</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>599</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AL272" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM272" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN272" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO272" t="n">
+        <v>369</v>
+      </c>
+      <c r="AP272" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ272" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AR272" t="n">
+        <v>799</v>
+      </c>
+      <c r="AS272" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AT272" t="n">
+        <v>690</v>
+      </c>
+      <c r="AU272" t="n">
+        <v>349</v>
+      </c>
+      <c r="AV272" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW272" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX272" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ272" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA272" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BB272" t="n">
+        <v>728.16</v>
+      </c>
+      <c r="BC272" t="n">
+        <v>1193.16</v>
+      </c>
+      <c r="BD272" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE272" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF272" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG272" t="n">
+        <v>456.17</v>
+      </c>
+      <c r="BH272" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI272" t="n">
+        <v>1083</v>
+      </c>
+      <c r="BJ272" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK272" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL272" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM272" t="n">
+        <v>828.46</v>
+      </c>
+      <c r="BN272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>320</v>
+      </c>
+      <c r="B273" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="C273" t="n">
+        <v>2533.42</v>
+      </c>
+      <c r="D273" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E273" t="n">
+        <v>767.99</v>
+      </c>
+      <c r="F273" t="n">
+        <v>374</v>
+      </c>
+      <c r="G273" t="n">
+        <v>562.38</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J273" t="n">
+        <v>3999.9</v>
+      </c>
+      <c r="K273" t="n">
+        <v>2999.9</v>
+      </c>
+      <c r="L273" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M273" t="n">
+        <v>3949.9</v>
+      </c>
+      <c r="N273" t="n">
+        <v>3749.9</v>
+      </c>
+      <c r="O273" t="n">
+        <v>4729.9</v>
+      </c>
+      <c r="P273" t="n">
+        <v>959.9</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>2919.9</v>
+      </c>
+      <c r="R273" t="n">
+        <v>1349.9</v>
+      </c>
+      <c r="S273" t="n">
+        <v>3399</v>
+      </c>
+      <c r="T273" t="n">
+        <v>3789</v>
+      </c>
+      <c r="U273" t="n">
+        <v>6559</v>
+      </c>
+      <c r="V273" t="n">
+        <v>2490</v>
+      </c>
+      <c r="W273" t="n">
+        <v>12593.33</v>
+      </c>
+      <c r="X273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y273" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z273" t="n">
+        <v>412</v>
+      </c>
+      <c r="AA273" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB273" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC273" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD273" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE273" t="n">
+        <v>4245</v>
+      </c>
+      <c r="AF273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG273" t="n">
+        <v>1997.5</v>
+      </c>
+      <c r="AH273" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>949</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>599</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>1690</v>
+      </c>
+      <c r="AL273" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM273" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN273" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO273" t="n">
+        <v>399</v>
+      </c>
+      <c r="AP273" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ273" t="n">
+        <v>2199</v>
+      </c>
+      <c r="AR273" t="n">
+        <v>799</v>
+      </c>
+      <c r="AS273" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AT273" t="n">
+        <v>690</v>
+      </c>
+      <c r="AU273" t="n">
+        <v>349</v>
+      </c>
+      <c r="AV273" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW273" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX273" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA273" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BB273" t="n">
+        <v>728.16</v>
+      </c>
+      <c r="BC273" t="n">
+        <v>1491.46</v>
+      </c>
+      <c r="BD273" t="n">
+        <v>489.58</v>
+      </c>
+      <c r="BE273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF273" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG273" t="n">
+        <v>456.17</v>
+      </c>
+      <c r="BH273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI273" t="n">
+        <v>1083</v>
+      </c>
+      <c r="BJ273" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL273" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM273" t="n">
+        <v>828.46</v>
+      </c>
+      <c r="BN273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>321</v>
+      </c>
+      <c r="B274" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="C274" t="n">
+        <v>2533.42</v>
+      </c>
+      <c r="D274" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E274" t="n">
+        <v>767.99</v>
+      </c>
+      <c r="F274" t="n">
+        <v>374</v>
+      </c>
+      <c r="G274" t="n">
+        <v>562.38</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J274" t="n">
+        <v>3999.9</v>
+      </c>
+      <c r="K274" t="n">
+        <v>2999.9</v>
+      </c>
+      <c r="L274" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M274" t="n">
+        <v>3949.9</v>
+      </c>
+      <c r="N274" t="n">
+        <v>3749.9</v>
+      </c>
+      <c r="O274" t="n">
+        <v>4729.9</v>
+      </c>
+      <c r="P274" t="n">
+        <v>959.9</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R274" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="S274" t="n">
+        <v>2899</v>
+      </c>
+      <c r="T274" t="n">
+        <v>3789</v>
+      </c>
+      <c r="U274" t="n">
+        <v>6559</v>
+      </c>
+      <c r="V274" t="n">
+        <v>2490</v>
+      </c>
+      <c r="W274" t="n">
+        <v>12593.33</v>
+      </c>
+      <c r="X274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>449</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>4245</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>2247.5</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>949</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>599</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>1690</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>399</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>2199</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>799</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>690</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>349</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>728.16</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>1491.46</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>489.58</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>456.17</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>1191</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL274" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM274" t="n">
+        <v>828.46</v>
+      </c>
+      <c r="BN274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>322</v>
+      </c>
+      <c r="B275" s="2" t="n">
+        <v>45276</v>
+      </c>
+      <c r="C275" t="n">
+        <v>2533.42</v>
+      </c>
+      <c r="D275" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E275" t="n">
+        <v>767.99</v>
+      </c>
+      <c r="F275" t="n">
+        <v>374</v>
+      </c>
+      <c r="G275" t="n">
+        <v>562.38</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J275" t="n">
+        <v>4599.9</v>
+      </c>
+      <c r="K275" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="L275" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M275" t="n">
+        <v>4999.9</v>
+      </c>
+      <c r="N275" t="n">
+        <v>4319.9</v>
+      </c>
+      <c r="O275" t="n">
+        <v>5439.9</v>
+      </c>
+      <c r="P275" t="n">
+        <v>959.9</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R275" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="S275" t="n">
+        <v>2899</v>
+      </c>
+      <c r="T275" t="n">
+        <v>3789</v>
+      </c>
+      <c r="U275" t="n">
+        <v>6559</v>
+      </c>
+      <c r="V275" t="n">
+        <v>2490</v>
+      </c>
+      <c r="W275" t="n">
+        <v>12593.33</v>
+      </c>
+      <c r="X275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>449</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>4245</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>2247.5</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>949</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>599</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>1690</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>399</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>2199</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>799</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>590</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>399</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>728.16</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>1491.46</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>489.58</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>456.17</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>1191</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL275" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM275" t="n">
+        <v>828.46</v>
+      </c>
+      <c r="BN275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>323</v>
+      </c>
+      <c r="B276" s="2" t="n">
+        <v>45277</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2533.42</v>
+      </c>
+      <c r="D276" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E276" t="n">
+        <v>767.99</v>
+      </c>
+      <c r="F276" t="n">
+        <v>374</v>
+      </c>
+      <c r="G276" t="n">
+        <v>562.38</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J276" t="n">
+        <v>4599.9</v>
+      </c>
+      <c r="K276" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="L276" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M276" t="n">
+        <v>4999.9</v>
+      </c>
+      <c r="N276" t="n">
+        <v>4319.9</v>
+      </c>
+      <c r="O276" t="n">
+        <v>5439.9</v>
+      </c>
+      <c r="P276" t="n">
+        <v>959.9</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R276" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="S276" t="n">
+        <v>2899</v>
+      </c>
+      <c r="T276" t="n">
+        <v>3789</v>
+      </c>
+      <c r="U276" t="n">
+        <v>6559</v>
+      </c>
+      <c r="V276" t="n">
+        <v>2490</v>
+      </c>
+      <c r="W276" t="n">
+        <v>12593.33</v>
+      </c>
+      <c r="X276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>449</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>4245</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>2247.5</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>949</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>599</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>1690</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>399</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>2199</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>799</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>590</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>399</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>728.16</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>1491.46</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>489.58</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>456.17</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>1191</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL276" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM276" t="n">
+        <v>828.46</v>
+      </c>
+      <c r="BN276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>324</v>
+      </c>
+      <c r="B277" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C277" t="n">
+        <v>2533.42</v>
+      </c>
+      <c r="D277" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E277" t="n">
+        <v>767.99</v>
+      </c>
+      <c r="F277" t="n">
+        <v>374</v>
+      </c>
+      <c r="G277" t="n">
+        <v>562.38</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J277" t="n">
+        <v>4599.9</v>
+      </c>
+      <c r="K277" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="L277" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M277" t="n">
+        <v>4999.9</v>
+      </c>
+      <c r="N277" t="n">
+        <v>4319.9</v>
+      </c>
+      <c r="O277" t="n">
+        <v>5439.9</v>
+      </c>
+      <c r="P277" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>3399.9</v>
+      </c>
+      <c r="R277" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="S277" t="n">
+        <v>3399</v>
+      </c>
+      <c r="T277" t="n">
+        <v>5120</v>
+      </c>
+      <c r="U277" t="n">
+        <v>6559</v>
+      </c>
+      <c r="V277" t="n">
+        <v>3325</v>
+      </c>
+      <c r="W277" t="n">
+        <v>12593.33</v>
+      </c>
+      <c r="X277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>449</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>4245</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>2247.5</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>949</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>849</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>1690</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>799</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>449</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>2199</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>899</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>590</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>399</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>728.16</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>1491.46</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>489.58</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>456.17</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>1191</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL277" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM277" t="n">
+        <v>828.46</v>
+      </c>
+      <c r="BN277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>325</v>
+      </c>
+      <c r="B278" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2533.42</v>
+      </c>
+      <c r="D278" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E278" t="n">
+        <v>767.99</v>
+      </c>
+      <c r="F278" t="n">
+        <v>374</v>
+      </c>
+      <c r="G278" t="n">
+        <v>562.38</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J278" t="n">
+        <v>4599.9</v>
+      </c>
+      <c r="K278" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="L278" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M278" t="n">
+        <v>4999.9</v>
+      </c>
+      <c r="N278" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="O278" t="n">
+        <v>5439.9</v>
+      </c>
+      <c r="P278" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="Q278" t="n">
+        <v>3399.9</v>
+      </c>
+      <c r="R278" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="S278" t="n">
+        <v>3499</v>
+      </c>
+      <c r="T278" t="n">
+        <v>5120</v>
+      </c>
+      <c r="U278" t="n">
+        <v>7870</v>
+      </c>
+      <c r="V278" t="n">
+        <v>3540</v>
+      </c>
+      <c r="W278" t="n">
+        <v>12593.33</v>
+      </c>
+      <c r="X278" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>449</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>4245</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>2247.5</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>949</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>929</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>1690</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>799</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>499</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>2199</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>949</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>690</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>399</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>728.16</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>1491.46</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>510.41</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>456.17</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>1310</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK278" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL278" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM278" t="n">
+        <v>828.46</v>
+      </c>
+      <c r="BN278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>326</v>
+      </c>
+      <c r="B279" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="C279" t="n">
+        <v>2533.42</v>
+      </c>
+      <c r="D279" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E279" t="n">
+        <v>767.99</v>
+      </c>
+      <c r="F279" t="n">
+        <v>374</v>
+      </c>
+      <c r="G279" t="n">
+        <v>703.8</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J279" t="n">
+        <v>4599.9</v>
+      </c>
+      <c r="K279" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="L279" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M279" t="n">
+        <v>4999.9</v>
+      </c>
+      <c r="N279" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="O279" t="n">
+        <v>5439.9</v>
+      </c>
+      <c r="P279" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>3399.9</v>
+      </c>
+      <c r="R279" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="S279" t="n">
+        <v>3499</v>
+      </c>
+      <c r="T279" t="n">
+        <v>5120</v>
+      </c>
+      <c r="U279" t="n">
+        <v>7870</v>
+      </c>
+      <c r="V279" t="n">
+        <v>4070</v>
+      </c>
+      <c r="W279" t="n">
+        <v>12593.33</v>
+      </c>
+      <c r="X279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>469</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>4995</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>2497.5</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>949</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>929</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>799</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>549</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>2199</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>999</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>1699</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>690</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>399</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ279" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>728.16</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>1491.46</v>
+      </c>
+      <c r="BD279" t="n">
+        <v>510.41</v>
+      </c>
+      <c r="BE279" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF279" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>527.78</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>1310</v>
+      </c>
+      <c r="BJ279" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK279" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL279" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM279" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BN279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>327</v>
+      </c>
+      <c r="B280" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="C280" t="n">
+        <v>2533.42</v>
+      </c>
+      <c r="D280" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E280" t="n">
+        <v>767.99</v>
+      </c>
+      <c r="F280" t="n">
+        <v>374</v>
+      </c>
+      <c r="G280" t="n">
+        <v>703.8</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J280" t="n">
+        <v>4599.9</v>
+      </c>
+      <c r="K280" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="L280" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M280" t="n">
+        <v>4999.9</v>
+      </c>
+      <c r="N280" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="O280" t="n">
+        <v>5439.9</v>
+      </c>
+      <c r="P280" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="Q280" t="n">
+        <v>3399.9</v>
+      </c>
+      <c r="R280" t="n">
+        <v>1499.9</v>
+      </c>
+      <c r="S280" t="n">
+        <v>3499</v>
+      </c>
+      <c r="T280" t="n">
+        <v>6145</v>
+      </c>
+      <c r="U280" t="n">
+        <v>7870</v>
+      </c>
+      <c r="V280" t="n">
+        <v>4070</v>
+      </c>
+      <c r="W280" t="n">
+        <v>15106.66</v>
+      </c>
+      <c r="X280" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>519</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>4995</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>2747.5</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>949</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>929</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AL280" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>799</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>549</v>
+      </c>
+      <c r="AP280" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ280" t="n">
+        <v>2249</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>999</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>690</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>399</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW280" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX280" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ280" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA280" t="n">
+        <v>2035</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>728.16</v>
+      </c>
+      <c r="BC280" t="n">
+        <v>1491.46</v>
+      </c>
+      <c r="BD280" t="n">
+        <v>510.41</v>
+      </c>
+      <c r="BE280" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF280" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG280" t="n">
+        <v>527.78</v>
+      </c>
+      <c r="BH280" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI280" t="n">
+        <v>1441</v>
+      </c>
+      <c r="BJ280" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK280" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL280" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM280" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BN280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>328</v>
+      </c>
+      <c r="B281" s="2" t="n">
+        <v>45282</v>
+      </c>
+      <c r="C281" t="n">
+        <v>2942.71</v>
+      </c>
+      <c r="D281" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E281" t="n">
+        <v>767.99</v>
+      </c>
+      <c r="F281" t="n">
+        <v>374</v>
+      </c>
+      <c r="G281" t="n">
+        <v>703.8</v>
+      </c>
+      <c r="H281" t="n">
+        <v>1460</v>
+      </c>
+      <c r="I281" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J281" t="n">
+        <v>4599.9</v>
+      </c>
+      <c r="K281" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="L281" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M281" t="n">
+        <v>4999.9</v>
+      </c>
+      <c r="N281" t="n">
+        <v>4319.9</v>
+      </c>
+      <c r="O281" t="n">
+        <v>5439.9</v>
+      </c>
+      <c r="P281" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="Q281" t="n">
+        <v>3399.9</v>
+      </c>
+      <c r="R281" t="n">
+        <v>1699.9</v>
+      </c>
+      <c r="S281" t="n">
+        <v>3499</v>
+      </c>
+      <c r="T281" t="n">
+        <v>6145</v>
+      </c>
+      <c r="U281" t="n">
+        <v>7870</v>
+      </c>
+      <c r="V281" t="n">
+        <v>4070</v>
+      </c>
+      <c r="W281" t="n">
+        <v>15106.66</v>
+      </c>
+      <c r="X281" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>519</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>4995</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>2747.5</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>849</v>
+      </c>
+      <c r="AJ281" t="n">
+        <v>929</v>
+      </c>
+      <c r="AK281" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AL281" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>549</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR281" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>690</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>399</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW281" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX281" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY281" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ281" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA281" t="n">
+        <v>2545.23</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>984</v>
+      </c>
+      <c r="BC281" t="n">
+        <v>1730.52</v>
+      </c>
+      <c r="BD281" t="n">
+        <v>510.41</v>
+      </c>
+      <c r="BE281" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF281" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG281" t="n">
+        <v>527.78</v>
+      </c>
+      <c r="BH281" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI281" t="n">
+        <v>1441</v>
+      </c>
+      <c r="BJ281" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK281" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL281" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM281" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BN281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>329</v>
+      </c>
+      <c r="B282" s="2" t="n">
+        <v>45283</v>
+      </c>
+      <c r="C282" t="n">
+        <v>2942.71</v>
+      </c>
+      <c r="D282" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E282" t="n">
+        <v>767.99</v>
+      </c>
+      <c r="F282" t="n">
+        <v>374</v>
+      </c>
+      <c r="G282" t="n">
+        <v>703.8</v>
+      </c>
+      <c r="H282" t="n">
+        <v>1460</v>
+      </c>
+      <c r="I282" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J282" t="n">
+        <v>4599.9</v>
+      </c>
+      <c r="K282" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="L282" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M282" t="n">
+        <v>4999.9</v>
+      </c>
+      <c r="N282" t="n">
+        <v>4319.9</v>
+      </c>
+      <c r="O282" t="n">
+        <v>5439.9</v>
+      </c>
+      <c r="P282" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="Q282" t="n">
+        <v>3399.9</v>
+      </c>
+      <c r="R282" t="n">
+        <v>1699.9</v>
+      </c>
+      <c r="S282" t="n">
+        <v>3499</v>
+      </c>
+      <c r="T282" t="n">
+        <v>6145</v>
+      </c>
+      <c r="U282" t="n">
+        <v>7870</v>
+      </c>
+      <c r="V282" t="n">
+        <v>4070</v>
+      </c>
+      <c r="W282" t="n">
+        <v>15106.66</v>
+      </c>
+      <c r="X282" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>519</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>4995</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>2747.5</v>
+      </c>
+      <c r="AH282" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI282" t="n">
+        <v>849</v>
+      </c>
+      <c r="AJ282" t="n">
+        <v>929</v>
+      </c>
+      <c r="AK282" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AL282" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM282" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN282" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>549</v>
+      </c>
+      <c r="AP282" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ282" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR282" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>949</v>
+      </c>
+      <c r="AT282" t="n">
+        <v>690</v>
+      </c>
+      <c r="AU282" t="n">
+        <v>399</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX282" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY282" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ282" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA282" t="n">
+        <v>2545.23</v>
+      </c>
+      <c r="BB282" t="n">
+        <v>984</v>
+      </c>
+      <c r="BC282" t="n">
+        <v>1730.52</v>
+      </c>
+      <c r="BD282" t="n">
+        <v>510.41</v>
+      </c>
+      <c r="BE282" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF282" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG282" t="n">
+        <v>527.78</v>
+      </c>
+      <c r="BH282" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI282" t="n">
+        <v>1441</v>
+      </c>
+      <c r="BJ282" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK282" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL282" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM282" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BN282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>330</v>
+      </c>
+      <c r="B283" s="2" t="n">
+        <v>45284</v>
+      </c>
+      <c r="C283" t="n">
+        <v>2942.71</v>
+      </c>
+      <c r="D283" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E283" t="n">
+        <v>767.99</v>
+      </c>
+      <c r="F283" t="n">
+        <v>374</v>
+      </c>
+      <c r="G283" t="n">
+        <v>703.8</v>
+      </c>
+      <c r="H283" t="n">
+        <v>1460</v>
+      </c>
+      <c r="I283" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J283" t="n">
+        <v>4599.9</v>
+      </c>
+      <c r="K283" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="L283" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M283" t="n">
+        <v>4999.9</v>
+      </c>
+      <c r="N283" t="n">
+        <v>4319.9</v>
+      </c>
+      <c r="O283" t="n">
+        <v>5439.9</v>
+      </c>
+      <c r="P283" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="Q283" t="n">
+        <v>3399.9</v>
+      </c>
+      <c r="R283" t="n">
+        <v>1699.9</v>
+      </c>
+      <c r="S283" t="n">
+        <v>3499</v>
+      </c>
+      <c r="T283" t="n">
+        <v>6145</v>
+      </c>
+      <c r="U283" t="n">
+        <v>7870</v>
+      </c>
+      <c r="V283" t="n">
+        <v>4070</v>
+      </c>
+      <c r="W283" t="n">
+        <v>15106.66</v>
+      </c>
+      <c r="X283" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>519</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>4995</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>2747.5</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>849</v>
+      </c>
+      <c r="AJ283" t="n">
+        <v>929</v>
+      </c>
+      <c r="AK283" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>549</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>949</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>690</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>399</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ283" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA283" t="n">
+        <v>2545.23</v>
+      </c>
+      <c r="BB283" t="n">
+        <v>984</v>
+      </c>
+      <c r="BC283" t="n">
+        <v>1730.52</v>
+      </c>
+      <c r="BD283" t="n">
+        <v>510.41</v>
+      </c>
+      <c r="BE283" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF283" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG283" t="n">
+        <v>527.78</v>
+      </c>
+      <c r="BH283" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI283" t="n">
+        <v>1441</v>
+      </c>
+      <c r="BJ283" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK283" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL283" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM283" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BN283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>331</v>
+      </c>
+      <c r="B284" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="C284" t="n">
+        <v>2942.71</v>
+      </c>
+      <c r="D284" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E284" t="n">
+        <v>767.99</v>
+      </c>
+      <c r="F284" t="n">
+        <v>374</v>
+      </c>
+      <c r="G284" t="n">
+        <v>703.8</v>
+      </c>
+      <c r="H284" t="n">
+        <v>1460</v>
+      </c>
+      <c r="I284" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J284" t="n">
+        <v>4599.9</v>
+      </c>
+      <c r="K284" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="L284" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M284" t="n">
+        <v>4999.9</v>
+      </c>
+      <c r="N284" t="n">
+        <v>4319.9</v>
+      </c>
+      <c r="O284" t="n">
+        <v>5439.9</v>
+      </c>
+      <c r="P284" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="Q284" t="n">
+        <v>3399.9</v>
+      </c>
+      <c r="R284" t="n">
+        <v>1699.9</v>
+      </c>
+      <c r="S284" t="n">
+        <v>3499</v>
+      </c>
+      <c r="T284" t="n">
+        <v>6145</v>
+      </c>
+      <c r="U284" t="n">
+        <v>7870</v>
+      </c>
+      <c r="V284" t="n">
+        <v>4070</v>
+      </c>
+      <c r="W284" t="n">
+        <v>15106.66</v>
+      </c>
+      <c r="X284" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>519</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>4995</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>2747.5</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>849</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>929</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>549</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>949</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>690</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>399</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ284" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA284" t="n">
+        <v>2545.23</v>
+      </c>
+      <c r="BB284" t="n">
+        <v>984</v>
+      </c>
+      <c r="BC284" t="n">
+        <v>1730.52</v>
+      </c>
+      <c r="BD284" t="n">
+        <v>510.41</v>
+      </c>
+      <c r="BE284" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF284" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG284" t="n">
+        <v>527.78</v>
+      </c>
+      <c r="BH284" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI284" t="n">
+        <v>1441</v>
+      </c>
+      <c r="BJ284" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK284" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL284" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM284" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BN284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>332</v>
+      </c>
+      <c r="B285" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="C285" t="n">
+        <v>2942.71</v>
+      </c>
+      <c r="D285" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E285" t="n">
+        <v>767.99</v>
+      </c>
+      <c r="F285" t="n">
+        <v>374</v>
+      </c>
+      <c r="G285" t="n">
+        <v>703.8</v>
+      </c>
+      <c r="H285" t="n">
+        <v>1460</v>
+      </c>
+      <c r="I285" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J285" t="n">
+        <v>4599.9</v>
+      </c>
+      <c r="K285" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="L285" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M285" t="n">
+        <v>4999.9</v>
+      </c>
+      <c r="N285" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="O285" t="n">
+        <v>5439.9</v>
+      </c>
+      <c r="P285" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="Q285" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R285" t="n">
+        <v>1699.9</v>
+      </c>
+      <c r="S285" t="n">
+        <v>3499</v>
+      </c>
+      <c r="T285" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U285" t="n">
+        <v>7870</v>
+      </c>
+      <c r="V285" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W285" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X285" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>519</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>4995</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>2747.5</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI285" t="n">
+        <v>949</v>
+      </c>
+      <c r="AJ285" t="n">
+        <v>929</v>
+      </c>
+      <c r="AK285" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AL285" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM285" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN285" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>549</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>949</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>690</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>399</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX285" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ285" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA285" t="n">
+        <v>3178.57</v>
+      </c>
+      <c r="BB285" t="n">
+        <v>984</v>
+      </c>
+      <c r="BC285" t="n">
+        <v>1730.52</v>
+      </c>
+      <c r="BD285" t="n">
+        <v>510.41</v>
+      </c>
+      <c r="BE285" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF285" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG285" t="n">
+        <v>527.78</v>
+      </c>
+      <c r="BH285" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI285" t="n">
+        <v>1596</v>
+      </c>
+      <c r="BJ285" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK285" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL285" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM285" t="n">
+        <v>1200</v>
+      </c>
+      <c r="BN285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>333</v>
+      </c>
+      <c r="B286" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="C286" t="n">
+        <v>2942.71</v>
+      </c>
+      <c r="D286" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E286" t="n">
+        <v>767.99</v>
+      </c>
+      <c r="F286" t="n">
+        <v>374</v>
+      </c>
+      <c r="G286" t="n">
+        <v>703.8</v>
+      </c>
+      <c r="H286" t="n">
+        <v>1460</v>
+      </c>
+      <c r="I286" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J286" t="n">
+        <v>4599.9</v>
+      </c>
+      <c r="K286" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="L286" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M286" t="n">
+        <v>4999.9</v>
+      </c>
+      <c r="N286" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="O286" t="n">
+        <v>5439.9</v>
+      </c>
+      <c r="P286" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="Q286" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R286" t="n">
+        <v>1699.9</v>
+      </c>
+      <c r="S286" t="n">
+        <v>3499</v>
+      </c>
+      <c r="T286" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U286" t="n">
+        <v>7870</v>
+      </c>
+      <c r="V286" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W286" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X286" t="n">
+        <v>1508.88</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>519</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>4995</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>1176.72</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>3247.5</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI286" t="n">
+        <v>949</v>
+      </c>
+      <c r="AJ286" t="n">
+        <v>929</v>
+      </c>
+      <c r="AK286" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AL286" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM286" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN286" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO286" t="n">
+        <v>569</v>
+      </c>
+      <c r="AP286" t="n">
+        <v>369</v>
+      </c>
+      <c r="AQ286" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>949</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>690</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>399</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>1346.66</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ286" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BA286" t="n">
+        <v>3178.57</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>984</v>
+      </c>
+      <c r="BC286" t="n">
+        <v>1730.52</v>
+      </c>
+      <c r="BD286" t="n">
+        <v>510.41</v>
+      </c>
+      <c r="BE286" t="n">
+        <v>3813.33</v>
+      </c>
+      <c r="BF286" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG286" t="n">
+        <v>527.78</v>
+      </c>
+      <c r="BH286" t="n">
+        <v>400</v>
+      </c>
+      <c r="BI286" t="n">
+        <v>1596</v>
+      </c>
+      <c r="BJ286" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK286" t="n">
+        <v>17986.82</v>
+      </c>
+      <c r="BL286" t="n">
+        <v>1807.99</v>
+      </c>
+      <c r="BM286" t="n">
+        <v>1890</v>
+      </c>
+      <c r="BN286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>334</v>
+      </c>
+      <c r="B287" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2942.71</v>
+      </c>
+      <c r="D287" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E287" t="n">
+        <v>767.99</v>
+      </c>
+      <c r="F287" t="n">
+        <v>374</v>
+      </c>
+      <c r="G287" t="n">
+        <v>703.8</v>
+      </c>
+      <c r="H287" t="n">
+        <v>1460</v>
+      </c>
+      <c r="I287" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J287" t="n">
+        <v>4599.9</v>
+      </c>
+      <c r="K287" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="L287" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M287" t="n">
+        <v>4999.9</v>
+      </c>
+      <c r="N287" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="O287" t="n">
+        <v>5439.9</v>
+      </c>
+      <c r="P287" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="Q287" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R287" t="n">
+        <v>1699.9</v>
+      </c>
+      <c r="S287" t="n">
+        <v>3499</v>
+      </c>
+      <c r="T287" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U287" t="n">
+        <v>7870</v>
+      </c>
+      <c r="V287" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W287" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X287" t="n">
+        <v>1508.88</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>519</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>4995</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>1176.72</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>3247.5</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>999</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>929</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>1699</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>569</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>419</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>899</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>690</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>399</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>1346.66</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BA287" t="n">
+        <v>3178.57</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>984</v>
+      </c>
+      <c r="BC287" t="n">
+        <v>1730.52</v>
+      </c>
+      <c r="BD287" t="n">
+        <v>510.41</v>
+      </c>
+      <c r="BE287" t="n">
+        <v>3813.33</v>
+      </c>
+      <c r="BF287" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG287" t="n">
+        <v>694.45</v>
+      </c>
+      <c r="BH287" t="n">
+        <v>400</v>
+      </c>
+      <c r="BI287" t="n">
+        <v>1596</v>
+      </c>
+      <c r="BJ287" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK287" t="n">
+        <v>17986.82</v>
+      </c>
+      <c r="BL287" t="n">
+        <v>1807.99</v>
+      </c>
+      <c r="BM287" t="n">
+        <v>1890</v>
+      </c>
+      <c r="BN287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>335</v>
+      </c>
+      <c r="B288" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="C288" t="n">
+        <v>2942.71</v>
+      </c>
+      <c r="D288" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E288" t="n">
+        <v>767.99</v>
+      </c>
+      <c r="F288" t="n">
+        <v>374</v>
+      </c>
+      <c r="G288" t="n">
+        <v>703.8</v>
+      </c>
+      <c r="H288" t="n">
+        <v>1460</v>
+      </c>
+      <c r="I288" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J288" t="n">
+        <v>4599.9</v>
+      </c>
+      <c r="K288" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="L288" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M288" t="n">
+        <v>4999.9</v>
+      </c>
+      <c r="N288" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="O288" t="n">
+        <v>5439.9</v>
+      </c>
+      <c r="P288" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="Q288" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R288" t="n">
+        <v>1699.9</v>
+      </c>
+      <c r="S288" t="n">
+        <v>3499</v>
+      </c>
+      <c r="T288" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U288" t="n">
+        <v>7870</v>
+      </c>
+      <c r="V288" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W288" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X288" t="n">
+        <v>1508.88</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>519</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE288" t="n">
+        <v>4995</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>1176.72</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>3247.5</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI288" t="n">
+        <v>999</v>
+      </c>
+      <c r="AJ288" t="n">
+        <v>929</v>
+      </c>
+      <c r="AK288" t="n">
+        <v>1699</v>
+      </c>
+      <c r="AL288" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM288" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN288" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO288" t="n">
+        <v>569</v>
+      </c>
+      <c r="AP288" t="n">
+        <v>419</v>
+      </c>
+      <c r="AQ288" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR288" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AS288" t="n">
+        <v>899</v>
+      </c>
+      <c r="AT288" t="n">
+        <v>690</v>
+      </c>
+      <c r="AU288" t="n">
+        <v>399</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW288" t="n">
+        <v>1346.66</v>
+      </c>
+      <c r="AX288" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY288" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ288" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BA288" t="n">
+        <v>3178.57</v>
+      </c>
+      <c r="BB288" t="n">
+        <v>984</v>
+      </c>
+      <c r="BC288" t="n">
+        <v>1730.52</v>
+      </c>
+      <c r="BD288" t="n">
+        <v>510.41</v>
+      </c>
+      <c r="BE288" t="n">
+        <v>3813.33</v>
+      </c>
+      <c r="BF288" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG288" t="n">
+        <v>833.34</v>
+      </c>
+      <c r="BH288" t="n">
+        <v>400</v>
+      </c>
+      <c r="BI288" t="n">
+        <v>1596</v>
+      </c>
+      <c r="BJ288" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK288" t="n">
+        <v>17986.82</v>
+      </c>
+      <c r="BL288" t="n">
+        <v>1807.99</v>
+      </c>
+      <c r="BM288" t="n">
+        <v>1890</v>
+      </c>
+      <c r="BN288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>336</v>
+      </c>
+      <c r="B289" s="2" t="n">
+        <v>45290</v>
+      </c>
+      <c r="C289" t="n">
+        <v>2942.71</v>
+      </c>
+      <c r="D289" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E289" t="n">
+        <v>767.99</v>
+      </c>
+      <c r="F289" t="n">
+        <v>374</v>
+      </c>
+      <c r="G289" t="n">
+        <v>703.8</v>
+      </c>
+      <c r="H289" t="n">
+        <v>1460</v>
+      </c>
+      <c r="I289" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J289" t="n">
+        <v>3899.9</v>
+      </c>
+      <c r="K289" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="L289" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M289" t="n">
+        <v>4999.9</v>
+      </c>
+      <c r="N289" t="n">
+        <v>4319.9</v>
+      </c>
+      <c r="O289" t="n">
+        <v>5439.9</v>
+      </c>
+      <c r="P289" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="Q289" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R289" t="n">
+        <v>1699.9</v>
+      </c>
+      <c r="S289" t="n">
+        <v>3499</v>
+      </c>
+      <c r="T289" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U289" t="n">
+        <v>7870</v>
+      </c>
+      <c r="V289" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W289" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X289" t="n">
+        <v>1508.88</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>519</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>4995</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>1176.72</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>3247.5</v>
+      </c>
+      <c r="AH289" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI289" t="n">
+        <v>999</v>
+      </c>
+      <c r="AJ289" t="n">
+        <v>1149</v>
+      </c>
+      <c r="AK289" t="n">
+        <v>1699</v>
+      </c>
+      <c r="AL289" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM289" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN289" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO289" t="n">
+        <v>569</v>
+      </c>
+      <c r="AP289" t="n">
+        <v>419</v>
+      </c>
+      <c r="AQ289" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR289" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AS289" t="n">
+        <v>899</v>
+      </c>
+      <c r="AT289" t="n">
+        <v>690</v>
+      </c>
+      <c r="AU289" t="n">
+        <v>399</v>
+      </c>
+      <c r="AV289" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW289" t="n">
+        <v>1346.66</v>
+      </c>
+      <c r="AX289" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY289" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ289" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BA289" t="n">
+        <v>3178.57</v>
+      </c>
+      <c r="BB289" t="n">
+        <v>1246</v>
+      </c>
+      <c r="BC289" t="n">
+        <v>1730.52</v>
+      </c>
+      <c r="BD289" t="n">
+        <v>510.41</v>
+      </c>
+      <c r="BE289" t="n">
+        <v>3813.33</v>
+      </c>
+      <c r="BF289" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG289" t="n">
+        <v>833.34</v>
+      </c>
+      <c r="BH289" t="n">
+        <v>400</v>
+      </c>
+      <c r="BI289" t="n">
+        <v>1596</v>
+      </c>
+      <c r="BJ289" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK289" t="n">
+        <v>17986.82</v>
+      </c>
+      <c r="BL289" t="n">
+        <v>1807.99</v>
+      </c>
+      <c r="BM289" t="n">
+        <v>1890</v>
+      </c>
+      <c r="BN289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>337</v>
+      </c>
+      <c r="B290" s="2" t="n">
+        <v>45291</v>
+      </c>
+      <c r="C290" t="n">
+        <v>2942.71</v>
+      </c>
+      <c r="D290" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E290" t="n">
+        <v>767.99</v>
+      </c>
+      <c r="F290" t="n">
+        <v>374</v>
+      </c>
+      <c r="G290" t="n">
+        <v>703.8</v>
+      </c>
+      <c r="H290" t="n">
+        <v>1460</v>
+      </c>
+      <c r="I290" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J290" t="n">
+        <v>4599.9</v>
+      </c>
+      <c r="K290" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="L290" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M290" t="n">
+        <v>4999.9</v>
+      </c>
+      <c r="N290" t="n">
+        <v>4319.9</v>
+      </c>
+      <c r="O290" t="n">
+        <v>5439.9</v>
+      </c>
+      <c r="P290" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="Q290" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R290" t="n">
+        <v>1699.9</v>
+      </c>
+      <c r="S290" t="n">
+        <v>3499</v>
+      </c>
+      <c r="T290" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U290" t="n">
+        <v>7870</v>
+      </c>
+      <c r="V290" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W290" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X290" t="n">
+        <v>1508.88</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>519</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>4995</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>1176.72</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>3247.5</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI290" t="n">
+        <v>999</v>
+      </c>
+      <c r="AJ290" t="n">
+        <v>1149</v>
+      </c>
+      <c r="AK290" t="n">
+        <v>1699</v>
+      </c>
+      <c r="AL290" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM290" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN290" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO290" t="n">
+        <v>569</v>
+      </c>
+      <c r="AP290" t="n">
+        <v>419</v>
+      </c>
+      <c r="AQ290" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>899</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>690</v>
+      </c>
+      <c r="AU290" t="n">
+        <v>399</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW290" t="n">
+        <v>1346.66</v>
+      </c>
+      <c r="AX290" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY290" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ290" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BA290" t="n">
+        <v>3178.57</v>
+      </c>
+      <c r="BB290" t="n">
+        <v>1246</v>
+      </c>
+      <c r="BC290" t="n">
+        <v>1730.52</v>
+      </c>
+      <c r="BD290" t="n">
+        <v>510.41</v>
+      </c>
+      <c r="BE290" t="n">
+        <v>3813.33</v>
+      </c>
+      <c r="BF290" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG290" t="n">
+        <v>833.34</v>
+      </c>
+      <c r="BH290" t="n">
+        <v>400</v>
+      </c>
+      <c r="BI290" t="n">
+        <v>1596</v>
+      </c>
+      <c r="BJ290" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK290" t="n">
+        <v>17986.82</v>
+      </c>
+      <c r="BL290" t="n">
+        <v>1807.99</v>
+      </c>
+      <c r="BM290" t="n">
+        <v>1890</v>
+      </c>
+      <c r="BN290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>338</v>
+      </c>
+      <c r="B291" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C291" t="n">
+        <v>2942.71</v>
+      </c>
+      <c r="D291" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="E291" t="n">
+        <v>767.99</v>
+      </c>
+      <c r="F291" t="n">
+        <v>374</v>
+      </c>
+      <c r="G291" t="n">
+        <v>703.8</v>
+      </c>
+      <c r="H291" t="n">
+        <v>1460</v>
+      </c>
+      <c r="I291" t="n">
+        <v>1638</v>
+      </c>
+      <c r="J291" t="n">
+        <v>4599.9</v>
+      </c>
+      <c r="K291" t="n">
+        <v>3499.9</v>
+      </c>
+      <c r="L291" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="M291" t="n">
+        <v>4999.9</v>
+      </c>
+      <c r="N291" t="n">
+        <v>4319.9</v>
+      </c>
+      <c r="O291" t="n">
+        <v>5439.9</v>
+      </c>
+      <c r="P291" t="n">
+        <v>1249.9</v>
+      </c>
+      <c r="Q291" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R291" t="n">
+        <v>1699.9</v>
+      </c>
+      <c r="S291" t="n">
+        <v>3499</v>
+      </c>
+      <c r="T291" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U291" t="n">
+        <v>7870</v>
+      </c>
+      <c r="V291" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W291" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X291" t="n">
+        <v>1508.88</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>434.23</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>519</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>1775.73</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>272.65</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>6959</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>4995</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>1176.72</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>3247.5</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>3929.99</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>999</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>1149</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>1699</v>
+      </c>
+      <c r="AL291" t="n">
+        <v>249</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>569</v>
+      </c>
+      <c r="AP291" t="n">
+        <v>419</v>
+      </c>
+      <c r="AQ291" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>899</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>690</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>399</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>1720.65</v>
+      </c>
+      <c r="AW291" t="n">
+        <v>1346.66</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>2918.8</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>1344</v>
+      </c>
+      <c r="AZ291" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BA291" t="n">
+        <v>3178.57</v>
+      </c>
+      <c r="BB291" t="n">
+        <v>1246</v>
+      </c>
+      <c r="BC291" t="n">
+        <v>1730.52</v>
+      </c>
+      <c r="BD291" t="n">
+        <v>510.41</v>
+      </c>
+      <c r="BE291" t="n">
+        <v>3813.33</v>
+      </c>
+      <c r="BF291" t="n">
+        <v>315.61</v>
+      </c>
+      <c r="BG291" t="n">
+        <v>833.34</v>
+      </c>
+      <c r="BH291" t="n">
+        <v>400</v>
+      </c>
+      <c r="BI291" t="n">
+        <v>1596</v>
+      </c>
+      <c r="BJ291" t="n">
+        <v>1020.1</v>
+      </c>
+      <c r="BK291" t="n">
+        <v>17986.82</v>
+      </c>
+      <c r="BL291" t="n">
+        <v>1807.99</v>
+      </c>
+      <c r="BM291" t="n">
+        <v>1890</v>
+      </c>
+      <c r="BN291" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/airflow/data/precios.xlsx
+++ b/airflow/data/precios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN373"/>
+  <dimension ref="A1:BN390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75041,6 +75041,3406 @@
         <v>0</v>
       </c>
     </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>425</v>
+      </c>
+      <c r="B374" s="2" t="n">
+        <v>45375</v>
+      </c>
+      <c r="C374" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D374" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E374" t="n">
+        <v>998.99</v>
+      </c>
+      <c r="F374" t="n">
+        <v>790</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0</v>
+      </c>
+      <c r="H374" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I374" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J374" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K374" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L374" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M374" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N374" t="n">
+        <v>4699.9</v>
+      </c>
+      <c r="O374" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P374" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q374" t="n">
+        <v>2999.9</v>
+      </c>
+      <c r="R374" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S374" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T374" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U374" t="n">
+        <v>7999</v>
+      </c>
+      <c r="V374" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W374" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X374" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y374" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z374" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA374" t="n">
+        <v>7496.2</v>
+      </c>
+      <c r="AB374" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC374" t="n">
+        <v>4999</v>
+      </c>
+      <c r="AD374" t="n">
+        <v>11999</v>
+      </c>
+      <c r="AE374" t="n">
+        <v>1635</v>
+      </c>
+      <c r="AF374" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG374" t="n">
+        <v>3872.5</v>
+      </c>
+      <c r="AH374" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI374" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ374" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AK374" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL374" t="n">
+        <v>949</v>
+      </c>
+      <c r="AM374" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AN374" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO374" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AP374" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AQ374" t="n">
+        <v>749</v>
+      </c>
+      <c r="AR374" t="n">
+        <v>4499</v>
+      </c>
+      <c r="AS374" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AT374" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU374" t="n">
+        <v>349</v>
+      </c>
+      <c r="AV374" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW374" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX374" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY374" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ374" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA374" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB374" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC374" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD374" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE374" t="n">
+        <v>13735.96</v>
+      </c>
+      <c r="BF374" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG374" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH374" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI374" t="n">
+        <v>2351</v>
+      </c>
+      <c r="BJ374" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BK374" t="n">
+        <v>3300</v>
+      </c>
+      <c r="BL374" t="n">
+        <v>2950.9</v>
+      </c>
+      <c r="BM374" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>426</v>
+      </c>
+      <c r="B375" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C375" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D375" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E375" t="n">
+        <v>998.99</v>
+      </c>
+      <c r="F375" t="n">
+        <v>790</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0</v>
+      </c>
+      <c r="H375" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I375" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J375" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K375" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L375" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M375" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N375" t="n">
+        <v>5299.9</v>
+      </c>
+      <c r="O375" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P375" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q375" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R375" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S375" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T375" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U375" t="n">
+        <v>8999</v>
+      </c>
+      <c r="V375" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W375" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X375" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y375" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z375" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA375" t="n">
+        <v>7000</v>
+      </c>
+      <c r="AB375" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC375" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD375" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE375" t="n">
+        <v>1635</v>
+      </c>
+      <c r="AF375" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG375" t="n">
+        <v>3872.5</v>
+      </c>
+      <c r="AH375" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI375" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ375" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AK375" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AL375" t="n">
+        <v>949</v>
+      </c>
+      <c r="AM375" t="n">
+        <v>999</v>
+      </c>
+      <c r="AN375" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO375" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AP375" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AQ375" t="n">
+        <v>999</v>
+      </c>
+      <c r="AR375" t="n">
+        <v>4699</v>
+      </c>
+      <c r="AS375" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AT375" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU375" t="n">
+        <v>349</v>
+      </c>
+      <c r="AV375" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW375" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX375" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY375" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ375" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA375" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB375" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC375" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD375" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE375" t="n">
+        <v>13735.96</v>
+      </c>
+      <c r="BF375" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG375" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH375" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI375" t="n">
+        <v>2351</v>
+      </c>
+      <c r="BJ375" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BK375" t="n">
+        <v>3300</v>
+      </c>
+      <c r="BL375" t="n">
+        <v>2950.9</v>
+      </c>
+      <c r="BM375" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>427</v>
+      </c>
+      <c r="B376" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="C376" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D376" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E376" t="n">
+        <v>998.99</v>
+      </c>
+      <c r="F376" t="n">
+        <v>790</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0</v>
+      </c>
+      <c r="H376" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I376" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J376" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K376" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L376" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M376" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N376" t="n">
+        <v>5299.9</v>
+      </c>
+      <c r="O376" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P376" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R376" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S376" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T376" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U376" t="n">
+        <v>8999</v>
+      </c>
+      <c r="V376" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W376" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X376" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y376" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z376" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA376" t="n">
+        <v>7000</v>
+      </c>
+      <c r="AB376" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC376" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD376" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE376" t="n">
+        <v>1635</v>
+      </c>
+      <c r="AF376" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG376" t="n">
+        <v>3872.5</v>
+      </c>
+      <c r="AH376" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI376" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ376" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AK376" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AL376" t="n">
+        <v>949</v>
+      </c>
+      <c r="AM376" t="n">
+        <v>999</v>
+      </c>
+      <c r="AN376" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO376" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AP376" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AQ376" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AR376" t="n">
+        <v>4899</v>
+      </c>
+      <c r="AS376" t="n">
+        <v>2249</v>
+      </c>
+      <c r="AT376" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU376" t="n">
+        <v>349</v>
+      </c>
+      <c r="AV376" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW376" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX376" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY376" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ376" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA376" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB376" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC376" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD376" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE376" t="n">
+        <v>13735.96</v>
+      </c>
+      <c r="BF376" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG376" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH376" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI376" t="n">
+        <v>2351</v>
+      </c>
+      <c r="BJ376" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BK376" t="n">
+        <v>3300</v>
+      </c>
+      <c r="BL376" t="n">
+        <v>2950.9</v>
+      </c>
+      <c r="BM376" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>428</v>
+      </c>
+      <c r="B377" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C377" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D377" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E377" t="n">
+        <v>998.99</v>
+      </c>
+      <c r="F377" t="n">
+        <v>790</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0</v>
+      </c>
+      <c r="H377" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I377" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J377" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K377" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L377" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M377" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N377" t="n">
+        <v>5299.9</v>
+      </c>
+      <c r="O377" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P377" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q377" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R377" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S377" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T377" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U377" t="n">
+        <v>8999</v>
+      </c>
+      <c r="V377" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W377" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X377" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y377" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z377" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA377" t="n">
+        <v>5200</v>
+      </c>
+      <c r="AB377" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC377" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD377" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE377" t="n">
+        <v>1635</v>
+      </c>
+      <c r="AF377" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG377" t="n">
+        <v>3872.5</v>
+      </c>
+      <c r="AH377" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI377" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ377" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AK377" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AL377" t="n">
+        <v>949</v>
+      </c>
+      <c r="AM377" t="n">
+        <v>999</v>
+      </c>
+      <c r="AN377" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO377" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AP377" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AQ377" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AR377" t="n">
+        <v>5299</v>
+      </c>
+      <c r="AS377" t="n">
+        <v>2499</v>
+      </c>
+      <c r="AT377" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU377" t="n">
+        <v>349</v>
+      </c>
+      <c r="AV377" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW377" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX377" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY377" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ377" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA377" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB377" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC377" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD377" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE377" t="n">
+        <v>12719.29</v>
+      </c>
+      <c r="BF377" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG377" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH377" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI377" t="n">
+        <v>2351</v>
+      </c>
+      <c r="BJ377" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BK377" t="n">
+        <v>3300</v>
+      </c>
+      <c r="BL377" t="n">
+        <v>2950.9</v>
+      </c>
+      <c r="BM377" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>429</v>
+      </c>
+      <c r="B378" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="C378" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D378" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E378" t="n">
+        <v>998.99</v>
+      </c>
+      <c r="F378" t="n">
+        <v>790</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0</v>
+      </c>
+      <c r="H378" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I378" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J378" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K378" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L378" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M378" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N378" t="n">
+        <v>5299.9</v>
+      </c>
+      <c r="O378" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P378" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q378" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R378" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S378" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T378" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U378" t="n">
+        <v>8999</v>
+      </c>
+      <c r="V378" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W378" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X378" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y378" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z378" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA378" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB378" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC378" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD378" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE378" t="n">
+        <v>1635</v>
+      </c>
+      <c r="AF378" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG378" t="n">
+        <v>3872.5</v>
+      </c>
+      <c r="AH378" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI378" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ378" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AK378" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AL378" t="n">
+        <v>949</v>
+      </c>
+      <c r="AM378" t="n">
+        <v>999</v>
+      </c>
+      <c r="AN378" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO378" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AP378" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AQ378" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AR378" t="n">
+        <v>5599</v>
+      </c>
+      <c r="AS378" t="n">
+        <v>2499</v>
+      </c>
+      <c r="AT378" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU378" t="n">
+        <v>349</v>
+      </c>
+      <c r="AV378" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW378" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX378" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY378" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ378" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA378" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB378" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC378" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD378" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE378" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF378" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG378" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH378" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI378" t="n">
+        <v>2351</v>
+      </c>
+      <c r="BJ378" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BK378" t="n">
+        <v>1900</v>
+      </c>
+      <c r="BL378" t="n">
+        <v>2950.9</v>
+      </c>
+      <c r="BM378" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>430</v>
+      </c>
+      <c r="B379" s="2" t="n">
+        <v>45380</v>
+      </c>
+      <c r="C379" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D379" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E379" t="n">
+        <v>998.99</v>
+      </c>
+      <c r="F379" t="n">
+        <v>790</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0</v>
+      </c>
+      <c r="H379" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I379" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J379" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K379" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L379" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M379" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N379" t="n">
+        <v>5299.9</v>
+      </c>
+      <c r="O379" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P379" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R379" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S379" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T379" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U379" t="n">
+        <v>8999</v>
+      </c>
+      <c r="V379" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W379" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X379" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y379" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z379" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA379" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB379" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC379" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD379" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE379" t="n">
+        <v>1635</v>
+      </c>
+      <c r="AF379" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG379" t="n">
+        <v>3872.5</v>
+      </c>
+      <c r="AH379" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI379" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ379" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AK379" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL379" t="n">
+        <v>949</v>
+      </c>
+      <c r="AM379" t="n">
+        <v>999</v>
+      </c>
+      <c r="AN379" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO379" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AP379" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AQ379" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AR379" t="n">
+        <v>5599</v>
+      </c>
+      <c r="AS379" t="n">
+        <v>2499</v>
+      </c>
+      <c r="AT379" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU379" t="n">
+        <v>349</v>
+      </c>
+      <c r="AV379" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW379" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX379" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY379" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ379" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA379" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB379" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC379" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD379" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE379" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF379" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG379" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH379" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI379" t="n">
+        <v>2351</v>
+      </c>
+      <c r="BJ379" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BK379" t="n">
+        <v>1900</v>
+      </c>
+      <c r="BL379" t="n">
+        <v>2950.9</v>
+      </c>
+      <c r="BM379" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>431</v>
+      </c>
+      <c r="B380" s="2" t="n">
+        <v>45381</v>
+      </c>
+      <c r="C380" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D380" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E380" t="n">
+        <v>998.99</v>
+      </c>
+      <c r="F380" t="n">
+        <v>790</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0</v>
+      </c>
+      <c r="H380" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I380" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J380" t="n">
+        <v>3999.9</v>
+      </c>
+      <c r="K380" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L380" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M380" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N380" t="n">
+        <v>5299.9</v>
+      </c>
+      <c r="O380" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P380" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R380" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S380" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T380" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U380" t="n">
+        <v>8999</v>
+      </c>
+      <c r="V380" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W380" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X380" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y380" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z380" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA380" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB380" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC380" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD380" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE380" t="n">
+        <v>1635</v>
+      </c>
+      <c r="AF380" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG380" t="n">
+        <v>3872.5</v>
+      </c>
+      <c r="AH380" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI380" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ380" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AK380" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL380" t="n">
+        <v>949</v>
+      </c>
+      <c r="AM380" t="n">
+        <v>999</v>
+      </c>
+      <c r="AN380" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO380" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AP380" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AQ380" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AR380" t="n">
+        <v>5599</v>
+      </c>
+      <c r="AS380" t="n">
+        <v>2499</v>
+      </c>
+      <c r="AT380" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU380" t="n">
+        <v>349</v>
+      </c>
+      <c r="AV380" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW380" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX380" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY380" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ380" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA380" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB380" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC380" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD380" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE380" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF380" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG380" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH380" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI380" t="n">
+        <v>2351</v>
+      </c>
+      <c r="BJ380" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BK380" t="n">
+        <v>1900</v>
+      </c>
+      <c r="BL380" t="n">
+        <v>2950.9</v>
+      </c>
+      <c r="BM380" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>432</v>
+      </c>
+      <c r="B381" s="2" t="n">
+        <v>45382</v>
+      </c>
+      <c r="C381" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D381" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E381" t="n">
+        <v>998.99</v>
+      </c>
+      <c r="F381" t="n">
+        <v>790</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0</v>
+      </c>
+      <c r="H381" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I381" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J381" t="n">
+        <v>3999.9</v>
+      </c>
+      <c r="K381" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L381" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M381" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N381" t="n">
+        <v>5299.9</v>
+      </c>
+      <c r="O381" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P381" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R381" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S381" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T381" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U381" t="n">
+        <v>8999</v>
+      </c>
+      <c r="V381" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W381" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X381" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y381" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z381" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA381" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB381" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC381" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD381" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE381" t="n">
+        <v>1635</v>
+      </c>
+      <c r="AF381" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG381" t="n">
+        <v>3872.5</v>
+      </c>
+      <c r="AH381" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI381" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ381" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AK381" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL381" t="n">
+        <v>949</v>
+      </c>
+      <c r="AM381" t="n">
+        <v>999</v>
+      </c>
+      <c r="AN381" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO381" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AP381" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AQ381" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AR381" t="n">
+        <v>5599</v>
+      </c>
+      <c r="AS381" t="n">
+        <v>2499</v>
+      </c>
+      <c r="AT381" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU381" t="n">
+        <v>349</v>
+      </c>
+      <c r="AV381" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW381" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX381" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY381" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ381" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA381" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB381" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC381" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD381" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE381" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF381" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG381" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH381" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI381" t="n">
+        <v>2351</v>
+      </c>
+      <c r="BJ381" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BK381" t="n">
+        <v>1900</v>
+      </c>
+      <c r="BL381" t="n">
+        <v>2950.9</v>
+      </c>
+      <c r="BM381" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>433</v>
+      </c>
+      <c r="B382" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C382" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D382" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E382" t="n">
+        <v>998.99</v>
+      </c>
+      <c r="F382" t="n">
+        <v>790</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0</v>
+      </c>
+      <c r="H382" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I382" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J382" t="n">
+        <v>3999.9</v>
+      </c>
+      <c r="K382" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L382" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M382" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N382" t="n">
+        <v>4699.9</v>
+      </c>
+      <c r="O382" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P382" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q382" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R382" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S382" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T382" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U382" t="n">
+        <v>8999</v>
+      </c>
+      <c r="V382" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W382" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X382" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y382" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z382" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA382" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB382" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC382" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD382" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE382" t="n">
+        <v>1635</v>
+      </c>
+      <c r="AF382" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG382" t="n">
+        <v>3872.5</v>
+      </c>
+      <c r="AH382" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI382" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ382" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AK382" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL382" t="n">
+        <v>699</v>
+      </c>
+      <c r="AM382" t="n">
+        <v>999</v>
+      </c>
+      <c r="AN382" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO382" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AP382" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AQ382" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AR382" t="n">
+        <v>5599</v>
+      </c>
+      <c r="AS382" t="n">
+        <v>2499</v>
+      </c>
+      <c r="AT382" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU382" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV382" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW382" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX382" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY382" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ382" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA382" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB382" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC382" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD382" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE382" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF382" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG382" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH382" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI382" t="n">
+        <v>2351</v>
+      </c>
+      <c r="BJ382" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BK382" t="n">
+        <v>1900</v>
+      </c>
+      <c r="BL382" t="n">
+        <v>2950.9</v>
+      </c>
+      <c r="BM382" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>434</v>
+      </c>
+      <c r="B383" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="C383" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D383" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E383" t="n">
+        <v>998.99</v>
+      </c>
+      <c r="F383" t="n">
+        <v>790</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0</v>
+      </c>
+      <c r="H383" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I383" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J383" t="n">
+        <v>3999.9</v>
+      </c>
+      <c r="K383" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L383" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M383" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N383" t="n">
+        <v>4699.9</v>
+      </c>
+      <c r="O383" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P383" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q383" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R383" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S383" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T383" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U383" t="n">
+        <v>8999</v>
+      </c>
+      <c r="V383" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W383" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X383" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y383" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z383" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA383" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB383" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC383" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD383" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE383" t="n">
+        <v>1635</v>
+      </c>
+      <c r="AF383" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG383" t="n">
+        <v>3872.5</v>
+      </c>
+      <c r="AH383" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI383" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ383" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AK383" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL383" t="n">
+        <v>699</v>
+      </c>
+      <c r="AM383" t="n">
+        <v>999</v>
+      </c>
+      <c r="AN383" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO383" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AP383" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AQ383" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AR383" t="n">
+        <v>5599</v>
+      </c>
+      <c r="AS383" t="n">
+        <v>2499</v>
+      </c>
+      <c r="AT383" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU383" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV383" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW383" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX383" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY383" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ383" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA383" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB383" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC383" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD383" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE383" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF383" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG383" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH383" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI383" t="n">
+        <v>2351</v>
+      </c>
+      <c r="BJ383" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BK383" t="n">
+        <v>1900</v>
+      </c>
+      <c r="BL383" t="n">
+        <v>2950.9</v>
+      </c>
+      <c r="BM383" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>435</v>
+      </c>
+      <c r="B384" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="C384" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D384" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E384" t="n">
+        <v>998.99</v>
+      </c>
+      <c r="F384" t="n">
+        <v>790</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0</v>
+      </c>
+      <c r="H384" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I384" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J384" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K384" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L384" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M384" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N384" t="n">
+        <v>4699.9</v>
+      </c>
+      <c r="O384" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P384" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q384" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R384" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S384" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T384" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U384" t="n">
+        <v>10295</v>
+      </c>
+      <c r="V384" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W384" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X384" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y384" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z384" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA384" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB384" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC384" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD384" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE384" t="n">
+        <v>1635</v>
+      </c>
+      <c r="AF384" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG384" t="n">
+        <v>3872.5</v>
+      </c>
+      <c r="AH384" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI384" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ384" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AK384" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL384" t="n">
+        <v>699</v>
+      </c>
+      <c r="AM384" t="n">
+        <v>999</v>
+      </c>
+      <c r="AN384" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO384" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AP384" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AQ384" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AR384" t="n">
+        <v>5599</v>
+      </c>
+      <c r="AS384" t="n">
+        <v>2999</v>
+      </c>
+      <c r="AT384" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU384" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV384" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW384" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX384" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY384" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ384" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA384" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB384" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC384" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD384" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE384" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF384" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG384" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH384" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI384" t="n">
+        <v>2351</v>
+      </c>
+      <c r="BJ384" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BK384" t="n">
+        <v>1900</v>
+      </c>
+      <c r="BL384" t="n">
+        <v>2950.9</v>
+      </c>
+      <c r="BM384" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>436</v>
+      </c>
+      <c r="B385" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="C385" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D385" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E385" t="n">
+        <v>998.99</v>
+      </c>
+      <c r="F385" t="n">
+        <v>790</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0</v>
+      </c>
+      <c r="H385" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I385" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J385" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K385" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L385" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M385" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N385" t="n">
+        <v>4699.9</v>
+      </c>
+      <c r="O385" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P385" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q385" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R385" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S385" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T385" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U385" t="n">
+        <v>10295</v>
+      </c>
+      <c r="V385" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W385" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X385" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y385" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z385" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA385" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB385" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC385" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD385" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE385" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF385" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG385" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH385" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI385" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ385" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AK385" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL385" t="n">
+        <v>699</v>
+      </c>
+      <c r="AM385" t="n">
+        <v>999</v>
+      </c>
+      <c r="AN385" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO385" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AP385" t="n">
+        <v>1390</v>
+      </c>
+      <c r="AQ385" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AR385" t="n">
+        <v>5499</v>
+      </c>
+      <c r="AS385" t="n">
+        <v>2999</v>
+      </c>
+      <c r="AT385" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU385" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV385" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW385" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX385" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY385" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ385" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA385" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB385" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC385" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD385" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE385" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF385" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG385" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH385" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI385" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ385" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BK385" t="n">
+        <v>1900</v>
+      </c>
+      <c r="BL385" t="n">
+        <v>3999</v>
+      </c>
+      <c r="BM385" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>437</v>
+      </c>
+      <c r="B386" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="C386" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D386" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E386" t="n">
+        <v>998.99</v>
+      </c>
+      <c r="F386" t="n">
+        <v>790</v>
+      </c>
+      <c r="G386" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H386" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I386" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J386" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K386" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L386" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M386" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N386" t="n">
+        <v>4699.9</v>
+      </c>
+      <c r="O386" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P386" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q386" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R386" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S386" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T386" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U386" t="n">
+        <v>10295</v>
+      </c>
+      <c r="V386" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W386" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X386" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y386" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z386" t="n">
+        <v>945</v>
+      </c>
+      <c r="AA386" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB386" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC386" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD386" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE386" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF386" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG386" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH386" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI386" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ386" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AK386" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL386" t="n">
+        <v>699</v>
+      </c>
+      <c r="AM386" t="n">
+        <v>999</v>
+      </c>
+      <c r="AN386" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO386" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AP386" t="n">
+        <v>1390</v>
+      </c>
+      <c r="AQ386" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AR386" t="n">
+        <v>5499</v>
+      </c>
+      <c r="AS386" t="n">
+        <v>2999</v>
+      </c>
+      <c r="AT386" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU386" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV386" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW386" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX386" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY386" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ386" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA386" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB386" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC386" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD386" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE386" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF386" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG386" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH386" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI386" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ386" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BK386" t="n">
+        <v>1900</v>
+      </c>
+      <c r="BL386" t="n">
+        <v>3999</v>
+      </c>
+      <c r="BM386" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>438</v>
+      </c>
+      <c r="B387" s="2" t="n">
+        <v>45388</v>
+      </c>
+      <c r="C387" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D387" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E387" t="n">
+        <v>998.99</v>
+      </c>
+      <c r="F387" t="n">
+        <v>790</v>
+      </c>
+      <c r="G387" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H387" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I387" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J387" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K387" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L387" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M387" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N387" t="n">
+        <v>4699.9</v>
+      </c>
+      <c r="O387" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P387" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q387" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R387" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S387" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T387" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U387" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V387" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W387" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X387" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y387" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z387" t="n">
+        <v>945</v>
+      </c>
+      <c r="AA387" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB387" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC387" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD387" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE387" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF387" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG387" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH387" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI387" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ387" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AK387" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL387" t="n">
+        <v>699</v>
+      </c>
+      <c r="AM387" t="n">
+        <v>890</v>
+      </c>
+      <c r="AN387" t="n">
+        <v>899</v>
+      </c>
+      <c r="AO387" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AP387" t="n">
+        <v>1390</v>
+      </c>
+      <c r="AQ387" t="n">
+        <v>999</v>
+      </c>
+      <c r="AR387" t="n">
+        <v>5499</v>
+      </c>
+      <c r="AS387" t="n">
+        <v>2499</v>
+      </c>
+      <c r="AT387" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU387" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV387" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW387" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX387" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY387" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ387" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA387" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB387" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC387" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD387" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE387" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF387" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG387" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH387" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI387" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ387" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BK387" t="n">
+        <v>1900</v>
+      </c>
+      <c r="BL387" t="n">
+        <v>3999</v>
+      </c>
+      <c r="BM387" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>439</v>
+      </c>
+      <c r="B388" s="2" t="n">
+        <v>45389</v>
+      </c>
+      <c r="C388" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D388" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E388" t="n">
+        <v>998.99</v>
+      </c>
+      <c r="F388" t="n">
+        <v>790</v>
+      </c>
+      <c r="G388" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H388" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I388" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J388" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K388" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L388" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M388" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N388" t="n">
+        <v>4699.9</v>
+      </c>
+      <c r="O388" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P388" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q388" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R388" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S388" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T388" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U388" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V388" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W388" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X388" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y388" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z388" t="n">
+        <v>945</v>
+      </c>
+      <c r="AA388" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB388" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC388" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD388" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE388" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF388" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG388" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH388" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI388" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ388" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AK388" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL388" t="n">
+        <v>699</v>
+      </c>
+      <c r="AM388" t="n">
+        <v>890</v>
+      </c>
+      <c r="AN388" t="n">
+        <v>899</v>
+      </c>
+      <c r="AO388" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AP388" t="n">
+        <v>1390</v>
+      </c>
+      <c r="AQ388" t="n">
+        <v>999</v>
+      </c>
+      <c r="AR388" t="n">
+        <v>5499</v>
+      </c>
+      <c r="AS388" t="n">
+        <v>2499</v>
+      </c>
+      <c r="AT388" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU388" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV388" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW388" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX388" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY388" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ388" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA388" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB388" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC388" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD388" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE388" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF388" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG388" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH388" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI388" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ388" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BK388" t="n">
+        <v>1900</v>
+      </c>
+      <c r="BL388" t="n">
+        <v>3999</v>
+      </c>
+      <c r="BM388" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>440</v>
+      </c>
+      <c r="B389" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C389" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D389" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E389" t="n">
+        <v>998.99</v>
+      </c>
+      <c r="F389" t="n">
+        <v>790</v>
+      </c>
+      <c r="G389" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H389" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I389" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J389" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K389" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L389" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M389" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N389" t="n">
+        <v>5299.9</v>
+      </c>
+      <c r="O389" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P389" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q389" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R389" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S389" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T389" t="n">
+        <v>4990</v>
+      </c>
+      <c r="U389" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V389" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W389" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X389" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y389" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z389" t="n">
+        <v>945</v>
+      </c>
+      <c r="AA389" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB389" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC389" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD389" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE389" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF389" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG389" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH389" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI389" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ389" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AK389" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL389" t="n">
+        <v>699</v>
+      </c>
+      <c r="AM389" t="n">
+        <v>890</v>
+      </c>
+      <c r="AN389" t="n">
+        <v>899</v>
+      </c>
+      <c r="AO389" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AP389" t="n">
+        <v>1390</v>
+      </c>
+      <c r="AQ389" t="n">
+        <v>999</v>
+      </c>
+      <c r="AR389" t="n">
+        <v>5499</v>
+      </c>
+      <c r="AS389" t="n">
+        <v>2499</v>
+      </c>
+      <c r="AT389" t="n">
+        <v>899</v>
+      </c>
+      <c r="AU389" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV389" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW389" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX389" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY389" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ389" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA389" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB389" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC389" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD389" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE389" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF389" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG389" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH389" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI389" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ389" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BK389" t="n">
+        <v>1900</v>
+      </c>
+      <c r="BL389" t="n">
+        <v>3999</v>
+      </c>
+      <c r="BM389" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>441</v>
+      </c>
+      <c r="B390" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="C390" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D390" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E390" t="n">
+        <v>998.99</v>
+      </c>
+      <c r="F390" t="n">
+        <v>790</v>
+      </c>
+      <c r="G390" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H390" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I390" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J390" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K390" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L390" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M390" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N390" t="n">
+        <v>5299.9</v>
+      </c>
+      <c r="O390" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P390" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q390" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R390" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S390" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T390" t="n">
+        <v>4990</v>
+      </c>
+      <c r="U390" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V390" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W390" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X390" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y390" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z390" t="n">
+        <v>945</v>
+      </c>
+      <c r="AA390" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB390" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC390" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD390" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE390" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF390" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG390" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH390" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI390" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ390" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AK390" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL390" t="n">
+        <v>699</v>
+      </c>
+      <c r="AM390" t="n">
+        <v>890</v>
+      </c>
+      <c r="AN390" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO390" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AP390" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AQ390" t="n">
+        <v>999</v>
+      </c>
+      <c r="AR390" t="n">
+        <v>5299</v>
+      </c>
+      <c r="AS390" t="n">
+        <v>2499</v>
+      </c>
+      <c r="AT390" t="n">
+        <v>899</v>
+      </c>
+      <c r="AU390" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV390" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW390" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX390" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY390" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ390" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA390" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB390" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC390" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD390" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE390" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF390" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG390" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH390" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI390" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ390" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BK390" t="n">
+        <v>1900</v>
+      </c>
+      <c r="BL390" t="n">
+        <v>3999</v>
+      </c>
+      <c r="BM390" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN390" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/airflow/data/precios.xlsx
+++ b/airflow/data/precios.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN390"/>
+  <dimension ref="A1:BN412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74571,75 +74571,203 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B371" s="2" t="n">
         <v>45372</v>
       </c>
-      <c r="C371" t="inlineStr"/>
-      <c r="D371" t="inlineStr"/>
-      <c r="E371" t="inlineStr"/>
-      <c r="F371" t="inlineStr"/>
-      <c r="G371" t="inlineStr"/>
-      <c r="H371" t="inlineStr"/>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
-      <c r="M371" t="inlineStr"/>
-      <c r="N371" t="inlineStr"/>
-      <c r="O371" t="inlineStr"/>
-      <c r="P371" t="inlineStr"/>
-      <c r="Q371" t="inlineStr"/>
-      <c r="R371" t="inlineStr"/>
-      <c r="S371" t="inlineStr"/>
-      <c r="T371" t="inlineStr"/>
-      <c r="U371" t="inlineStr"/>
-      <c r="V371" t="inlineStr"/>
-      <c r="W371" t="inlineStr"/>
-      <c r="X371" t="inlineStr"/>
-      <c r="Y371" t="inlineStr"/>
-      <c r="Z371" t="inlineStr"/>
-      <c r="AA371" t="inlineStr"/>
-      <c r="AB371" t="inlineStr"/>
-      <c r="AC371" t="inlineStr"/>
-      <c r="AD371" t="inlineStr"/>
-      <c r="AE371" t="inlineStr"/>
-      <c r="AF371" t="inlineStr"/>
-      <c r="AG371" t="inlineStr"/>
-      <c r="AH371" t="inlineStr"/>
-      <c r="AI371" t="inlineStr"/>
-      <c r="AJ371" t="inlineStr"/>
-      <c r="AK371" t="inlineStr"/>
-      <c r="AL371" t="inlineStr"/>
-      <c r="AM371" t="inlineStr"/>
-      <c r="AN371" t="inlineStr"/>
-      <c r="AO371" t="inlineStr"/>
-      <c r="AP371" t="inlineStr"/>
-      <c r="AQ371" t="inlineStr"/>
-      <c r="AR371" t="inlineStr"/>
-      <c r="AS371" t="inlineStr"/>
-      <c r="AT371" t="inlineStr"/>
-      <c r="AU371" t="inlineStr"/>
-      <c r="AV371" t="inlineStr"/>
-      <c r="AW371" t="inlineStr"/>
-      <c r="AX371" t="inlineStr"/>
-      <c r="AY371" t="inlineStr"/>
-      <c r="AZ371" t="inlineStr"/>
-      <c r="BA371" t="inlineStr"/>
-      <c r="BB371" t="inlineStr"/>
-      <c r="BC371" t="inlineStr"/>
-      <c r="BD371" t="inlineStr"/>
-      <c r="BE371" t="inlineStr"/>
-      <c r="BF371" t="inlineStr"/>
-      <c r="BG371" t="inlineStr"/>
-      <c r="BH371" t="inlineStr"/>
-      <c r="BI371" t="inlineStr"/>
-      <c r="BJ371" t="inlineStr"/>
-      <c r="BK371" t="inlineStr"/>
-      <c r="BL371" t="inlineStr"/>
-      <c r="BM371" t="inlineStr"/>
-      <c r="BN371" t="inlineStr"/>
+      <c r="C371" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D371" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E371" t="n">
+        <v>998.99</v>
+      </c>
+      <c r="F371" t="n">
+        <v>790</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0</v>
+      </c>
+      <c r="H371" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I371" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J371" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K371" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L371" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M371" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N371" t="n">
+        <v>4699.9</v>
+      </c>
+      <c r="O371" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P371" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R371" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S371" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T371" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U371" t="n">
+        <v>8999</v>
+      </c>
+      <c r="V371" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W371" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X371" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y371" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z371" t="n">
+        <v>819</v>
+      </c>
+      <c r="AA371" t="n">
+        <v>7496.2</v>
+      </c>
+      <c r="AB371" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC371" t="n">
+        <v>4999</v>
+      </c>
+      <c r="AD371" t="n">
+        <v>11999</v>
+      </c>
+      <c r="AE371" t="n">
+        <v>1635</v>
+      </c>
+      <c r="AF371" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG371" t="n">
+        <v>3872.5</v>
+      </c>
+      <c r="AH371" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI371" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ371" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AK371" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL371" t="n">
+        <v>949</v>
+      </c>
+      <c r="AM371" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AN371" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO371" t="n">
+        <v>1499</v>
+      </c>
+      <c r="AP371" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AQ371" t="n">
+        <v>749</v>
+      </c>
+      <c r="AR371" t="n">
+        <v>4299</v>
+      </c>
+      <c r="AS371" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AT371" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU371" t="n">
+        <v>349</v>
+      </c>
+      <c r="AV371" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW371" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX371" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY371" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ371" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA371" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB371" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC371" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD371" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE371" t="n">
+        <v>13735.96</v>
+      </c>
+      <c r="BF371" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG371" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH371" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI371" t="n">
+        <v>2351</v>
+      </c>
+      <c r="BJ371" t="n">
+        <v>1645</v>
+      </c>
+      <c r="BK371" t="n">
+        <v>3300</v>
+      </c>
+      <c r="BL371" t="n">
+        <v>2950.9</v>
+      </c>
+      <c r="BM371" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -78438,6 +78566,4406 @@
         <v>3770</v>
       </c>
       <c r="BN390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>442</v>
+      </c>
+      <c r="B391" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="C391" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D391" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E391" t="n">
+        <v>998.99</v>
+      </c>
+      <c r="F391" t="n">
+        <v>845</v>
+      </c>
+      <c r="G391" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H391" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I391" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J391" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K391" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L391" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M391" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N391" t="n">
+        <v>5299.9</v>
+      </c>
+      <c r="O391" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P391" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q391" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R391" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S391" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T391" t="n">
+        <v>4990</v>
+      </c>
+      <c r="U391" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V391" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W391" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X391" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y391" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z391" t="n">
+        <v>945</v>
+      </c>
+      <c r="AA391" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB391" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC391" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD391" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE391" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF391" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG391" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH391" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI391" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ391" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AK391" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL391" t="n">
+        <v>699</v>
+      </c>
+      <c r="AM391" t="n">
+        <v>890</v>
+      </c>
+      <c r="AN391" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO391" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AP391" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AQ391" t="n">
+        <v>999</v>
+      </c>
+      <c r="AR391" t="n">
+        <v>5299</v>
+      </c>
+      <c r="AS391" t="n">
+        <v>2499</v>
+      </c>
+      <c r="AT391" t="n">
+        <v>899</v>
+      </c>
+      <c r="AU391" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV391" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW391" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX391" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY391" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ391" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA391" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB391" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC391" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD391" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE391" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF391" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG391" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH391" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI391" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ391" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK391" t="n">
+        <v>1900</v>
+      </c>
+      <c r="BL391" t="n">
+        <v>3999</v>
+      </c>
+      <c r="BM391" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>443</v>
+      </c>
+      <c r="B392" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="C392" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D392" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E392" t="n">
+        <v>998.99</v>
+      </c>
+      <c r="F392" t="n">
+        <v>845</v>
+      </c>
+      <c r="G392" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H392" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I392" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J392" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K392" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L392" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M392" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N392" t="n">
+        <v>5299.9</v>
+      </c>
+      <c r="O392" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P392" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q392" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R392" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S392" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T392" t="n">
+        <v>4990</v>
+      </c>
+      <c r="U392" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V392" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W392" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X392" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y392" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z392" t="n">
+        <v>945</v>
+      </c>
+      <c r="AA392" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB392" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC392" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD392" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE392" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF392" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG392" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH392" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI392" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ392" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AK392" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL392" t="n">
+        <v>699</v>
+      </c>
+      <c r="AM392" t="n">
+        <v>890</v>
+      </c>
+      <c r="AN392" t="n">
+        <v>899</v>
+      </c>
+      <c r="AO392" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AP392" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AQ392" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AR392" t="n">
+        <v>4499</v>
+      </c>
+      <c r="AS392" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AT392" t="n">
+        <v>999</v>
+      </c>
+      <c r="AU392" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV392" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW392" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX392" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY392" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ392" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA392" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB392" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC392" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD392" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE392" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF392" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG392" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH392" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI392" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ392" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK392" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BL392" t="n">
+        <v>3999</v>
+      </c>
+      <c r="BM392" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>444</v>
+      </c>
+      <c r="B393" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="C393" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D393" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E393" t="n">
+        <v>0</v>
+      </c>
+      <c r="F393" t="n">
+        <v>845</v>
+      </c>
+      <c r="G393" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H393" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I393" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J393" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K393" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L393" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M393" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N393" t="n">
+        <v>5299.9</v>
+      </c>
+      <c r="O393" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P393" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q393" t="n">
+        <v>2999.9</v>
+      </c>
+      <c r="R393" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S393" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T393" t="n">
+        <v>4990</v>
+      </c>
+      <c r="U393" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V393" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W393" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X393" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y393" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z393" t="n">
+        <v>945</v>
+      </c>
+      <c r="AA393" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB393" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC393" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD393" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE393" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF393" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG393" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH393" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI393" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ393" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AK393" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL393" t="n">
+        <v>699</v>
+      </c>
+      <c r="AM393" t="n">
+        <v>890</v>
+      </c>
+      <c r="AN393" t="n">
+        <v>899</v>
+      </c>
+      <c r="AO393" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AP393" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AQ393" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AR393" t="n">
+        <v>3999</v>
+      </c>
+      <c r="AS393" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AT393" t="n">
+        <v>999</v>
+      </c>
+      <c r="AU393" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV393" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW393" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX393" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY393" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ393" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA393" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB393" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC393" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD393" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE393" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF393" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG393" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH393" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI393" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ393" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK393" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BL393" t="n">
+        <v>4267</v>
+      </c>
+      <c r="BM393" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>445</v>
+      </c>
+      <c r="B394" s="2" t="n">
+        <v>45395</v>
+      </c>
+      <c r="C394" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D394" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E394" t="n">
+        <v>0</v>
+      </c>
+      <c r="F394" t="n">
+        <v>845</v>
+      </c>
+      <c r="G394" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H394" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I394" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J394" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K394" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L394" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M394" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N394" t="n">
+        <v>5299.9</v>
+      </c>
+      <c r="O394" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P394" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q394" t="n">
+        <v>2999.9</v>
+      </c>
+      <c r="R394" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S394" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T394" t="n">
+        <v>4990</v>
+      </c>
+      <c r="U394" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V394" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W394" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X394" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y394" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z394" t="n">
+        <v>945</v>
+      </c>
+      <c r="AA394" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB394" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC394" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD394" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE394" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF394" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG394" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH394" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI394" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ394" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AK394" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL394" t="n">
+        <v>699</v>
+      </c>
+      <c r="AM394" t="n">
+        <v>890</v>
+      </c>
+      <c r="AN394" t="n">
+        <v>899</v>
+      </c>
+      <c r="AO394" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AP394" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AQ394" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AR394" t="n">
+        <v>3999</v>
+      </c>
+      <c r="AS394" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AT394" t="n">
+        <v>899</v>
+      </c>
+      <c r="AU394" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV394" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW394" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX394" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY394" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ394" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA394" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB394" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC394" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD394" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE394" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF394" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG394" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH394" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI394" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ394" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK394" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BL394" t="n">
+        <v>4267</v>
+      </c>
+      <c r="BM394" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>446</v>
+      </c>
+      <c r="B395" s="2" t="n">
+        <v>45396</v>
+      </c>
+      <c r="C395" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D395" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E395" t="n">
+        <v>0</v>
+      </c>
+      <c r="F395" t="n">
+        <v>845</v>
+      </c>
+      <c r="G395" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H395" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I395" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J395" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K395" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L395" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M395" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N395" t="n">
+        <v>5299.9</v>
+      </c>
+      <c r="O395" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P395" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q395" t="n">
+        <v>2999.9</v>
+      </c>
+      <c r="R395" t="n">
+        <v>1999.9</v>
+      </c>
+      <c r="S395" t="n">
+        <v>4999</v>
+      </c>
+      <c r="T395" t="n">
+        <v>4990</v>
+      </c>
+      <c r="U395" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V395" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W395" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X395" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y395" t="n">
+        <v>1040</v>
+      </c>
+      <c r="Z395" t="n">
+        <v>945</v>
+      </c>
+      <c r="AA395" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB395" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC395" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD395" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE395" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF395" t="n">
+        <v>1991.11</v>
+      </c>
+      <c r="AG395" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH395" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI395" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ395" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AK395" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL395" t="n">
+        <v>699</v>
+      </c>
+      <c r="AM395" t="n">
+        <v>890</v>
+      </c>
+      <c r="AN395" t="n">
+        <v>899</v>
+      </c>
+      <c r="AO395" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AP395" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AQ395" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AR395" t="n">
+        <v>3999</v>
+      </c>
+      <c r="AS395" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AT395" t="n">
+        <v>899</v>
+      </c>
+      <c r="AU395" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV395" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW395" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX395" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY395" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ395" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA395" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB395" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC395" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD395" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE395" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF395" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG395" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH395" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI395" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ395" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK395" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BL395" t="n">
+        <v>4267</v>
+      </c>
+      <c r="BM395" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>447</v>
+      </c>
+      <c r="B396" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="C396" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D396" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E396" t="n">
+        <v>0</v>
+      </c>
+      <c r="F396" t="n">
+        <v>845</v>
+      </c>
+      <c r="G396" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H396" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I396" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J396" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K396" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L396" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M396" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N396" t="n">
+        <v>4799.9</v>
+      </c>
+      <c r="O396" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P396" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q396" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R396" t="n">
+        <v>2199.9</v>
+      </c>
+      <c r="S396" t="n">
+        <v>4990</v>
+      </c>
+      <c r="T396" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U396" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V396" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W396" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X396" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y396" t="n">
+        <v>1145</v>
+      </c>
+      <c r="Z396" t="n">
+        <v>945</v>
+      </c>
+      <c r="AA396" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB396" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC396" t="n">
+        <v>5899</v>
+      </c>
+      <c r="AD396" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE396" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF396" t="n">
+        <v>2061.11</v>
+      </c>
+      <c r="AG396" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH396" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI396" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AJ396" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AK396" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL396" t="n">
+        <v>699</v>
+      </c>
+      <c r="AM396" t="n">
+        <v>790</v>
+      </c>
+      <c r="AN396" t="n">
+        <v>899</v>
+      </c>
+      <c r="AO396" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AP396" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AQ396" t="n">
+        <v>1699</v>
+      </c>
+      <c r="AR396" t="n">
+        <v>3999</v>
+      </c>
+      <c r="AS396" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AT396" t="n">
+        <v>899</v>
+      </c>
+      <c r="AU396" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV396" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW396" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX396" t="n">
+        <v>4087.5</v>
+      </c>
+      <c r="AY396" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ396" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA396" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB396" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC396" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD396" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE396" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF396" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG396" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH396" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI396" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ396" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK396" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BL396" t="n">
+        <v>4267</v>
+      </c>
+      <c r="BM396" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>448</v>
+      </c>
+      <c r="B397" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="C397" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D397" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E397" t="n">
+        <v>0</v>
+      </c>
+      <c r="F397" t="n">
+        <v>845</v>
+      </c>
+      <c r="G397" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H397" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I397" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J397" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K397" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L397" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M397" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N397" t="n">
+        <v>4799.9</v>
+      </c>
+      <c r="O397" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P397" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q397" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R397" t="n">
+        <v>2199.9</v>
+      </c>
+      <c r="S397" t="n">
+        <v>4990</v>
+      </c>
+      <c r="T397" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U397" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V397" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W397" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X397" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y397" t="n">
+        <v>1145</v>
+      </c>
+      <c r="Z397" t="n">
+        <v>989</v>
+      </c>
+      <c r="AA397" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB397" t="n">
+        <v>1884.9</v>
+      </c>
+      <c r="AC397" t="n">
+        <v>5899</v>
+      </c>
+      <c r="AD397" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE397" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF397" t="n">
+        <v>2061.11</v>
+      </c>
+      <c r="AG397" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH397" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI397" t="n">
+        <v>1549</v>
+      </c>
+      <c r="AJ397" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AK397" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL397" t="n">
+        <v>699</v>
+      </c>
+      <c r="AM397" t="n">
+        <v>790</v>
+      </c>
+      <c r="AN397" t="n">
+        <v>899</v>
+      </c>
+      <c r="AO397" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AP397" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AQ397" t="n">
+        <v>1699</v>
+      </c>
+      <c r="AR397" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AS397" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AT397" t="n">
+        <v>899</v>
+      </c>
+      <c r="AU397" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV397" t="n">
+        <v>2125</v>
+      </c>
+      <c r="AW397" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX397" t="n">
+        <v>4722.5</v>
+      </c>
+      <c r="AY397" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ397" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA397" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB397" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC397" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD397" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE397" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF397" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG397" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH397" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI397" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ397" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK397" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BL397" t="n">
+        <v>4267</v>
+      </c>
+      <c r="BM397" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>449</v>
+      </c>
+      <c r="B398" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="C398" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D398" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E398" t="n">
+        <v>0</v>
+      </c>
+      <c r="F398" t="n">
+        <v>845</v>
+      </c>
+      <c r="G398" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H398" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I398" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J398" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K398" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L398" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M398" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N398" t="n">
+        <v>4799.9</v>
+      </c>
+      <c r="O398" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P398" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q398" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R398" t="n">
+        <v>2199.9</v>
+      </c>
+      <c r="S398" t="n">
+        <v>4990</v>
+      </c>
+      <c r="T398" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U398" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V398" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W398" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X398" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y398" t="n">
+        <v>1145</v>
+      </c>
+      <c r="Z398" t="n">
+        <v>989</v>
+      </c>
+      <c r="AA398" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB398" t="n">
+        <v>1884.9</v>
+      </c>
+      <c r="AC398" t="n">
+        <v>5899</v>
+      </c>
+      <c r="AD398" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE398" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF398" t="n">
+        <v>2061.11</v>
+      </c>
+      <c r="AG398" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH398" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI398" t="n">
+        <v>1549</v>
+      </c>
+      <c r="AJ398" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AK398" t="n">
+        <v>1489</v>
+      </c>
+      <c r="AL398" t="n">
+        <v>699</v>
+      </c>
+      <c r="AM398" t="n">
+        <v>790</v>
+      </c>
+      <c r="AN398" t="n">
+        <v>899</v>
+      </c>
+      <c r="AO398" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AP398" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AQ398" t="n">
+        <v>1699</v>
+      </c>
+      <c r="AR398" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AS398" t="n">
+        <v>2299</v>
+      </c>
+      <c r="AT398" t="n">
+        <v>899</v>
+      </c>
+      <c r="AU398" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV398" t="n">
+        <v>2125</v>
+      </c>
+      <c r="AW398" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX398" t="n">
+        <v>4722.5</v>
+      </c>
+      <c r="AY398" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ398" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA398" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB398" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC398" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD398" t="n">
+        <v>768.75</v>
+      </c>
+      <c r="BE398" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF398" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG398" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH398" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI398" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ398" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK398" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BL398" t="n">
+        <v>4267</v>
+      </c>
+      <c r="BM398" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>450</v>
+      </c>
+      <c r="B399" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="C399" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D399" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E399" t="n">
+        <v>1198.99</v>
+      </c>
+      <c r="F399" t="n">
+        <v>845</v>
+      </c>
+      <c r="G399" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H399" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I399" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J399" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K399" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L399" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M399" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N399" t="n">
+        <v>4799.9</v>
+      </c>
+      <c r="O399" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P399" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q399" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R399" t="n">
+        <v>2199.9</v>
+      </c>
+      <c r="S399" t="n">
+        <v>4990</v>
+      </c>
+      <c r="T399" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U399" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V399" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W399" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X399" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y399" t="n">
+        <v>1145</v>
+      </c>
+      <c r="Z399" t="n">
+        <v>989</v>
+      </c>
+      <c r="AA399" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB399" t="n">
+        <v>1884.9</v>
+      </c>
+      <c r="AC399" t="n">
+        <v>5899</v>
+      </c>
+      <c r="AD399" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE399" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF399" t="n">
+        <v>2054.44</v>
+      </c>
+      <c r="AG399" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH399" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI399" t="n">
+        <v>1549</v>
+      </c>
+      <c r="AJ399" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AK399" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AL399" t="n">
+        <v>699</v>
+      </c>
+      <c r="AM399" t="n">
+        <v>790</v>
+      </c>
+      <c r="AN399" t="n">
+        <v>899</v>
+      </c>
+      <c r="AO399" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AP399" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AQ399" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR399" t="n">
+        <v>3799</v>
+      </c>
+      <c r="AS399" t="n">
+        <v>2599</v>
+      </c>
+      <c r="AT399" t="n">
+        <v>899</v>
+      </c>
+      <c r="AU399" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV399" t="n">
+        <v>2125</v>
+      </c>
+      <c r="AW399" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX399" t="n">
+        <v>4722.5</v>
+      </c>
+      <c r="AY399" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ399" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA399" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB399" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC399" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD399" t="n">
+        <v>832.29</v>
+      </c>
+      <c r="BE399" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF399" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG399" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH399" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI399" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ399" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK399" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BL399" t="n">
+        <v>4267</v>
+      </c>
+      <c r="BM399" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>451</v>
+      </c>
+      <c r="B400" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="C400" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D400" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E400" t="n">
+        <v>1198.99</v>
+      </c>
+      <c r="F400" t="n">
+        <v>845</v>
+      </c>
+      <c r="G400" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H400" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I400" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J400" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K400" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L400" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M400" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N400" t="n">
+        <v>4799.9</v>
+      </c>
+      <c r="O400" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P400" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q400" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R400" t="n">
+        <v>2199.9</v>
+      </c>
+      <c r="S400" t="n">
+        <v>4990</v>
+      </c>
+      <c r="T400" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U400" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V400" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W400" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X400" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y400" t="n">
+        <v>1145</v>
+      </c>
+      <c r="Z400" t="n">
+        <v>989</v>
+      </c>
+      <c r="AA400" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB400" t="n">
+        <v>1729.34</v>
+      </c>
+      <c r="AC400" t="n">
+        <v>5899</v>
+      </c>
+      <c r="AD400" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE400" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF400" t="n">
+        <v>2054.44</v>
+      </c>
+      <c r="AG400" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH400" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI400" t="n">
+        <v>1549</v>
+      </c>
+      <c r="AJ400" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AK400" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AL400" t="n">
+        <v>699</v>
+      </c>
+      <c r="AM400" t="n">
+        <v>790</v>
+      </c>
+      <c r="AN400" t="n">
+        <v>899</v>
+      </c>
+      <c r="AO400" t="n">
+        <v>1599</v>
+      </c>
+      <c r="AP400" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AQ400" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR400" t="n">
+        <v>3299</v>
+      </c>
+      <c r="AS400" t="n">
+        <v>2599</v>
+      </c>
+      <c r="AT400" t="n">
+        <v>899</v>
+      </c>
+      <c r="AU400" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV400" t="n">
+        <v>2125</v>
+      </c>
+      <c r="AW400" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX400" t="n">
+        <v>4722.5</v>
+      </c>
+      <c r="AY400" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ400" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA400" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB400" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC400" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD400" t="n">
+        <v>832.29</v>
+      </c>
+      <c r="BE400" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF400" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG400" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH400" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI400" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ400" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK400" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BL400" t="n">
+        <v>4267</v>
+      </c>
+      <c r="BM400" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>452</v>
+      </c>
+      <c r="B401" s="2" t="n">
+        <v>45402</v>
+      </c>
+      <c r="C401" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D401" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E401" t="n">
+        <v>0</v>
+      </c>
+      <c r="F401" t="n">
+        <v>845</v>
+      </c>
+      <c r="G401" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H401" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I401" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J401" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K401" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L401" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M401" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N401" t="n">
+        <v>4799.9</v>
+      </c>
+      <c r="O401" t="n">
+        <v>4999.9</v>
+      </c>
+      <c r="P401" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q401" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R401" t="n">
+        <v>2199.9</v>
+      </c>
+      <c r="S401" t="n">
+        <v>4990</v>
+      </c>
+      <c r="T401" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U401" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V401" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W401" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X401" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y401" t="n">
+        <v>1145</v>
+      </c>
+      <c r="Z401" t="n">
+        <v>989</v>
+      </c>
+      <c r="AA401" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB401" t="n">
+        <v>1885</v>
+      </c>
+      <c r="AC401" t="n">
+        <v>5899</v>
+      </c>
+      <c r="AD401" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE401" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF401" t="n">
+        <v>2054.44</v>
+      </c>
+      <c r="AG401" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH401" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI401" t="n">
+        <v>1549</v>
+      </c>
+      <c r="AJ401" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AK401" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AL401" t="n">
+        <v>699</v>
+      </c>
+      <c r="AM401" t="n">
+        <v>790</v>
+      </c>
+      <c r="AN401" t="n">
+        <v>899</v>
+      </c>
+      <c r="AO401" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AP401" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AQ401" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR401" t="n">
+        <v>3299</v>
+      </c>
+      <c r="AS401" t="n">
+        <v>2599</v>
+      </c>
+      <c r="AT401" t="n">
+        <v>899</v>
+      </c>
+      <c r="AU401" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV401" t="n">
+        <v>2125</v>
+      </c>
+      <c r="AW401" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX401" t="n">
+        <v>4722.5</v>
+      </c>
+      <c r="AY401" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ401" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA401" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB401" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC401" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD401" t="n">
+        <v>832.29</v>
+      </c>
+      <c r="BE401" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF401" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG401" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH401" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI401" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ401" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK401" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BL401" t="n">
+        <v>4267</v>
+      </c>
+      <c r="BM401" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>453</v>
+      </c>
+      <c r="B402" s="2" t="n">
+        <v>45403</v>
+      </c>
+      <c r="C402" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D402" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E402" t="n">
+        <v>0</v>
+      </c>
+      <c r="F402" t="n">
+        <v>845</v>
+      </c>
+      <c r="G402" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H402" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I402" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J402" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K402" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L402" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M402" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N402" t="n">
+        <v>4799.9</v>
+      </c>
+      <c r="O402" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P402" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q402" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R402" t="n">
+        <v>2199.9</v>
+      </c>
+      <c r="S402" t="n">
+        <v>4990</v>
+      </c>
+      <c r="T402" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U402" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V402" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W402" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X402" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y402" t="n">
+        <v>1145</v>
+      </c>
+      <c r="Z402" t="n">
+        <v>989</v>
+      </c>
+      <c r="AA402" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB402" t="n">
+        <v>1885</v>
+      </c>
+      <c r="AC402" t="n">
+        <v>5899</v>
+      </c>
+      <c r="AD402" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE402" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF402" t="n">
+        <v>2054.44</v>
+      </c>
+      <c r="AG402" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH402" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI402" t="n">
+        <v>1549</v>
+      </c>
+      <c r="AJ402" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AK402" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AL402" t="n">
+        <v>699</v>
+      </c>
+      <c r="AM402" t="n">
+        <v>790</v>
+      </c>
+      <c r="AN402" t="n">
+        <v>899</v>
+      </c>
+      <c r="AO402" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AP402" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AQ402" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR402" t="n">
+        <v>3299</v>
+      </c>
+      <c r="AS402" t="n">
+        <v>2599</v>
+      </c>
+      <c r="AT402" t="n">
+        <v>899</v>
+      </c>
+      <c r="AU402" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV402" t="n">
+        <v>2125</v>
+      </c>
+      <c r="AW402" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX402" t="n">
+        <v>4722.5</v>
+      </c>
+      <c r="AY402" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AZ402" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA402" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB402" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC402" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD402" t="n">
+        <v>832.29</v>
+      </c>
+      <c r="BE402" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF402" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG402" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH402" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI402" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ402" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK402" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BL402" t="n">
+        <v>4267</v>
+      </c>
+      <c r="BM402" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>454</v>
+      </c>
+      <c r="B403" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C403" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D403" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E403" t="n">
+        <v>1026.99</v>
+      </c>
+      <c r="F403" t="n">
+        <v>845</v>
+      </c>
+      <c r="G403" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H403" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I403" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J403" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K403" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L403" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M403" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N403" t="n">
+        <v>4799.9</v>
+      </c>
+      <c r="O403" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P403" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q403" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R403" t="n">
+        <v>2199.9</v>
+      </c>
+      <c r="S403" t="n">
+        <v>3990</v>
+      </c>
+      <c r="T403" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U403" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V403" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W403" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X403" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y403" t="n">
+        <v>1145</v>
+      </c>
+      <c r="Z403" t="n">
+        <v>989</v>
+      </c>
+      <c r="AA403" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB403" t="n">
+        <v>1885</v>
+      </c>
+      <c r="AC403" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD403" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE403" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF403" t="n">
+        <v>2054.44</v>
+      </c>
+      <c r="AG403" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH403" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI403" t="n">
+        <v>1549</v>
+      </c>
+      <c r="AJ403" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AK403" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AL403" t="n">
+        <v>949</v>
+      </c>
+      <c r="AM403" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AN403" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO403" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AP403" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AQ403" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR403" t="n">
+        <v>3299</v>
+      </c>
+      <c r="AS403" t="n">
+        <v>2799</v>
+      </c>
+      <c r="AT403" t="n">
+        <v>999</v>
+      </c>
+      <c r="AU403" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV403" t="n">
+        <v>2125</v>
+      </c>
+      <c r="AW403" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX403" t="n">
+        <v>4722.5</v>
+      </c>
+      <c r="AY403" t="n">
+        <v>1179</v>
+      </c>
+      <c r="AZ403" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA403" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB403" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC403" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD403" t="n">
+        <v>832.29</v>
+      </c>
+      <c r="BE403" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF403" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG403" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH403" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI403" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ403" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK403" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BL403" t="n">
+        <v>4267</v>
+      </c>
+      <c r="BM403" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>455</v>
+      </c>
+      <c r="B404" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="C404" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D404" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E404" t="n">
+        <v>1026.99</v>
+      </c>
+      <c r="F404" t="n">
+        <v>845</v>
+      </c>
+      <c r="G404" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H404" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I404" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J404" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K404" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L404" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M404" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N404" t="n">
+        <v>4799.9</v>
+      </c>
+      <c r="O404" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P404" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q404" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R404" t="n">
+        <v>2199.9</v>
+      </c>
+      <c r="S404" t="n">
+        <v>3990</v>
+      </c>
+      <c r="T404" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U404" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V404" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W404" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X404" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y404" t="n">
+        <v>1145</v>
+      </c>
+      <c r="Z404" t="n">
+        <v>989</v>
+      </c>
+      <c r="AA404" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB404" t="n">
+        <v>1885</v>
+      </c>
+      <c r="AC404" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD404" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE404" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF404" t="n">
+        <v>2054.44</v>
+      </c>
+      <c r="AG404" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH404" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI404" t="n">
+        <v>1549</v>
+      </c>
+      <c r="AJ404" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AK404" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AL404" t="n">
+        <v>949</v>
+      </c>
+      <c r="AM404" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN404" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO404" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AP404" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AQ404" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR404" t="n">
+        <v>2999</v>
+      </c>
+      <c r="AS404" t="n">
+        <v>2799</v>
+      </c>
+      <c r="AT404" t="n">
+        <v>899</v>
+      </c>
+      <c r="AU404" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV404" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW404" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX404" t="n">
+        <v>4722.5</v>
+      </c>
+      <c r="AY404" t="n">
+        <v>1179</v>
+      </c>
+      <c r="AZ404" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA404" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB404" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC404" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD404" t="n">
+        <v>832.29</v>
+      </c>
+      <c r="BE404" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF404" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG404" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH404" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI404" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ404" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK404" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BL404" t="n">
+        <v>4267</v>
+      </c>
+      <c r="BM404" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>456</v>
+      </c>
+      <c r="B405" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="C405" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D405" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E405" t="n">
+        <v>1026.99</v>
+      </c>
+      <c r="F405" t="n">
+        <v>845</v>
+      </c>
+      <c r="G405" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H405" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I405" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J405" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K405" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L405" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M405" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N405" t="n">
+        <v>4799.9</v>
+      </c>
+      <c r="O405" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P405" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q405" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R405" t="n">
+        <v>2199.9</v>
+      </c>
+      <c r="S405" t="n">
+        <v>3990</v>
+      </c>
+      <c r="T405" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U405" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V405" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W405" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X405" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y405" t="n">
+        <v>1145</v>
+      </c>
+      <c r="Z405" t="n">
+        <v>989</v>
+      </c>
+      <c r="AA405" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB405" t="n">
+        <v>1885</v>
+      </c>
+      <c r="AC405" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD405" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE405" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF405" t="n">
+        <v>2054.44</v>
+      </c>
+      <c r="AG405" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH405" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI405" t="n">
+        <v>1549</v>
+      </c>
+      <c r="AJ405" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AK405" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AL405" t="n">
+        <v>849</v>
+      </c>
+      <c r="AM405" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN405" t="n">
+        <v>999</v>
+      </c>
+      <c r="AO405" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AP405" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AQ405" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR405" t="n">
+        <v>2999</v>
+      </c>
+      <c r="AS405" t="n">
+        <v>2799</v>
+      </c>
+      <c r="AT405" t="n">
+        <v>899</v>
+      </c>
+      <c r="AU405" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV405" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW405" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX405" t="n">
+        <v>4722.5</v>
+      </c>
+      <c r="AY405" t="n">
+        <v>1179</v>
+      </c>
+      <c r="AZ405" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA405" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB405" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC405" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD405" t="n">
+        <v>832.29</v>
+      </c>
+      <c r="BE405" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF405" t="n">
+        <v>566.66</v>
+      </c>
+      <c r="BG405" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH405" t="n">
+        <v>600</v>
+      </c>
+      <c r="BI405" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ405" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK405" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BL405" t="n">
+        <v>4267</v>
+      </c>
+      <c r="BM405" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>457</v>
+      </c>
+      <c r="B406" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="C406" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D406" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E406" t="n">
+        <v>1026.99</v>
+      </c>
+      <c r="F406" t="n">
+        <v>845</v>
+      </c>
+      <c r="G406" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H406" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I406" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J406" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K406" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L406" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M406" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N406" t="n">
+        <v>4799.9</v>
+      </c>
+      <c r="O406" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P406" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q406" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R406" t="n">
+        <v>2199.9</v>
+      </c>
+      <c r="S406" t="n">
+        <v>3990</v>
+      </c>
+      <c r="T406" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U406" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V406" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W406" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X406" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y406" t="n">
+        <v>1145</v>
+      </c>
+      <c r="Z406" t="n">
+        <v>989</v>
+      </c>
+      <c r="AA406" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB406" t="n">
+        <v>1885</v>
+      </c>
+      <c r="AC406" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD406" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE406" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF406" t="n">
+        <v>2054.44</v>
+      </c>
+      <c r="AG406" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH406" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI406" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AJ406" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AK406" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AL406" t="n">
+        <v>849</v>
+      </c>
+      <c r="AM406" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN406" t="n">
+        <v>899</v>
+      </c>
+      <c r="AO406" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AP406" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AQ406" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR406" t="n">
+        <v>2799</v>
+      </c>
+      <c r="AS406" t="n">
+        <v>2799</v>
+      </c>
+      <c r="AT406" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU406" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV406" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW406" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX406" t="n">
+        <v>4722.5</v>
+      </c>
+      <c r="AY406" t="n">
+        <v>1179</v>
+      </c>
+      <c r="AZ406" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA406" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB406" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC406" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD406" t="n">
+        <v>832.29</v>
+      </c>
+      <c r="BE406" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF406" t="n">
+        <v>633.33</v>
+      </c>
+      <c r="BG406" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH406" t="n">
+        <v>650</v>
+      </c>
+      <c r="BI406" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ406" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK406" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BL406" t="n">
+        <v>4267</v>
+      </c>
+      <c r="BM406" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>458</v>
+      </c>
+      <c r="B407" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="C407" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D407" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E407" t="n">
+        <v>1026.99</v>
+      </c>
+      <c r="F407" t="n">
+        <v>845</v>
+      </c>
+      <c r="G407" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H407" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I407" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J407" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K407" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L407" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M407" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N407" t="n">
+        <v>4799.9</v>
+      </c>
+      <c r="O407" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P407" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q407" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R407" t="n">
+        <v>2199.9</v>
+      </c>
+      <c r="S407" t="n">
+        <v>3990</v>
+      </c>
+      <c r="T407" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U407" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V407" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W407" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X407" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y407" t="n">
+        <v>1145</v>
+      </c>
+      <c r="Z407" t="n">
+        <v>989</v>
+      </c>
+      <c r="AA407" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB407" t="n">
+        <v>1885</v>
+      </c>
+      <c r="AC407" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD407" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE407" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF407" t="n">
+        <v>2054.44</v>
+      </c>
+      <c r="AG407" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH407" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI407" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AJ407" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AK407" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AL407" t="n">
+        <v>849</v>
+      </c>
+      <c r="AM407" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN407" t="n">
+        <v>899</v>
+      </c>
+      <c r="AO407" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AP407" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AQ407" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR407" t="n">
+        <v>2799</v>
+      </c>
+      <c r="AS407" t="n">
+        <v>2999</v>
+      </c>
+      <c r="AT407" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU407" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV407" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW407" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX407" t="n">
+        <v>4722.5</v>
+      </c>
+      <c r="AY407" t="n">
+        <v>1179</v>
+      </c>
+      <c r="AZ407" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA407" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB407" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC407" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD407" t="n">
+        <v>832.29</v>
+      </c>
+      <c r="BE407" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF407" t="n">
+        <v>633.33</v>
+      </c>
+      <c r="BG407" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH407" t="n">
+        <v>650</v>
+      </c>
+      <c r="BI407" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ407" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK407" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BL407" t="n">
+        <v>4267</v>
+      </c>
+      <c r="BM407" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>459</v>
+      </c>
+      <c r="B408" s="2" t="n">
+        <v>45409</v>
+      </c>
+      <c r="C408" t="n">
+        <v>5671.28</v>
+      </c>
+      <c r="D408" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E408" t="n">
+        <v>1026.99</v>
+      </c>
+      <c r="F408" t="n">
+        <v>845</v>
+      </c>
+      <c r="G408" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H408" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I408" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J408" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="K408" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L408" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M408" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N408" t="n">
+        <v>4799.9</v>
+      </c>
+      <c r="O408" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P408" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q408" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R408" t="n">
+        <v>2199.9</v>
+      </c>
+      <c r="S408" t="n">
+        <v>3990</v>
+      </c>
+      <c r="T408" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U408" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V408" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W408" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X408" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y408" t="n">
+        <v>1145</v>
+      </c>
+      <c r="Z408" t="n">
+        <v>989</v>
+      </c>
+      <c r="AA408" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB408" t="n">
+        <v>1885</v>
+      </c>
+      <c r="AC408" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD408" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE408" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF408" t="n">
+        <v>2054.44</v>
+      </c>
+      <c r="AG408" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH408" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI408" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AJ408" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AK408" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AL408" t="n">
+        <v>849</v>
+      </c>
+      <c r="AM408" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN408" t="n">
+        <v>899</v>
+      </c>
+      <c r="AO408" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AP408" t="n">
+        <v>1349</v>
+      </c>
+      <c r="AQ408" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR408" t="n">
+        <v>2799</v>
+      </c>
+      <c r="AS408" t="n">
+        <v>2999</v>
+      </c>
+      <c r="AT408" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU408" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV408" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW408" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX408" t="n">
+        <v>4722.5</v>
+      </c>
+      <c r="AY408" t="n">
+        <v>1179</v>
+      </c>
+      <c r="AZ408" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA408" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB408" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC408" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD408" t="n">
+        <v>832.29</v>
+      </c>
+      <c r="BE408" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF408" t="n">
+        <v>633.33</v>
+      </c>
+      <c r="BG408" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH408" t="n">
+        <v>650</v>
+      </c>
+      <c r="BI408" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ408" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK408" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BL408" t="n">
+        <v>4267</v>
+      </c>
+      <c r="BM408" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>460</v>
+      </c>
+      <c r="B409" s="2" t="n">
+        <v>45410</v>
+      </c>
+      <c r="C409" t="n">
+        <v>2807.99</v>
+      </c>
+      <c r="D409" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E409" t="n">
+        <v>1026.99</v>
+      </c>
+      <c r="F409" t="n">
+        <v>845</v>
+      </c>
+      <c r="G409" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H409" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I409" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J409" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="K409" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L409" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M409" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N409" t="n">
+        <v>4799.9</v>
+      </c>
+      <c r="O409" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P409" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q409" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R409" t="n">
+        <v>2199.9</v>
+      </c>
+      <c r="S409" t="n">
+        <v>3990</v>
+      </c>
+      <c r="T409" t="n">
+        <v>7190</v>
+      </c>
+      <c r="U409" t="n">
+        <v>8749</v>
+      </c>
+      <c r="V409" t="n">
+        <v>3910</v>
+      </c>
+      <c r="W409" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X409" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y409" t="n">
+        <v>1145</v>
+      </c>
+      <c r="Z409" t="n">
+        <v>989</v>
+      </c>
+      <c r="AA409" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB409" t="n">
+        <v>1885</v>
+      </c>
+      <c r="AC409" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD409" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE409" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF409" t="n">
+        <v>2054.44</v>
+      </c>
+      <c r="AG409" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH409" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI409" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AJ409" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AK409" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AL409" t="n">
+        <v>849</v>
+      </c>
+      <c r="AM409" t="n">
+        <v>849</v>
+      </c>
+      <c r="AN409" t="n">
+        <v>899</v>
+      </c>
+      <c r="AO409" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AP409" t="n">
+        <v>1349</v>
+      </c>
+      <c r="AQ409" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR409" t="n">
+        <v>2799</v>
+      </c>
+      <c r="AS409" t="n">
+        <v>2999</v>
+      </c>
+      <c r="AT409" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU409" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV409" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW409" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX409" t="n">
+        <v>4722.5</v>
+      </c>
+      <c r="AY409" t="n">
+        <v>1179</v>
+      </c>
+      <c r="AZ409" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA409" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB409" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC409" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD409" t="n">
+        <v>832.29</v>
+      </c>
+      <c r="BE409" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF409" t="n">
+        <v>633.33</v>
+      </c>
+      <c r="BG409" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH409" t="n">
+        <v>650</v>
+      </c>
+      <c r="BI409" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ409" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK409" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BL409" t="n">
+        <v>4267</v>
+      </c>
+      <c r="BM409" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>461</v>
+      </c>
+      <c r="B410" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C410" t="n">
+        <v>2807.99</v>
+      </c>
+      <c r="D410" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E410" t="n">
+        <v>1026.99</v>
+      </c>
+      <c r="F410" t="n">
+        <v>845</v>
+      </c>
+      <c r="G410" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H410" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I410" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J410" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K410" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L410" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M410" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N410" t="n">
+        <v>5299.9</v>
+      </c>
+      <c r="O410" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P410" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q410" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R410" t="n">
+        <v>2199.9</v>
+      </c>
+      <c r="S410" t="n">
+        <v>3990</v>
+      </c>
+      <c r="T410" t="n">
+        <v>4990</v>
+      </c>
+      <c r="U410" t="n">
+        <v>10295</v>
+      </c>
+      <c r="V410" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W410" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X410" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y410" t="n">
+        <v>1145</v>
+      </c>
+      <c r="Z410" t="n">
+        <v>989</v>
+      </c>
+      <c r="AA410" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB410" t="n">
+        <v>1885</v>
+      </c>
+      <c r="AC410" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD410" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE410" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF410" t="n">
+        <v>2054.44</v>
+      </c>
+      <c r="AG410" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH410" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI410" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AJ410" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AK410" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AL410" t="n">
+        <v>849</v>
+      </c>
+      <c r="AM410" t="n">
+        <v>790</v>
+      </c>
+      <c r="AN410" t="n">
+        <v>899</v>
+      </c>
+      <c r="AO410" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AP410" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AQ410" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR410" t="n">
+        <v>2799</v>
+      </c>
+      <c r="AS410" t="n">
+        <v>3299</v>
+      </c>
+      <c r="AT410" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU410" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV410" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW410" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX410" t="n">
+        <v>4722.5</v>
+      </c>
+      <c r="AY410" t="n">
+        <v>1179</v>
+      </c>
+      <c r="AZ410" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA410" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB410" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC410" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD410" t="n">
+        <v>832.29</v>
+      </c>
+      <c r="BE410" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF410" t="n">
+        <v>633.33</v>
+      </c>
+      <c r="BG410" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH410" t="n">
+        <v>650</v>
+      </c>
+      <c r="BI410" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ410" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK410" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BL410" t="n">
+        <v>4267</v>
+      </c>
+      <c r="BM410" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>462</v>
+      </c>
+      <c r="B411" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="C411" t="n">
+        <v>2807.99</v>
+      </c>
+      <c r="D411" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E411" t="n">
+        <v>1026.99</v>
+      </c>
+      <c r="F411" t="n">
+        <v>845</v>
+      </c>
+      <c r="G411" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H411" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I411" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J411" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K411" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L411" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M411" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N411" t="n">
+        <v>5299.9</v>
+      </c>
+      <c r="O411" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P411" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q411" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R411" t="n">
+        <v>2199.9</v>
+      </c>
+      <c r="S411" t="n">
+        <v>3990</v>
+      </c>
+      <c r="T411" t="n">
+        <v>4990</v>
+      </c>
+      <c r="U411" t="n">
+        <v>10295</v>
+      </c>
+      <c r="V411" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W411" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X411" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y411" t="n">
+        <v>1289</v>
+      </c>
+      <c r="Z411" t="n">
+        <v>989</v>
+      </c>
+      <c r="AA411" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB411" t="n">
+        <v>1885</v>
+      </c>
+      <c r="AC411" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD411" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE411" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF411" t="n">
+        <v>2054.44</v>
+      </c>
+      <c r="AG411" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH411" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI411" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AJ411" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AK411" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AL411" t="n">
+        <v>749</v>
+      </c>
+      <c r="AM411" t="n">
+        <v>790</v>
+      </c>
+      <c r="AN411" t="n">
+        <v>899</v>
+      </c>
+      <c r="AO411" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AP411" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AQ411" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR411" t="n">
+        <v>2799</v>
+      </c>
+      <c r="AS411" t="n">
+        <v>2999</v>
+      </c>
+      <c r="AT411" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU411" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV411" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW411" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX411" t="n">
+        <v>4722.5</v>
+      </c>
+      <c r="AY411" t="n">
+        <v>1179</v>
+      </c>
+      <c r="AZ411" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA411" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB411" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC411" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD411" t="n">
+        <v>832.29</v>
+      </c>
+      <c r="BE411" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF411" t="n">
+        <v>633.33</v>
+      </c>
+      <c r="BG411" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH411" t="n">
+        <v>650</v>
+      </c>
+      <c r="BI411" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ411" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK411" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BL411" t="n">
+        <v>4267</v>
+      </c>
+      <c r="BM411" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>463</v>
+      </c>
+      <c r="B412" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="C412" t="n">
+        <v>2807.99</v>
+      </c>
+      <c r="D412" t="n">
+        <v>989.99</v>
+      </c>
+      <c r="E412" t="n">
+        <v>1026.99</v>
+      </c>
+      <c r="F412" t="n">
+        <v>845</v>
+      </c>
+      <c r="G412" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H412" t="n">
+        <v>3170</v>
+      </c>
+      <c r="I412" t="n">
+        <v>2100</v>
+      </c>
+      <c r="J412" t="n">
+        <v>5499.9</v>
+      </c>
+      <c r="K412" t="n">
+        <v>4299.9</v>
+      </c>
+      <c r="L412" t="n">
+        <v>1549.9</v>
+      </c>
+      <c r="M412" t="n">
+        <v>6199.9</v>
+      </c>
+      <c r="N412" t="n">
+        <v>5299.9</v>
+      </c>
+      <c r="O412" t="n">
+        <v>6599.9</v>
+      </c>
+      <c r="P412" t="n">
+        <v>1399.9</v>
+      </c>
+      <c r="Q412" t="n">
+        <v>3799.9</v>
+      </c>
+      <c r="R412" t="n">
+        <v>2199.9</v>
+      </c>
+      <c r="S412" t="n">
+        <v>3990</v>
+      </c>
+      <c r="T412" t="n">
+        <v>4990</v>
+      </c>
+      <c r="U412" t="n">
+        <v>10295</v>
+      </c>
+      <c r="V412" t="n">
+        <v>4600</v>
+      </c>
+      <c r="W412" t="n">
+        <v>17633.33</v>
+      </c>
+      <c r="X412" t="n">
+        <v>1543.33</v>
+      </c>
+      <c r="Y412" t="n">
+        <v>1289</v>
+      </c>
+      <c r="Z412" t="n">
+        <v>989</v>
+      </c>
+      <c r="AA412" t="n">
+        <v>8247</v>
+      </c>
+      <c r="AB412" t="n">
+        <v>1885</v>
+      </c>
+      <c r="AC412" t="n">
+        <v>7399</v>
+      </c>
+      <c r="AD412" t="n">
+        <v>14999</v>
+      </c>
+      <c r="AE412" t="n">
+        <v>1849</v>
+      </c>
+      <c r="AF412" t="n">
+        <v>2054.44</v>
+      </c>
+      <c r="AG412" t="n">
+        <v>4222.5</v>
+      </c>
+      <c r="AH412" t="n">
+        <v>6095</v>
+      </c>
+      <c r="AI412" t="n">
+        <v>1399</v>
+      </c>
+      <c r="AJ412" t="n">
+        <v>1799</v>
+      </c>
+      <c r="AK412" t="n">
+        <v>1299</v>
+      </c>
+      <c r="AL412" t="n">
+        <v>749</v>
+      </c>
+      <c r="AM412" t="n">
+        <v>790</v>
+      </c>
+      <c r="AN412" t="n">
+        <v>899</v>
+      </c>
+      <c r="AO412" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AP412" t="n">
+        <v>1490</v>
+      </c>
+      <c r="AQ412" t="n">
+        <v>1999</v>
+      </c>
+      <c r="AR412" t="n">
+        <v>2799</v>
+      </c>
+      <c r="AS412" t="n">
+        <v>2999</v>
+      </c>
+      <c r="AT412" t="n">
+        <v>799</v>
+      </c>
+      <c r="AU412" t="n">
+        <v>329</v>
+      </c>
+      <c r="AV412" t="n">
+        <v>2750</v>
+      </c>
+      <c r="AW412" t="n">
+        <v>3096.66</v>
+      </c>
+      <c r="AX412" t="n">
+        <v>4722.5</v>
+      </c>
+      <c r="AY412" t="n">
+        <v>1179</v>
+      </c>
+      <c r="AZ412" t="n">
+        <v>2799</v>
+      </c>
+      <c r="BA412" t="n">
+        <v>3928.57</v>
+      </c>
+      <c r="BB412" t="n">
+        <v>1770</v>
+      </c>
+      <c r="BC412" t="n">
+        <v>2421.05</v>
+      </c>
+      <c r="BD412" t="n">
+        <v>832.29</v>
+      </c>
+      <c r="BE412" t="n">
+        <v>13736.84</v>
+      </c>
+      <c r="BF412" t="n">
+        <v>633.33</v>
+      </c>
+      <c r="BG412" t="n">
+        <v>1105.56</v>
+      </c>
+      <c r="BH412" t="n">
+        <v>650</v>
+      </c>
+      <c r="BI412" t="n">
+        <v>2469</v>
+      </c>
+      <c r="BJ412" t="n">
+        <v>1999</v>
+      </c>
+      <c r="BK412" t="n">
+        <v>3003</v>
+      </c>
+      <c r="BL412" t="n">
+        <v>4267</v>
+      </c>
+      <c r="BM412" t="n">
+        <v>3770</v>
+      </c>
+      <c r="BN412" t="n">
         <v>0</v>
       </c>
     </row>
